--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2651F-0DC2-4A81-8FD5-A5497467FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA10236-1603-4D64-8571-A02998526BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="437">
   <si>
     <t>Common Name</t>
   </si>
@@ -985,9 +985,6 @@
     <t>Loten's sunbirds are compact, measuring only 12–13 cm in length. Their distinguishing feature from the syntopic purple sunbird is their long bill. The wings exhibit a browner hue, and under favorable lighting conditions, the male's maroon breast band becomes visible. Adult males showcase pectoral tufts in a mix of yellow and crimson, utilized in displays. The male's overall plumage is glossy purple with a grey-brown belly. In contrast, females exhibit yellow-grey upperparts and yellowish underparts, lacking the faint supercilium seen in the purple sunbirds.</t>
   </si>
   <si>
-    <t>When seeking nectar, the Purple-rumped sunbirds engage in frequent hovering at flowers, distinguishing them from purple sunbirds, which generally prefer perching beside flowers. Similar to other sunbirds, they also include small insects and spiders in their diet. Additionally, these sunbirds readily drink from various garden plants as well as wild shrubs.</t>
-  </si>
-  <si>
     <t>INDIAN GOLDEN ORIOLE</t>
   </si>
   <si>
@@ -1006,9 +1003,6 @@
     <t>Distinctive features of these birds include a yellow patch on the wings, yellow outer tail feathers, a black stripe across the eye that creates a masked appearance, and a fleshy pink bill. In contrast, females exhibit a dull greenish-yellow overall coloration with wings in dirty brown/green hues and a completely yellowish tail. Both males and females share a red iris.</t>
   </si>
   <si>
-    <t>Loten's sunbirds have a varied diet, consisting of fruits, nectar, and insects. Their feeding habits make them effective seed dispersers for numerous berry-bearing plants.</t>
-  </si>
-  <si>
     <t>BLACK HEADED ORIOLE</t>
   </si>
   <si>
@@ -1027,9 +1021,6 @@
     <t>The male Black-Hooded Oriole stands out with its striking black and yellow coloration, predominantly yellow plumage, a solid black hood, and black wings and tail center. In contrast, the female is less vibrant, featuring greenish underparts with the distinctive black hood. Young birds resemble females but exhibit dark streaking on the underparts, and their hoods are not entirely black, especially on the throat. The black head of the Black-Hooded Oriole serves as a clear distinction from the Indian golden oriole.. These birds, while potentially shy, may be challenging to spot amid the dappled yellow and green leaves of the canopy. In flight, the black-hooded oriole's movement resembles that of a thrush, characterized by a strong and direct flight with some shallow dips over longer distances. When foraging, the species employs various methods, including foliage-gleaning, wood-gleaning, or sallying.</t>
   </si>
   <si>
-    <t>The Black-Hooded Oriole's adaptable diet, ranging from insects like caterpillars and beetles to fruits and nectar, positions them as important contributors to their ecosystem. Their diverse foraging habits support their roles as predators, pollinators, and seed dispersers, contributing to the overall health and balance of their habitats.</t>
-  </si>
-  <si>
     <t>SPOT BILLED PELICAN</t>
   </si>
   <si>
@@ -1328,6 +1319,18 @@
   </si>
   <si>
     <t>The common kingfisher's primary diet consists mainly of small fish, although it also includes insect larvae and, occasionally, frogs. When perched on a branch or reed above the water, the small bird patiently awaits the sight of a potential prey - a small fish in the water. Upon spotting its target, the kingfisher executes a swift, vertical plunge into the water with its wings retracted. In an attempt to catch the fish, the bird uses its beak before swiftly taking off again. To subdue and prepare its catch, the kingfisher often strikes the fish several times against a branch.</t>
+  </si>
+  <si>
+    <t>During their quest for nectar, they frequently hover around flowers. Similar to other sunbirds, they also consume small insects and spiders. Their drinking habits encompass both garden plants and more untamed shrubs with equal enthusiasm.</t>
+  </si>
+  <si>
+    <t>The Black-Headed Oriole's adaptable diet, ranging from insects like caterpillars and beetles to fruits and nectar, positions them as important contributors to their ecosystem. Their diverse foraging habits support their roles as predators, pollinators, and seed dispersers, contributing to the overall health and balance of their habitats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The diet of these golden oriole species consists mainly of wild fruits. </t>
+  </si>
+  <si>
+    <t>Little cormorant birds primarily consume fish, occasionally incorporating crustaceans and amphibians into their diet. They engage in diving to capture their prey and resurface to swallow it.</t>
   </si>
 </sst>
 </file>
@@ -1701,8 +1704,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2107,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -3852,7 +3855,7 @@
         <v>320</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3874,29 +3877,29 @@
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="I49" s="4" t="s">
-        <v>328</v>
+        <v>435</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3918,31 +3921,31 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="H50" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="I50" s="4" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3964,13 +3967,13 @@
     </row>
     <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>71</v>
@@ -3980,13 +3983,13 @@
         <v>41</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4008,31 +4011,31 @@
     </row>
     <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4054,13 +4057,13 @@
     </row>
     <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>12</v>
@@ -4070,13 +4073,13 @@
         <v>41</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4098,13 +4101,13 @@
     </row>
     <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>12</v>
@@ -4114,12 +4117,14 @@
         <v>41</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>354</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -4140,31 +4145,31 @@
     </row>
     <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="H55" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="I55" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>365</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4186,29 +4191,29 @@
     </row>
     <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I56" s="17" t="s">
         <v>369</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4230,31 +4235,31 @@
     </row>
     <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="I57" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4276,29 +4281,29 @@
     </row>
     <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4320,29 +4325,29 @@
     </row>
     <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4364,29 +4369,29 @@
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4408,29 +4413,29 @@
     </row>
     <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4452,31 +4457,31 @@
     </row>
     <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="I62" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4498,31 +4503,31 @@
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="I63" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4544,31 +4549,31 @@
     </row>
     <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="I64" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4590,31 +4595,31 @@
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA10236-1603-4D64-8571-A02998526BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D67414-6960-4A45-B0EE-99ABBA9B19D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="441">
   <si>
     <t>Common Name</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve"> Accipitridae</t>
   </si>
   <si>
-    <t>Least Concern</t>
-  </si>
-  <si>
     <t>red backed sea eagle</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Anhingidae</t>
   </si>
   <si>
-    <t>Near Threatened</t>
-  </si>
-  <si>
     <t>Uncommon breeeding resident in dry lowlands. Very rarely observed in wet lowlands and high hills. Tanks, lakes, larger rivers and lagoons are the preffered habitat.</t>
   </si>
   <si>
@@ -502,9 +496,6 @@
     <t>SPOTTED DOVE</t>
   </si>
   <si>
-    <t>Spilopelia chinensis</t>
-  </si>
-  <si>
     <t>Eastern spotted dove</t>
   </si>
   <si>
@@ -751,9 +742,6 @@
     <t>YELLOW BILLED BABLER</t>
   </si>
   <si>
-    <t>Turdoides affinis</t>
-  </si>
-  <si>
     <t>Leiothrichidae</t>
   </si>
   <si>
@@ -772,9 +760,6 @@
     <t>BROWN HEADED BARBET</t>
   </si>
   <si>
-    <t>Megalaima zeylanica</t>
-  </si>
-  <si>
     <t>Megalaimidae</t>
   </si>
   <si>
@@ -793,9 +778,6 @@
     <t>CEYLON SMALL BARBET</t>
   </si>
   <si>
-    <t>Megalaima rubricapillus</t>
-  </si>
-  <si>
     <t>Crimson fronted barbet, Sri lanka barbet</t>
   </si>
   <si>
@@ -856,9 +838,6 @@
     <t>EASTERN/WESTERN YELLOW WAGTAIL</t>
   </si>
   <si>
-    <t>Motacilla tschutschensis</t>
-  </si>
-  <si>
     <t>Motacillidae</t>
   </si>
   <si>
@@ -931,12 +910,6 @@
     <t>Being insectivorous, brown-breasted flycatchers primarily feed on insects. Their common food items include beetles, caterpillars, flies, and spiders.</t>
   </si>
   <si>
-    <t>INDIAN BLACK ROBIN</t>
-  </si>
-  <si>
-    <t>Copsychus fulicatus</t>
-  </si>
-  <si>
     <t>Observed only once in the courtyard of the chemical engineering department.</t>
   </si>
   <si>
@@ -1117,9 +1090,6 @@
     <t>Loriculus beryllinus</t>
   </si>
   <si>
-    <t>Psittaculidae</t>
-  </si>
-  <si>
     <t>Surrounding areas of university ground and Ceremonial courtyard.</t>
   </si>
   <si>
@@ -1216,9 +1186,6 @@
     <t>PURPLE SWAMPHEN</t>
   </si>
   <si>
-    <t>Porphyrio porphyrio</t>
-  </si>
-  <si>
     <t>Locally common breeding resident in the lowlands. Reedbeds, marshes, paddyfields and weedy tanks are the habitat types which can be easily spotted.</t>
   </si>
   <si>
@@ -1331,13 +1298,58 @@
   </si>
   <si>
     <t>Little cormorant birds primarily consume fish, occasionally incorporating crustaceans and amphibians into their diet. They engage in diving to capture their prey and resurface to swallow it.</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Spilopelia suratensis</t>
+  </si>
+  <si>
+    <t>Western Koel</t>
+  </si>
+  <si>
+    <t>Argya affinis</t>
+  </si>
+  <si>
+    <t>Psilopogon zeylanicus</t>
+  </si>
+  <si>
+    <t>Psilopogon rubricapillus</t>
+  </si>
+  <si>
+    <t>Motacilla tschutschensis/Motacilla tschutschensis</t>
+  </si>
+  <si>
+    <t>INDIAN ROBIN</t>
+  </si>
+  <si>
+    <t>Saxicoloides fulicatus</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Psittacidae</t>
+  </si>
+  <si>
+    <t>Porphyrio poliocephalus</t>
+  </si>
+  <si>
+    <t>LC*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1367,8 +1379,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,6 +1422,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1442,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1475,20 +1512,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <i/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1704,14 +1745,13 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="1" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="47.77734375" customWidth="1"/>
@@ -1724,7 +1764,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1770,29 +1810,29 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1814,31 +1854,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
+      <c r="D3" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1860,29 +1900,29 @@
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
+      <c r="D4" s="26" t="s">
+        <v>426</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1904,31 +1944,31 @@
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
+      <c r="D5" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1950,29 +1990,29 @@
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
+      <c r="D6" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1994,31 +2034,31 @@
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2040,28 +2080,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2083,31 +2123,31 @@
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2129,31 +2169,31 @@
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2175,29 +2215,29 @@
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>71</v>
+      <c r="D11" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2219,29 +2259,29 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
+      <c r="D12" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="I12" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2263,31 +2303,31 @@
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="F13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2309,31 +2349,31 @@
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2355,29 +2395,29 @@
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2399,31 +2439,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2445,31 +2485,31 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2491,29 +2531,29 @@
     </row>
     <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2535,29 +2575,29 @@
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
+      <c r="D19" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2579,31 +2619,31 @@
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2625,29 +2665,29 @@
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2669,29 +2709,29 @@
     </row>
     <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
+      <c r="D22" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2713,31 +2753,31 @@
     </row>
     <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2759,29 +2799,29 @@
     </row>
     <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>145</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2803,31 +2843,31 @@
     </row>
     <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2849,31 +2889,31 @@
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="I26" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2895,31 +2935,31 @@
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2941,29 +2981,31 @@
     </row>
     <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2985,31 +3027,31 @@
     </row>
     <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3031,31 +3073,31 @@
     </row>
     <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="I30" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3077,29 +3119,29 @@
     </row>
     <row r="31" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>201</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3121,31 +3163,31 @@
     </row>
     <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="F32" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="I32" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3167,29 +3209,29 @@
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>216</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3211,29 +3253,29 @@
     </row>
     <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>12</v>
+        <v>216</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3255,29 +3297,29 @@
     </row>
     <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>229</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3299,29 +3341,29 @@
     </row>
     <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>234</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3343,29 +3385,29 @@
     </row>
     <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>12</v>
+        <v>239</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3387,29 +3429,29 @@
     </row>
     <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>432</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>12</v>
+        <v>246</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3431,31 +3473,31 @@
     </row>
     <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3477,29 +3519,29 @@
     </row>
     <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>12</v>
+        <v>259</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>428</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3521,29 +3563,29 @@
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>266</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3565,29 +3607,29 @@
     </row>
     <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>434</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>272</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3609,29 +3651,29 @@
     </row>
     <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>272</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3653,29 +3695,29 @@
     </row>
     <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>284</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>12</v>
+        <v>285</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="19" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3697,31 +3739,31 @@
     </row>
     <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>290</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="G45" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3743,29 +3785,29 @@
     </row>
     <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>304</v>
+        <v>435</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>12</v>
+        <v>285</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3787,29 +3829,29 @@
     </row>
     <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>12</v>
+        <v>302</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3831,31 +3873,31 @@
     </row>
     <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3877,29 +3919,29 @@
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>313</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>12</v>
+        <v>314</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3921,31 +3963,31 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>319</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="I50" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3967,29 +4009,29 @@
     </row>
     <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>71</v>
+        <v>326</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4011,31 +4053,31 @@
     </row>
     <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>12</v>
+        <v>332</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4057,29 +4099,29 @@
     </row>
     <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>338</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>12</v>
+        <v>332</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>437</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4101,29 +4143,29 @@
     </row>
     <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>343</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>12</v>
+        <v>332</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4145,31 +4187,31 @@
     </row>
     <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>12</v>
+        <v>348</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4191,29 +4233,29 @@
     </row>
     <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>364</v>
+        <v>354</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>355</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>12</v>
+        <v>438</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4235,31 +4277,31 @@
     </row>
     <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>361</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="I57" s="4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4281,29 +4323,29 @@
     </row>
     <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>368</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>12</v>
+        <v>369</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4325,29 +4367,29 @@
     </row>
     <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>12</v>
+        <v>369</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4369,29 +4411,29 @@
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>12</v>
+        <v>382</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4413,29 +4455,29 @@
     </row>
     <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>439</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>12</v>
+        <v>382</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4457,31 +4499,31 @@
     </row>
     <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>403</v>
+        <v>391</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>12</v>
+        <v>393</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>437</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4503,31 +4545,31 @@
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>411</v>
+        <v>399</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>400</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="I63" s="10" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4549,31 +4591,31 @@
     </row>
     <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>12</v>
+        <v>408</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>427</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4595,31 +4637,31 @@
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>426</v>
+        <v>414</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>415</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E65" s="4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -30816,11 +30858,7 @@
       <c r="Z1000" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B3:B1000">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D67414-6960-4A45-B0EE-99ABBA9B19D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEA2BD-E4D0-4739-B47E-BAF81D273834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="440">
   <si>
     <t>Common Name</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve"> Accipitridae</t>
   </si>
   <si>
-    <t>red backed sea eagle</t>
-  </si>
-  <si>
     <t>Most commonly can  be observed during flight in anywhere in the university sky. Perched specimen can be spotted near the university ground premises and the bolgoda lakeside trees.</t>
   </si>
   <si>
@@ -112,15 +109,9 @@
     <t>Primarily larvae, pupae, and honeycombs of social wasps and bees, occasionally supplemented with cicadas, small birds, reptiles, and frogs. They dig up wasp nests with their strong talons and long beak, adapted for extracting prey from combs.</t>
   </si>
   <si>
-    <t>WHITE BELLIED SEA EAGLE</t>
-  </si>
-  <si>
     <t>Haliaeetus leucogaster</t>
   </si>
   <si>
-    <t>white breasted sea eagle</t>
-  </si>
-  <si>
     <t>Around the university ground and the boart yard area</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>Primarily fish, scavenged carrion, and occasionally reptiles and crustaceans. They hunt by soaring and diving, snatching prey from the water's surface.</t>
   </si>
   <si>
-    <t>STORK BILLED KINGFISHER</t>
-  </si>
-  <si>
     <t>Pelargopsis capensis</t>
   </si>
   <si>
@@ -154,15 +142,9 @@
     <t>Mainly consists of fresh water fish speices, crustatians, frogs and sometimes small rodents.</t>
   </si>
   <si>
-    <t>WHITE BRESTED KINGFISHER</t>
-  </si>
-  <si>
     <t>Halcyon smyrnensis</t>
   </si>
   <si>
-    <t>white throated kingfisher</t>
-  </si>
-  <si>
     <t>Common breeding resident that is found throughout the Island. Can be observed in open areas,cultivation,gardens and wetlands. Argubly the most common kingfisher species in Sri Lanka.</t>
   </si>
   <si>
@@ -172,9 +154,6 @@
     <t>This predator primarily targets a diverse range of prey, including large crustaceans, insects, earthworms, rodents, lizards, snakes, fish, and frogs. There have been reported instances of predation on small birds, such as the Indian white-eye, chicks of red-wattled lapwings, sparrows, and munias. Notably, the young of this species are predominantly fed on invertebrates.</t>
   </si>
   <si>
-    <t>LESSER PIED KINGFISHER</t>
-  </si>
-  <si>
     <t>Ceryle rudis</t>
   </si>
   <si>
@@ -337,15 +316,9 @@
     <t>Mainly consists of crustaceans, aquatic insects, fishes, tadpoles and sometimes leeches. Outside wetlands, these herons regularly feed on insects (including crickets, dragonflies and bees)</t>
   </si>
   <si>
-    <t>BLACK CROWNED NIGHT HERON</t>
-  </si>
-  <si>
     <t>Nycticorax nycticorax</t>
   </si>
   <si>
-    <t>Black capped night heron</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boart yard and the surrounding marshy areas of the Bolgoda lake. </t>
   </si>
   <si>
@@ -373,9 +346,6 @@
     <t>Grey herons are carnivores, primarily piscivores, and their main diet consists of fish. However, their feeding habits can vary with the season and availability of prey. They may also consume amphibians, crustaceans, aquatic invertebrates, mollusks, snakes, small birds, rodents, and occasionally, certain plants.</t>
   </si>
   <si>
-    <t>RED WATTLED LAPWING</t>
-  </si>
-  <si>
     <t>Vanellus indicus</t>
   </si>
   <si>
@@ -403,9 +373,6 @@
     <t>Ciconiidae</t>
   </si>
   <si>
-    <t>Asian openbill stork</t>
-  </si>
-  <si>
     <t>Fairly common breeding resident in lowlands, can be found in small numbers along rivers in interior wet zone and on lakes and rivers up to lower hills. Marshes, tanks,lakes,rivers and lagoons are the preffered habitats.</t>
   </si>
   <si>
@@ -520,9 +487,6 @@
     <t>Corvidae</t>
   </si>
   <si>
-    <t>Indian/grey necked/Ceylon/Colombo crow</t>
-  </si>
-  <si>
     <t xml:space="preserve">Throughout the university. </t>
   </si>
   <si>
@@ -595,9 +559,6 @@
     <t>Mainly  insects, caterpillars, snails, and small vertebrates. Also known to eat bird eggs, nestlings, fruits, and seeds.</t>
   </si>
   <si>
-    <t>PALE BILLED FLOWERPECKER</t>
-  </si>
-  <si>
     <t>Dicaeum erythrorhynchos</t>
   </si>
   <si>
@@ -619,9 +580,6 @@
     <t xml:space="preserve"> feeds on nectar and berries</t>
   </si>
   <si>
-    <t>WHITE BELLIED DRONGO</t>
-  </si>
-  <si>
     <t>Dicrurus caerulescens</t>
   </si>
   <si>
@@ -640,18 +598,12 @@
     <t>While primarily insectivorous, these birds display opportunistic behavior and are known to prey on small birds. Similar to other drongos, they utilize their feet when handling prey. Additionally, they have been observed taking advantage of insects attracted to artificial lights during the late dusk period.</t>
   </si>
   <si>
-    <t>SCALY BREASTED MUNIA</t>
-  </si>
-  <si>
     <t>Lonchura punctulata</t>
   </si>
   <si>
     <t>Estrildidae</t>
   </si>
   <si>
-    <t>Spotted munia, Spice finch</t>
-  </si>
-  <si>
     <t>Trees between Sumanadasa building and the University ground. Bushy areas behind the Main building of Department of Civil Engineering, Open areas around around Lagan and Deparment of textile and apparel engineering.</t>
   </si>
   <si>
@@ -703,9 +655,6 @@
     <t>Mostly insectivorous, taking flying insects on the wing.</t>
   </si>
   <si>
-    <t>PHEASANT TAILED JACANA</t>
-  </si>
-  <si>
     <t>Hydrophasianus chirurgus</t>
   </si>
   <si>
@@ -739,9 +688,6 @@
     <t xml:space="preserve"> Small fish, shrimp, and other marine invertebrates. They hunt by dipping their bills into the water while hovering or flying low over the surface.</t>
   </si>
   <si>
-    <t>YELLOW BILLED BABLER</t>
-  </si>
-  <si>
     <t>Leiothrichidae</t>
   </si>
   <si>
@@ -757,9 +703,6 @@
     <t>As an omnivore, this species has a varied diet that includes insects, spiders, small fruits, grains, nectar, and occasionally, lizards or scavenged scraps of food from human habitations.</t>
   </si>
   <si>
-    <t>BROWN HEADED BARBET</t>
-  </si>
-  <si>
     <t>Megalaimidae</t>
   </si>
   <si>
@@ -778,9 +721,6 @@
     <t>CEYLON SMALL BARBET</t>
   </si>
   <si>
-    <t>Crimson fronted barbet, Sri lanka barbet</t>
-  </si>
-  <si>
     <t>Ceremonial Courtyard area</t>
   </si>
   <si>
@@ -793,9 +733,6 @@
     <t>Mainly consists of fruits and insects.</t>
   </si>
   <si>
-    <t>BLUE TAILED BEE EATER</t>
-  </si>
-  <si>
     <t>Merops philippinus</t>
   </si>
   <si>
@@ -889,9 +826,6 @@
     <t>As carnivores, specifically insectivores, their primary diet comprises insects and other invertebrates. On occasion, they may also consume flower nectar, geckos, leeches, centipedes, and even fish.</t>
   </si>
   <si>
-    <t>BROWN BREASTED FLYCATCHER</t>
-  </si>
-  <si>
     <t>Muscicapa muttui</t>
   </si>
   <si>
@@ -922,9 +856,6 @@
     <t>Their primary diet consists mainly of insects, although they are also known to consume frogs and lizards, particularly when feeding their young at the nest. These birds may engage in late evening foraging, targeting insects drawn to lights during this time.</t>
   </si>
   <si>
-    <t>PURPLE RUMPED SUNBIRD</t>
-  </si>
-  <si>
     <t>Leptocoma zeylonica</t>
   </si>
   <si>
@@ -967,24 +898,15 @@
     <t>Oriolidae</t>
   </si>
   <si>
-    <t>Oserved only once and it was in the greenery behind the Library</t>
-  </si>
-  <si>
     <t>Rare winter migrant to lowlands and lower hills. Solitary and can be seen in wooded areas.</t>
   </si>
   <si>
     <t>Distinctive features of these birds include a yellow patch on the wings, yellow outer tail feathers, a black stripe across the eye that creates a masked appearance, and a fleshy pink bill. In contrast, females exhibit a dull greenish-yellow overall coloration with wings in dirty brown/green hues and a completely yellowish tail. Both males and females share a red iris.</t>
   </si>
   <si>
-    <t>BLACK HEADED ORIOLE</t>
-  </si>
-  <si>
     <t>Oriolus xanthornus</t>
   </si>
   <si>
-    <t>Black hooded oriole</t>
-  </si>
-  <si>
     <t>Trees around the Library, Kaju kele and around the trees of Building of Faculty of Architecture.</t>
   </si>
   <si>
@@ -994,9 +916,6 @@
     <t>The male Black-Hooded Oriole stands out with its striking black and yellow coloration, predominantly yellow plumage, a solid black hood, and black wings and tail center. In contrast, the female is less vibrant, featuring greenish underparts with the distinctive black hood. Young birds resemble females but exhibit dark streaking on the underparts, and their hoods are not entirely black, especially on the throat. The black head of the Black-Hooded Oriole serves as a clear distinction from the Indian golden oriole.. These birds, while potentially shy, may be challenging to spot amid the dappled yellow and green leaves of the canopy. In flight, the black-hooded oriole's movement resembles that of a thrush, characterized by a strong and direct flight with some shallow dips over longer distances. When foraging, the species employs various methods, including foliage-gleaning, wood-gleaning, or sallying.</t>
   </si>
   <si>
-    <t>SPOT BILLED PELICAN</t>
-  </si>
-  <si>
     <t>Pelecanus philippensis</t>
   </si>
   <si>
@@ -1102,9 +1021,6 @@
     <t>Their natural diet consists mainly of fruits; particularly wild figs, guava and berries, as well as flower buds and blossoms. Also feeds onnectar and seeds.</t>
   </si>
   <si>
-    <t>ROSE RINGED PARAKEET</t>
-  </si>
-  <si>
     <t>Psittacula krameri</t>
   </si>
   <si>
@@ -1123,9 +1039,6 @@
     <t>usually feed on buds, fruits, vegetables, nuts, berries, and seeds.</t>
   </si>
   <si>
-    <t>RED VENTED BULBUL</t>
-  </si>
-  <si>
     <t>Pycnonotus cafer</t>
   </si>
   <si>
@@ -1144,9 +1057,6 @@
     <t>Their diet encompasses a variety of food sources, including fruits, flower petals, nectar, and insects. Additionally, they occasionally consume house geckos.</t>
   </si>
   <si>
-    <t>WHITE BROWED BULBUL</t>
-  </si>
-  <si>
     <t>Pycnonotus luteolus</t>
   </si>
   <si>
@@ -1162,9 +1072,6 @@
     <t>They search for food within bushes, where they primarily feed on a diet consisting of fruit, nectar, and insects.</t>
   </si>
   <si>
-    <t>WHITE BREASTED WATERHEN</t>
-  </si>
-  <si>
     <t>Amaurornis phoenicurus</t>
   </si>
   <si>
@@ -1225,9 +1132,6 @@
     <t>Otus bakkamoena</t>
   </si>
   <si>
-    <t>Collared scops owl</t>
-  </si>
-  <si>
     <t>Can be observed in seetha gangula area at night</t>
   </si>
   <si>
@@ -1264,9 +1168,6 @@
     <t>Being omnivorous, this species has a diverse diet that includes insects, arachnids, crustaceans, reptiles, small mammals, seeds, grains, fruits, and discarded waste from human habitation.</t>
   </si>
   <si>
-    <t>BLACK HEADED IBIS</t>
-  </si>
-  <si>
     <t>Threskiornis melanocephalus</t>
   </si>
   <si>
@@ -1343,6 +1244,102 @@
   </si>
   <si>
     <t>LC*</t>
+  </si>
+  <si>
+    <t>Oserved only once and it was in the area behind the main building of the Department of Civil Engineering.</t>
+  </si>
+  <si>
+    <t>Observed around the TMLE building and the building of Faculty of IT.</t>
+  </si>
+  <si>
+    <t>WHITE-BELLIED SEA EAGLE</t>
+  </si>
+  <si>
+    <t>STORK-BILLED KINGFISHER</t>
+  </si>
+  <si>
+    <t>WHITE-BRESTED KINGFISHER</t>
+  </si>
+  <si>
+    <t>LESSER-PIED KINGFISHER</t>
+  </si>
+  <si>
+    <t>BLACK-CROWNED NIGHT HERON</t>
+  </si>
+  <si>
+    <t>RED-WATTLED LAPWING</t>
+  </si>
+  <si>
+    <t>PALE-BILLED FLOWERPECKER</t>
+  </si>
+  <si>
+    <t>WHITE-BELLIED DRONGO</t>
+  </si>
+  <si>
+    <t>SCALY-BREASTED MUNIA</t>
+  </si>
+  <si>
+    <t>PHEASANT-TAILED JACANA</t>
+  </si>
+  <si>
+    <t>YELLOW-BILLED BABLER</t>
+  </si>
+  <si>
+    <t>BROWN-HEADED BARBET</t>
+  </si>
+  <si>
+    <t>BLUE-TAILED BEE EATER</t>
+  </si>
+  <si>
+    <t>BROWN-BREASTED FLYCATCHER</t>
+  </si>
+  <si>
+    <t>PURPLE-RUMPED SUNBIRD</t>
+  </si>
+  <si>
+    <t>BLACK-HEADED ORIOLE</t>
+  </si>
+  <si>
+    <t>SPOT-BILLED PELICAN</t>
+  </si>
+  <si>
+    <t>ROSE-RINGED PARAKEET</t>
+  </si>
+  <si>
+    <t>RED-VENTED BULBUL</t>
+  </si>
+  <si>
+    <t>WHITE-BROWED BULBUL</t>
+  </si>
+  <si>
+    <t>WHITE-BREASTED WATERHEN</t>
+  </si>
+  <si>
+    <t>BLACK-HEADED IBIS</t>
+  </si>
+  <si>
+    <t>Collared-scops owl</t>
+  </si>
+  <si>
+    <t>Crimson-fronted barbet, Sri lanka barbet</t>
+  </si>
+  <si>
+    <t>Spotted-munia, Spice finch</t>
+  </si>
+  <si>
+    <t>grey-necked crow</t>
+  </si>
+  <si>
+    <t>Black-capped night heron</t>
+  </si>
+  <si>
+    <t>white-throated kingfisher</t>
+  </si>
+  <si>
+    <t>white-breasted sea eagle</t>
+  </si>
+  <si>
+    <t>red-backed sea eagle</t>
   </si>
 </sst>
 </file>
@@ -1514,17 +1511,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,7 +1743,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1817,22 +1814,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1854,31 +1851,31 @@
     </row>
     <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1900,29 +1897,29 @@
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1944,31 +1941,31 @@
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1990,29 +1987,29 @@
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2034,31 +2031,31 @@
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>437</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2080,28 +2077,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2123,31 +2120,31 @@
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2169,31 +2166,31 @@
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2215,29 +2212,29 @@
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2259,29 +2256,29 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2303,31 +2300,31 @@
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2349,31 +2346,31 @@
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2395,29 +2392,29 @@
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2439,31 +2436,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2485,31 +2482,31 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>414</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>436</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2531,29 +2528,29 @@
     </row>
     <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2575,29 +2572,29 @@
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>117</v>
+        <v>415</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2619,31 +2616,29 @@
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2665,29 +2660,29 @@
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2709,29 +2704,29 @@
     </row>
     <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2753,31 +2748,31 @@
     </row>
     <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2799,29 +2794,29 @@
     </row>
     <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2843,31 +2838,31 @@
     </row>
     <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2889,31 +2884,31 @@
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>166</v>
+        <v>435</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2935,31 +2930,31 @@
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2981,31 +2976,31 @@
     </row>
     <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3027,31 +3022,31 @@
     </row>
     <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3073,31 +3068,31 @@
     </row>
     <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3119,29 +3114,29 @@
     </row>
     <row r="31" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>199</v>
+        <v>417</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="16" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3163,31 +3158,31 @@
     </row>
     <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3209,29 +3204,29 @@
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="16" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3253,29 +3248,29 @@
     </row>
     <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="6" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3297,29 +3292,29 @@
     </row>
     <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3341,29 +3336,29 @@
     </row>
     <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3385,29 +3380,29 @@
     </row>
     <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>239</v>
+        <v>420</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3429,29 +3424,29 @@
     </row>
     <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="6" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3473,31 +3468,31 @@
     </row>
     <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B39" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>252</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3519,29 +3514,29 @@
     </row>
     <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>257</v>
+        <v>422</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="6" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3563,29 +3558,29 @@
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="6" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3607,29 +3602,29 @@
     </row>
     <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="6" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3651,29 +3646,29 @@
     </row>
     <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="6" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3695,29 +3690,29 @@
     </row>
     <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="19" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3739,31 +3734,31 @@
     </row>
     <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>289</v>
+        <v>423</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3785,29 +3780,29 @@
     </row>
     <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3829,29 +3824,29 @@
     </row>
     <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3873,31 +3868,31 @@
     </row>
     <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3919,29 +3914,29 @@
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3963,31 +3958,29 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>320</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E50" s="4"/>
       <c r="F50" s="6" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4009,29 +4002,29 @@
     </row>
     <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4053,31 +4046,31 @@
     </row>
     <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4099,29 +4092,29 @@
     </row>
     <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4143,29 +4136,29 @@
     </row>
     <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4187,31 +4180,31 @@
     </row>
     <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4233,29 +4226,29 @@
     </row>
     <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4277,31 +4270,31 @@
     </row>
     <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4323,29 +4316,29 @@
     </row>
     <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="6" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4367,29 +4360,29 @@
     </row>
     <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4411,29 +4404,29 @@
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4455,29 +4448,29 @@
     </row>
     <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4499,31 +4492,31 @@
     </row>
     <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4545,31 +4538,31 @@
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4591,31 +4584,31 @@
     </row>
     <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4637,31 +4630,31 @@
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEA2BD-E4D0-4739-B47E-BAF81D273834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9ED1E-7315-47E9-A7F1-EE080D63A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="482">
   <si>
     <t>Common Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>little banded goshawk</t>
   </si>
   <si>
-    <t>Trees around the Sumanadasa building and the Lagan.</t>
-  </si>
-  <si>
     <t>A common breeding resident throughout the entire island. Can be observed in both open country and in dense forest. Specially can be observed in close proximity with residential areas too.</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Pernis ptilorhynchus</t>
   </si>
   <si>
-    <t>Edges of the university ground</t>
-  </si>
-  <si>
     <t>Fairly rare breeding resident and the population much increased by the winter migrants. Occurs throughout the Island. Mostly observed in well-wooded areas.</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>Paddybird</t>
   </si>
   <si>
-    <t>Around the edges of the Bolgoda lake and open grassy areas throughout the university.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Can be found around the edges of marshes, coastal lagoons and freshwater wetlands. Common breeding residents that can be found all throughout Sri Lanka and numerous winter migrants appear to arrive all over the country. </t>
   </si>
   <si>
@@ -352,9 +343,6 @@
     <t>Charadriidae</t>
   </si>
   <si>
-    <t>Observed in the university ground premises and in the open area in front of Department of Civil Engineering.</t>
-  </si>
-  <si>
     <t>Common breeding resident throughout the island but somewhat rare in hills. Can be commonly spotted in open flat grounds located in the near viscinity of water.</t>
   </si>
   <si>
@@ -406,9 +394,6 @@
     <t>Cisticolidae</t>
   </si>
   <si>
-    <t>Mostly observed in the bushes and trees near library area in the side of Kaju kele. Also observed in the university ground at the side of lagan.</t>
-  </si>
-  <si>
     <t>Common breeding resident throughout Sri Lanka. Can be seen in forest wooded areas, adn trees in villages and town gardens.</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>Eastern spotted dove</t>
   </si>
   <si>
-    <t>Almost throughout the university premises.</t>
-  </si>
-  <si>
     <t>Very common breeding resident found throughout the island except the high hills. Cultivation, gardens and the open forests are the preffered habitat and usually avoids interior of dense wet forests.</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
     <t>Cuculidae</t>
   </si>
   <si>
-    <t>Can be seen throughout the university where there are trees.</t>
-  </si>
-  <si>
     <t>Common breeding resident from lowland to midhills. Forests, open woodlands gardens and cultivations are the habitats that mostly preffered.</t>
   </si>
   <si>
@@ -604,9 +583,6 @@
     <t>Estrildidae</t>
   </si>
   <si>
-    <t>Trees between Sumanadasa building and the University ground. Bushy areas behind the Main building of Department of Civil Engineering, Open areas around around Lagan and Deparment of textile and apparel engineering.</t>
-  </si>
-  <si>
     <t>Common breeding resident thoughout the Island. Cultivation and open gardens are the preffered habitat.</t>
   </si>
   <si>
@@ -625,9 +601,6 @@
     <t>Hirundinidae</t>
   </si>
   <si>
-    <t>Can be seen in flight around the university ground in the season.</t>
-  </si>
-  <si>
     <t>Three recognised subspecies. H.r. gutturalis is a very common winter migrant. H.r.rustica is a rare and uncommon migrant. H.r.tyleri is a very rare but very regular migrant. Often can be seen in open country and towns near water.</t>
   </si>
   <si>
@@ -643,9 +616,6 @@
     <t>Cecropis hyperythra</t>
   </si>
   <si>
-    <t>Can be seen in flight around the university ground.</t>
-  </si>
-  <si>
     <t>Uncommon breeding resident throughout Sri Lanka. Open areas at forest fringe, plantations,human habitation, grasslands and paddyfields are the preffered habitat of the ceylon swallow.</t>
   </si>
   <si>
@@ -691,9 +661,6 @@
     <t>Leiothrichidae</t>
   </si>
   <si>
-    <t>Lagan and surroundings and also in the area in front of the Auditorium building of Faculty of Architecture.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Common breeding resident from lowlands up to mid hills. uncommon and local further in higher hills. Mostly being on the ground can be seen in wooded areas and trees in villages and town gardens. Avoids forests in wet zone and adjoining hills. </t>
   </si>
   <si>
@@ -706,9 +673,6 @@
     <t>Megalaimidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Area behind the Steel building and In Kaju kele. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Common breeding resident from lowlands up to mid hills. Uncommon but recoreded in higher hills. Forests,open woods.gardens and trees in cultivation are the habitat which can be observed mostly. </t>
   </si>
   <si>
@@ -721,9 +685,6 @@
     <t>CEYLON SMALL BARBET</t>
   </si>
   <si>
-    <t>Ceremonial Courtyard area</t>
-  </si>
-  <si>
     <t>Endemic, fairly common locally from wet lowlands up to mid hills. Uncommon but recorded in dry zone. Forests and the open wooded country is the preffered habitat.</t>
   </si>
   <si>
@@ -739,9 +700,6 @@
     <t>Meropidae</t>
   </si>
   <si>
-    <t>University ground, On and around Sumanadasa Building, Can be seen in flight around the trees of  ENTC and Department of Architecture.</t>
-  </si>
-  <si>
     <t>Farily common winter migrants throughout the Island.. Small flocks do breed on eastern dry lowlands. Open areas and the forests are the preffered habitat.</t>
   </si>
   <si>
@@ -760,9 +718,6 @@
     <t>Monarchidae</t>
   </si>
   <si>
-    <t>Observed in Kaju kele area and the tree tops near Department of Civil Engineering.</t>
-  </si>
-  <si>
     <t>Two recognised subspecies. One being(T.p.ceylonensis) a farily common breeding resident found in dry lowlands and adjoining dy lower hills. The other(T.p.paradisi) is a farily common winter migrant througout. Open forests,groves and town gardens are the habitat where mostly can be spotted.</t>
   </si>
   <si>
@@ -778,9 +733,6 @@
     <t>Motacillidae</t>
   </si>
   <si>
-    <t>Around the university ground premises.</t>
-  </si>
-  <si>
     <t>Common winter migrant to Sri Lanka. Can be observed in damp grasslands and marshes.</t>
   </si>
   <si>
@@ -796,9 +748,6 @@
     <t>Anthus rufulus</t>
   </si>
   <si>
-    <t>Observed in the ground premises in near viscinity of Lagan.</t>
-  </si>
-  <si>
     <t>Farily common breeding resident throughout the country. Grasslands and low scrub are the preffered habitat.</t>
   </si>
   <si>
@@ -862,9 +811,6 @@
     <t>Nectariniidae</t>
   </si>
   <si>
-    <t>Many areas where there are flowers present including the surrounding area of Department of FD &amp; PD. Also observed in the trees around the Bhavana and Trees of Ceremonial courtyard.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Common breeding resident in lowlands and up to mid hills. Rare in areas above that. Cultivation,gardens and forest are the places for look for. </t>
   </si>
   <si>
@@ -907,9 +853,6 @@
     <t>Oriolus xanthornus</t>
   </si>
   <si>
-    <t>Trees around the Library, Kaju kele and around the trees of Building of Faculty of Architecture.</t>
-  </si>
-  <si>
     <t>fairly common breeding resident found in lowlands up to mid hills. Forests,wooded areas and trees in villages and town gardens are the habitats where can be easily seen.</t>
   </si>
   <si>
@@ -991,9 +934,6 @@
     <t>Red-backed flameback,Sri Lanka red-backed woodpecker, Black-rumped flameback</t>
   </si>
   <si>
-    <t>Woody areas around the department of Architecture and Lagan.</t>
-  </si>
-  <si>
     <t>Fairly common breeding resident. The southern red-backed race (psarodes) is being the recorded subspecies in the university premises. Forests,coconut plantations and trees in open country are the areas where can be easily observed.</t>
   </si>
   <si>
@@ -1027,9 +967,6 @@
     <t>Indian ringneck, Kramer parrot</t>
   </si>
   <si>
-    <t>Can be seen in flight at evenings in the university ground premises.</t>
-  </si>
-  <si>
     <t>Common breeding resident from lowlands to midhills and a small population recorded in higer hills. Forests and wooded areas by villages and towns are the preffered habittat. Can be observed even in densely populated areas aswell.</t>
   </si>
   <si>
@@ -1045,9 +982,6 @@
     <t>Pycnonotidae</t>
   </si>
   <si>
-    <t>Throughout the university where there are greenery.</t>
-  </si>
-  <si>
     <t>Very common breeding resident that can be seen all around the country. Easy to spot in forest fringe, open forest, cultivated lands and trees in habitation.  Avoid interior of thick forests in wet zone.</t>
   </si>
   <si>
@@ -1132,9 +1066,6 @@
     <t>Otus bakkamoena</t>
   </si>
   <si>
-    <t>Can be observed in seetha gangula area at night</t>
-  </si>
-  <si>
     <t>Fairly common breeding resident found throughout the entire Island. uncommon in the higher hills. avoid interior of wet evergreen forests and typically found inside well wooded areas and residantial gardens of villages and towns.</t>
   </si>
   <si>
@@ -1156,9 +1087,6 @@
     <t>Indian myna</t>
   </si>
   <si>
-    <t>Can be seen throughout the university including inside the goda and goda uda canteen buildings.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Common breeding throughout. Forest edges, trees in open areas, village and town gardens are the places to look for. </t>
   </si>
   <si>
@@ -1246,12 +1174,6 @@
     <t>LC*</t>
   </si>
   <si>
-    <t>Oserved only once and it was in the area behind the main building of the Department of Civil Engineering.</t>
-  </si>
-  <si>
-    <t>Observed around the TMLE building and the building of Faculty of IT.</t>
-  </si>
-  <si>
     <t>WHITE-BELLIED SEA EAGLE</t>
   </si>
   <si>
@@ -1340,6 +1262,210 @@
   </si>
   <si>
     <t>red-backed sea eagle</t>
+  </si>
+  <si>
+    <t>Oserved only once and it was in the wooded area behind the main library building.</t>
+  </si>
+  <si>
+    <t>Can be seen; perched on trees around the ground and in Kaju kele and in flight at Boat yard area.</t>
+  </si>
+  <si>
+    <t>Edges of the university ground, Boat Yard and the surrounding trees.</t>
+  </si>
+  <si>
+    <t>Boart yard and the surrounding areas of Bolgoda lake.</t>
+  </si>
+  <si>
+    <t>Can be seen in near the ground, hostels and farily common in boat yard and Kaju Kele.</t>
+  </si>
+  <si>
+    <t>Surrounding woody areas of the university ground and open banks of Bolgoda lake near boat yard.</t>
+  </si>
+  <si>
+    <t>Boat yard and the surrounding areas of Bolgoda lake.</t>
+  </si>
+  <si>
+    <t>Boart yard and the surrounding areas of Bolgoda lake. Mostly observed in flight.</t>
+  </si>
+  <si>
+    <t>Observed very commonly in the university ground premises.</t>
+  </si>
+  <si>
+    <t>Boart yard and the trees of the surrounding areas of Bolgoda lake.</t>
+  </si>
+  <si>
+    <t>Boart yard and the surrounding areas of Bolgoda lake. Documented only once.</t>
+  </si>
+  <si>
+    <t>Mostly observed in the bushes and trees in the side of Kaju kele. Also observed in the university ground at the side of lagan. Faily common throughout the university premises.</t>
+  </si>
+  <si>
+    <t>Almost all throughout the university premises.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throughout the university. Specially in the ground premises. </t>
+  </si>
+  <si>
+    <t>Can be seen throughout the university where there are trees. Common in Kaju Kele and Boat yard area.</t>
+  </si>
+  <si>
+    <t>Trees between Sumanadasa building and the University ground. Bushy areas behind the Main building of Department of Civil Engineering, Open areas around around Lagan and Deparment of textile and apparel engineering and inside Kaju Kele.</t>
+  </si>
+  <si>
+    <t>Can be seen in flight around the university ground and at Bolgoda lake near boat yard in the season.</t>
+  </si>
+  <si>
+    <t>Can be seen in flight around the university ground and near Boat yard.</t>
+  </si>
+  <si>
+    <t>Very common almost all thoughout the university.Lagan,Play ground premises, Open areas in Kaju kele and also in the area in front of the Auditorium building of Faculty of Architecture.</t>
+  </si>
+  <si>
+    <t>Fairly Common to see in Kaju kele. Also can be spotted in the Lagan area and the Play ground premises.</t>
+  </si>
+  <si>
+    <t>Observed in Ceremonial Courtyard, Kaju Kele and "Thummulla" area. Mostly found in Kaju kele.</t>
+  </si>
+  <si>
+    <t>University ground, On and around Sumanadasa Building, Boat yard, Open areas of Kaju kele. Also can be seen around the buildings/trees of  ENTC, Department of Cibil Engineering and Department of Architecture.</t>
+  </si>
+  <si>
+    <t>Observed in Kaju kele area and at the boat yard.</t>
+  </si>
+  <si>
+    <t>Observed in the university ground premises.</t>
+  </si>
+  <si>
+    <t>Fairly common to see in university ground premises.</t>
+  </si>
+  <si>
+    <t>Observed around the Faculty of IT. Fairly Common in Kaju kele and Area around the Boat yard.</t>
+  </si>
+  <si>
+    <t>Many areas including the surrounding area of Department of FD &amp; PD. Also observed in the trees around the Bhavana and Trees of Ceremonial courtyard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many areas including the Kaju Kele area, Also observed in the trees around the Bhavana and Trees of Ceremonial courtyard. </t>
+  </si>
+  <si>
+    <t>Faily common to see inside Kaju kele. Also can be seen on the tree tops of edges of the university ground premises, Lagan and the Library.</t>
+  </si>
+  <si>
+    <t>Kaju kele,Boat yard, wooded areas around the department of Architecture, and Lagan.</t>
+  </si>
+  <si>
+    <t>Can be seen in flight at evenings/mornings above the university ground premises. Also very common inside Kaju kele.</t>
+  </si>
+  <si>
+    <t>Very common to see throughout the university.</t>
+  </si>
+  <si>
+    <t>Boart yard and the surrounding shallow areas of Bolgoda lake.</t>
+  </si>
+  <si>
+    <t>Can be observed in seetha gangula area at night. One specimen was recorded trapped inside a building during day time.</t>
+  </si>
+  <si>
+    <t>Can be seen throughout the university including inside the goda and goda uda canteen buildings. Very common in Kaju kele area.</t>
+  </si>
+  <si>
+    <t>BROWN SHRIKE</t>
+  </si>
+  <si>
+    <t>SRI LANKA GREEN PIGEON</t>
+  </si>
+  <si>
+    <t>WHITE-RUMPED MUNIA</t>
+  </si>
+  <si>
+    <t>LITTLE TERN</t>
+  </si>
+  <si>
+    <t>ASIAN BROWN FLYCATCHER</t>
+  </si>
+  <si>
+    <t>INDIAN WHITE-EYE</t>
+  </si>
+  <si>
+    <t>CHANGEABLE-HAWK EAGLE</t>
+  </si>
+  <si>
+    <t>CRESTED SERPENT EAGLE</t>
+  </si>
+  <si>
+    <t>STIATED HERON</t>
+  </si>
+  <si>
+    <t>BLACK-WINGED STILT</t>
+  </si>
+  <si>
+    <t>Pericrocotus cinnamomeus</t>
+  </si>
+  <si>
+    <t>SMALL MINIVET</t>
+  </si>
+  <si>
+    <t>Campephagidae</t>
+  </si>
+  <si>
+    <t>Lanius cristatus</t>
+  </si>
+  <si>
+    <t>Laniidae</t>
+  </si>
+  <si>
+    <t>Treron pompadora</t>
+  </si>
+  <si>
+    <t>Lonchura striata</t>
+  </si>
+  <si>
+    <t>JERDON'S LEAFBIRD</t>
+  </si>
+  <si>
+    <t>Chloropsis jerdoni</t>
+  </si>
+  <si>
+    <t>Chloropseidae</t>
+  </si>
+  <si>
+    <t>Sternula albifrons</t>
+  </si>
+  <si>
+    <t>Muscicapa dauurica</t>
+  </si>
+  <si>
+    <t>Zosterops palpebrosus</t>
+  </si>
+  <si>
+    <t>Oriental White-Eye</t>
+  </si>
+  <si>
+    <t>Zosteropidae</t>
+  </si>
+  <si>
+    <t>Crested Hawk-eagle</t>
+  </si>
+  <si>
+    <t>Nisaetus cirrhatus</t>
+  </si>
+  <si>
+    <t>Accipitridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spilornis cheela</t>
+  </si>
+  <si>
+    <t>Butorides striata</t>
+  </si>
+  <si>
+    <t>Green-Backed Heron</t>
+  </si>
+  <si>
+    <t>Himantopus himantopus</t>
+  </si>
+  <si>
+    <t>Recurvirostridae</t>
   </si>
 </sst>
 </file>
@@ -1417,12 +1543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1433,8 +1553,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1472,11 +1598,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,19 +1646,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,8 +1882,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1901,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1807,17 +1947,17 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>394</v>
+      <c r="D2" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -1853,29 +1993,29 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>394</v>
+      <c r="D3" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1897,29 +2037,29 @@
     </row>
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>393</v>
+      <c r="D4" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1941,31 +2081,31 @@
     </row>
     <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>29</v>
+        <v>384</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>394</v>
+      <c r="D5" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1987,29 +2127,29 @@
     </row>
     <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>385</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>394</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2031,31 +2171,31 @@
     </row>
     <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2077,28 +2217,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B8" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2120,31 +2260,31 @@
     </row>
     <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2166,31 +2306,31 @@
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="D10" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="I10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2212,29 +2352,29 @@
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>394</v>
+      <c r="D11" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2256,29 +2396,29 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>394</v>
+      <c r="D12" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="I12" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2300,31 +2440,31 @@
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="F13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2346,31 +2486,31 @@
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="D14" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2392,29 +2532,29 @@
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>394</v>
+        <v>79</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2436,31 +2576,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="F16" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2482,31 +2622,31 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2528,29 +2668,29 @@
     </row>
     <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>394</v>
+        <v>79</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2572,29 +2712,29 @@
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>108</v>
+        <v>389</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>394</v>
+        <v>106</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>110</v>
+        <v>422</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2616,29 +2756,29 @@
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>394</v>
+        <v>112</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>423</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2660,29 +2800,29 @@
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>394</v>
+        <v>112</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>424</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2704,29 +2844,29 @@
     </row>
     <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>394</v>
+        <v>123</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="6" t="s">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2748,31 +2888,31 @@
     </row>
     <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="H23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2794,29 +2934,29 @@
     </row>
     <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>394</v>
+        <v>129</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2838,31 +2978,31 @@
     </row>
     <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>396</v>
+        <v>141</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>372</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>394</v>
+        <v>129</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>148</v>
+        <v>426</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2884,31 +3024,31 @@
     </row>
     <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2930,31 +3070,31 @@
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>394</v>
+        <v>148</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2976,31 +3116,31 @@
     </row>
     <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>397</v>
+        <v>161</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>168</v>
+        <v>428</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3022,31 +3162,31 @@
     </row>
     <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3068,31 +3208,31 @@
     </row>
     <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>179</v>
+        <v>390</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>394</v>
+        <v>173</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3114,29 +3254,29 @@
     </row>
     <row r="31" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>186</v>
+        <v>391</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>394</v>
+        <v>180</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3158,31 +3298,31 @@
     </row>
     <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>192</v>
+        <v>392</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>394</v>
+        <v>186</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3204,29 +3344,29 @@
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>199</v>
+        <v>190</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>407</v>
+        <v>192</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="16" t="s">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3248,29 +3388,29 @@
     </row>
     <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>394</v>
+        <v>192</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="6" t="s">
-        <v>207</v>
+        <v>431</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3292,29 +3432,29 @@
     </row>
     <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>211</v>
+        <v>393</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>394</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3336,29 +3476,29 @@
     </row>
     <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>217</v>
+        <v>206</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>407</v>
+        <v>208</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="6" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3380,29 +3520,29 @@
     </row>
     <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="26" t="s">
         <v>394</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>223</v>
+        <v>432</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3424,29 +3564,29 @@
     </row>
     <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>375</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>394</v>
+        <v>216</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="6" t="s">
-        <v>228</v>
+        <v>433</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3468,31 +3608,31 @@
     </row>
     <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>400</v>
+        <v>220</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>376</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>394</v>
+        <v>216</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3514,29 +3654,29 @@
     </row>
     <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>237</v>
+        <v>396</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>395</v>
+        <v>225</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="6" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3558,29 +3698,29 @@
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>394</v>
+        <v>231</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="6" t="s">
-        <v>246</v>
+        <v>436</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3602,29 +3742,29 @@
     </row>
     <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>401</v>
+        <v>235</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>377</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>407</v>
+        <v>236</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="6" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3646,29 +3786,29 @@
     </row>
     <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>257</v>
+        <v>240</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>394</v>
+        <v>236</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="6" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3690,29 +3830,29 @@
     </row>
     <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>263</v>
+        <v>245</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>394</v>
+        <v>247</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="19" t="s">
-        <v>409</v>
+      <c r="F44" s="30" t="s">
+        <v>439</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3734,31 +3874,31 @@
     </row>
     <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>268</v>
+        <v>397</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>407</v>
+        <v>247</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3780,29 +3920,29 @@
     </row>
     <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>403</v>
+        <v>378</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>379</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>394</v>
+        <v>247</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3824,29 +3964,29 @@
     </row>
     <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>278</v>
+        <v>398</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>394</v>
+        <v>262</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6" t="s">
-        <v>280</v>
+        <v>441</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3868,31 +4008,31 @@
     </row>
     <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>285</v>
+        <v>266</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>394</v>
+        <v>262</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3914,29 +4054,29 @@
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>290</v>
+        <v>271</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>407</v>
+        <v>273</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3958,29 +4098,29 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>294</v>
+        <v>399</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>394</v>
+        <v>273</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="6" t="s">
-        <v>295</v>
+        <v>442</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4002,29 +4142,29 @@
     </row>
     <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>298</v>
+        <v>400</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>394</v>
+        <v>280</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="6" t="s">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4046,31 +4186,31 @@
     </row>
     <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>304</v>
+        <v>284</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>394</v>
+        <v>286</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4092,29 +4232,29 @@
     </row>
     <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>311</v>
+        <v>291</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>404</v>
+        <v>286</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4136,29 +4276,29 @@
     </row>
     <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>316</v>
+        <v>296</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>394</v>
+        <v>286</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4180,31 +4320,31 @@
     </row>
     <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>320</v>
+        <v>300</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>394</v>
+        <v>302</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>323</v>
+        <v>443</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4226,29 +4366,29 @@
     </row>
     <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>328</v>
+        <v>307</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>394</v>
+        <v>381</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="6" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4270,31 +4410,31 @@
     </row>
     <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>333</v>
+        <v>401</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>394</v>
+        <v>381</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4316,29 +4456,29 @@
     </row>
     <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>339</v>
+        <v>402</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>318</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>394</v>
+        <v>319</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="6" t="s">
-        <v>341</v>
+        <v>445</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4360,29 +4500,29 @@
     </row>
     <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>345</v>
+        <v>403</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>394</v>
+        <v>319</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4404,29 +4544,29 @@
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>350</v>
+        <v>404</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>328</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>394</v>
+        <v>329</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4448,29 +4588,29 @@
     </row>
     <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>406</v>
+        <v>334</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>382</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>394</v>
+        <v>329</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4492,31 +4632,31 @@
     </row>
     <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>361</v>
+        <v>338</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>339</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>404</v>
+        <v>340</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4538,31 +4678,31 @@
     </row>
     <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>369</v>
+        <v>346</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>394</v>
+        <v>340</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>370</v>
+        <v>447</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4584,31 +4724,31 @@
     </row>
     <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>375</v>
+        <v>351</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>394</v>
+        <v>353</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4630,31 +4770,31 @@
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>382</v>
+        <v>405</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>394</v>
+        <v>359</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>36</v>
+        <v>417</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -4674,7 +4814,19 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -4699,10 +4851,18 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>383</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -4727,10 +4887,18 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="A68" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -4755,10 +4923,18 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -4783,10 +4959,18 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C70" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4811,10 +4995,18 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>369</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -4839,10 +5031,18 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="C72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>383</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -4867,11 +5067,21 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C73" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -4895,11 +5105,21 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="A74" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" t="s">
+        <v>476</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E74" t="s">
+        <v>474</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4923,10 +5143,18 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75" t="s">
+        <v>476</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -4951,11 +5179,21 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4979,10 +5217,18 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="C77" t="s">
+        <v>481</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB9ED1E-7315-47E9-A7F1-EE080D63A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1FCA6B-1302-42F9-A407-701BC29D7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="494">
   <si>
     <t>Common Name</t>
   </si>
@@ -1466,6 +1466,42 @@
   </si>
   <si>
     <t>Recurvirostridae</t>
+  </si>
+  <si>
+    <t>Observed in the tree tops of Kaju Kele and behind the building located in Boat yard.</t>
+  </si>
+  <si>
+    <t>Little Minivet</t>
+  </si>
+  <si>
+    <t>Observed in an exact single location located inside the Kaju kele multiple times.</t>
+  </si>
+  <si>
+    <t>Kaju Kele</t>
+  </si>
+  <si>
+    <t>Trees behind the Civil Building, Inside Kaju Kele and around the Boat yard.</t>
+  </si>
+  <si>
+    <t>On the trees behind the Civil Building and inside Kaju Kele.</t>
+  </si>
+  <si>
+    <t>Open area behing the Boat yard and inside Kaju kele.</t>
+  </si>
+  <si>
+    <t>Observed only once in the Boat yard at the opposite bank.</t>
+  </si>
+  <si>
+    <t>Tree tops behind the Boat yard at the area where the Kaju kele starts.</t>
+  </si>
+  <si>
+    <t>Observed at Boat yard in flight.</t>
+  </si>
+  <si>
+    <t>Observed at Boat yard only once as a flock in flight.</t>
+  </si>
+  <si>
+    <t>Observed only once at Boat yard in flight.</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1695,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1882,8 +1918,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4827,8 +4863,12 @@
       <c r="D66" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -4864,7 +4904,9 @@
         <v>383</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -4900,7 +4942,9 @@
         <v>370</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -4936,7 +4980,9 @@
         <v>370</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -4972,7 +5018,9 @@
         <v>370</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -5008,7 +5056,9 @@
         <v>369</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -5044,7 +5094,9 @@
         <v>383</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -5082,7 +5134,9 @@
       <c r="E73" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -5120,7 +5174,9 @@
       <c r="E74" t="s">
         <v>474</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -5156,7 +5212,9 @@
         <v>370</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -5194,7 +5252,9 @@
       <c r="E76" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -5230,7 +5290,9 @@
         <v>370</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1FCA6B-1302-42F9-A407-701BC29D7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E277C-80B1-4B54-B4E3-EE846166CAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="530">
   <si>
     <t>Common Name</t>
   </si>
@@ -1502,6 +1502,114 @@
   </si>
   <si>
     <t>Observed only once at Boat yard in flight.</t>
+  </si>
+  <si>
+    <t>The shrike displays predominantly brown plumage on its upper body, featuring a rounded tail. In winter, the black mask may appear lighter, accompanied by a white brow above it. Its underparts are creamy with rufous flanks and belly, while the wings are brown without any distinctive white "mirror" patches. Female shrikes typically exhibit subtle scalloping on the underside, and their dark brown masks are less pronounced compared to males.</t>
+  </si>
+  <si>
+    <t>A medium-sized green pigeon with a distinctive yellow face and a yellowish line along the wing is observed. In the male, the back is maroon, transitioning to green in the female.</t>
+  </si>
+  <si>
+    <t>This bird features a blackish-brown head and back, complemented by pure white underparts and rump. The back is finely streaked with pale shafts. Juveniles exhibit a rufous-brown hue with indistinct streaks above, a buffy gray rump, light rufous breast, and buffy gray underparts. Variations among races are notable in terms of the quantity of white-and-gray streaking on the underparts and the extent of blackish-brown coloring on the head.</t>
+  </si>
+  <si>
+    <t>This vibrant bird, residing in lush green forests, displays a crisp emerald-green plumage. The male is characterized by a dark blue throat patch bordered by a thick black outline, while the female exhibits a pale blue throat without the dark border. In its range, the Golden-fronted Leafbird is the only similarly-colored bird, easily distinguishable by its orange forehead.</t>
+  </si>
+  <si>
+    <t>This diminutive tern has a delicate appearance, with distinctive features in its breeding plumage. It sports a black cap accompanied by a white forehead chevron and a black-tipped yellow bill. Its small size makes it easily recognizable. Keep an eye out for black stripes extending from the shoulder to the wingtip as a key identifying characteristic.</t>
+  </si>
+  <si>
+    <t>This unadorned brown flycatcher possesses a notably large-eyed appearance. Its distinguishing features include a bright white eyering and unmarked throat and underparts. When compared to other similar brownish flycatchers, it appears shorter- and plainer-winged.</t>
+  </si>
+  <si>
+    <t>yellowish olive upper parts, a white eye ring, yellow throat and, a vent. The belly is whitish grey but may have yellow in some subspecies. The sexes look similar.</t>
+  </si>
+  <si>
+    <t>This medium-sized eagle boasts massive rounded wings and is characterized by two primary color morphs: pale and black. In the pale morph, adults display dark brown upperparts with a white breast marked by dark streaks, while juveniles exhibit a much paler plumage with cleaner white underparts and less extensive striping and barring throughout the body. The dark morph is uniformly dark with slightly paler outer wing feathers, posing a potential resemblance to dark Honey-Buzzards. However, distinguishing features include the hawk-eagle's longer wings and more slender profile.</t>
+  </si>
+  <si>
+    <t>A rather large, heavily built eagle with a dark, white-tipped bushy crest that gives it a distinctive large-headed look. When raised in alarm, the crest frames the whole face, highlighting the bare yellow lores and eyes, making the head look larger and fiercer. The rufous-brown underparts have neatly arranged dark-edged bold white spots. In flight, shows broad rounded wings with a wide black trailing edge. Juvenile predominantly white with dark streaks below; also note dark mask.</t>
+  </si>
+  <si>
+    <t>Distinguished by its small size and predominantly gray plumage, this bird stands apart from most other herons and bitterns. Key identifying features include a contrasting dark cap, well-defined pale edges on wing feathers, and distinct white and rufous stripes on the front of the neck. Juveniles exhibit a streakier pattern below compared to adults, with a mostly gray neck featuring restricted rufous coloring.</t>
+  </si>
+  <si>
+    <t>These adult birds are characterized by their lengthy build, featuring long pink legs and a slender black bill. Typically, their plumage is black above and white below, accompanied by a white head and neck. The amount of black on the head and neck varies depending on the species. Male individuals often display a black back with a greenish gloss or sheen, while females have a brownish hue on their backs, creating a noticeable contrast with the black remiges.</t>
+  </si>
+  <si>
+    <t>The Small Minivet sustains itself primarily on an insect-based diet, which includes caterpillars, beetles, bugs, and ants. These agile hunters showcase their ability to catch prey mid-air or skillfully pluck insects from leaves while perched.</t>
+  </si>
+  <si>
+    <t>The Small Minivet is characterized by a robust dark beak and elongated wings. Distinguishing itself from other typical minivets, the male exhibits grey upperparts and head instead of glossy black. Its underparts are adorned in orange, transitioning to yellow on the belly, complemented by orange tail edges, rump, and wing patches. Conversely, the female presents a grey upper body with yellow underparts, including the face. Similar to the male, she features yellow tail edges, rump, and wing patches.</t>
+  </si>
+  <si>
+    <t>The primary diet of this bird includes insects, as well as small birds and mammals. It employs a hunting technique commonly observed in shrikes, where it makes a quick sally from a prominent perch to catch its prey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eats the seeds and fruits of a wide variety of plants.</t>
+  </si>
+  <si>
+    <t>This sociable bird displays gregarious behavior and primarily sustains itself by consuming seeds. It can be observed moving in groups through the undergrowth while foraging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This species eats insects, fruit and nectar. </t>
+  </si>
+  <si>
+    <t>These birds engage in feeding activities just offshore, in shallow waters along protected coastlines, where they consume a diet consisting of fish, crustaceans, and invertebrates. A distinctive foraging behavior observed in them is plunge-diving for fish along the shoreline. This feeding proximity to the shore distinguishes them from other seabirds, which may undertake long flights in search of food.</t>
+  </si>
+  <si>
+    <t>While primarily insectivorous, the Indian White-eye also incorporates nectar and various fruits into its diet.</t>
+  </si>
+  <si>
+    <t>The Asian Brown Flycatcher predominantly feeds on flying insects, employing a sallying technique where it launches from a perch to catch its prey in mid-air.</t>
+  </si>
+  <si>
+    <t>This predator has a diverse diet, preying on a variety of animals including mammals, large birds, reptiles such as snakes and lizards, fish and amphibians like frogs.</t>
+  </si>
+  <si>
+    <t>This species is primarily a snake-hunter, displaying a particular preference for tree snakes. However, its diet extends beyond serpents to include lizards, frogs, toads, mammals, eels, and small birds.</t>
+  </si>
+  <si>
+    <t>The Striated Heron primarily feeds on a diet consisting of crabs and other crustaceans. Additionally, it includes mollusks and small fish in its feeding repertoire.</t>
+  </si>
+  <si>
+    <t>Black-winged Stilts are carnivores. They use their sharp bills to peck and ingest only very small food such as molluscs, miniscule crustaceans, algae, flies and aquatic insects.</t>
+  </si>
+  <si>
+    <t>Uncommon breeding resident from lowlands up to mid hills. Open forests and bushes with scattered trees are the places to look for.</t>
+  </si>
+  <si>
+    <t>Common throughout the Island. Can be observed in open country with trees or bushes.</t>
+  </si>
+  <si>
+    <t>Farily common breeding resident in lowlands to lower hills. Local and uncommon up to mid hills. Preffered habitats are forests and woods.</t>
+  </si>
+  <si>
+    <t>Uncommon breeding resident from lowlands up to mid hills. More common to see in dry zone.Foresets,wooded areas and gardens are the preffered habitats.</t>
+  </si>
+  <si>
+    <t>Fairly common breeding resident in lowlands up to mid hills.Preffered habitats include forests, Open wooded areas, scrub and cultivation.</t>
+  </si>
+  <si>
+    <t>Farily common and local breeding resident in dry zone and visitor to the wet zone. Can be seen in coastal wetlands and inland tanks.</t>
+  </si>
+  <si>
+    <t>Fairly common winter migrant in lowlands up to mid hills. Open wooded areas, plantations and garden are the preffered habitat.</t>
+  </si>
+  <si>
+    <t>Farily common breeding resident from lowlands upto mid hills. Uncommon in high hills. Can be seen around trees.</t>
+  </si>
+  <si>
+    <t>Fairly common locally througout the Isand and and a breeding resident. Well wooded areas is the preffered habitat.</t>
+  </si>
+  <si>
+    <t>Fairly common breeding resident which is found thougout Sri Lanka. Can be seen in forests and wooded areas.</t>
+  </si>
+  <si>
+    <t>Fairly uncommon breeding resident in lowlands and lower hills. Mangroves and dense vegetations at the edges of the rivers, marshes and tanks, open edges of lagoons are the preffered habitats.</t>
+  </si>
+  <si>
+    <t>In dry lowlands, a fairly common breeding resident. A few birds breed in wet lowlands others are winter migrants in the lowlands. Freshwater and brackish shallow waters in marshes, lagoons and tanks are the preffered habitats.</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,17 +1776,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1695,9 +1795,22 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1918,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1937,7 +2050,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1983,13 +2096,13 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2029,13 +2142,13 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -2075,13 +2188,13 @@
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>369</v>
       </c>
       <c r="E4" s="4"/>
@@ -2119,13 +2232,13 @@
       <c r="A5" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2161,31 +2274,33 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="25" t="s">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8" t="s">
-        <v>417</v>
+      <c r="E6" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>526</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>36</v>
+        <v>501</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2205,33 +2320,31 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="25" t="s">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>418</v>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>527</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>41</v>
+        <v>515</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2253,28 +2366,29 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>45</v>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2294,33 +2408,33 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>47</v>
+    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>411</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2342,31 +2456,29 @@
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>387</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>55</v>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2387,30 +2499,32 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>59</v>
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2432,29 +2546,31 @@
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2474,33 +2590,31 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>72</v>
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2522,31 +2636,29 @@
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2568,29 +2680,31 @@
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F15" s="8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2612,31 +2726,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2658,31 +2772,29 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>96</v>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2702,31 +2814,33 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>101</v>
+    <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>421</v>
+      <c r="E18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2748,29 +2862,31 @@
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>105</v>
+        <v>388</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="F19" s="6" t="s">
-        <v>422</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2791,30 +2907,30 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>111</v>
+      <c r="A20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2835,30 +2951,32 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="A21" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="F21" s="4" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>118</v>
+        <v>528</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>119</v>
+        <v>503</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>120</v>
+        <v>516</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2880,29 +2998,31 @@
     </row>
     <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6" t="s">
-        <v>425</v>
+      <c r="E22" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>124</v>
+        <v>518</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
+        <v>506</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>126</v>
+        <v>505</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2923,32 +3043,30 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>128</v>
+      <c r="A23" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="6" t="s">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2968,31 +3086,31 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="25" t="s">
+    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="6" t="s">
-        <v>137</v>
+      <c r="F24" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>138</v>
+        <v>521</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>139</v>
+        <v>497</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>140</v>
+        <v>510</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -3012,33 +3130,31 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>372</v>
+    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>426</v>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -3058,33 +3174,31 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>147</v>
+    <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>149</v>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3106,31 +3220,29 @@
     </row>
     <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="E27" s="4"/>
       <c r="F27" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -3151,32 +3263,32 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>160</v>
+      <c r="A28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>373</v>
+        <v>129</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>428</v>
+        <v>131</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3198,31 +3310,29 @@
     </row>
     <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>166</v>
+        <v>135</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="6" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3244,31 +3354,31 @@
     </row>
     <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>175</v>
+        <v>426</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3288,31 +3398,31 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="25" t="s">
+    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="16" t="s">
-        <v>181</v>
+      <c r="F31" s="34" t="s">
+        <v>485</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>182</v>
+        <v>520</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>183</v>
+        <v>495</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>184</v>
+        <v>508</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3332,33 +3442,33 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>185</v>
+    <row r="32" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>429</v>
+        <v>409</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3380,29 +3490,31 @@
     </row>
     <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>191</v>
+        <v>153</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16" t="s">
-        <v>430</v>
+        <v>148</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>427</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3423,30 +3535,32 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="A34" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="F34" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>200</v>
+        <v>428</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3466,31 +3580,33 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>201</v>
+    <row r="35" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>420</v>
+      <c r="E35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3512,29 +3628,31 @@
     </row>
     <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>207</v>
+        <v>390</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="F36" s="6" t="s">
-        <v>420</v>
+        <v>175</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3556,29 +3674,29 @@
     </row>
     <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>432</v>
+        <v>181</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3598,31 +3716,33 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>375</v>
+    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D38" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6" t="s">
-        <v>433</v>
+      <c r="E38" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3642,33 +3762,31 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D39" s="25" t="s">
+    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>223</v>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3690,29 +3808,29 @@
     </row>
     <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>224</v>
+        <v>190</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>371</v>
+        <v>192</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3733,30 +3851,30 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="25" t="s">
+      <c r="A41" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>234</v>
+        <v>431</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3776,31 +3894,31 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>377</v>
+    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>383</v>
+        <v>202</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="6" t="s">
-        <v>437</v>
+      <c r="F42" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3820,31 +3938,31 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>370</v>
+    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="6" t="s">
-        <v>438</v>
+      <c r="F43" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>242</v>
+        <v>519</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>243</v>
+        <v>494</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>244</v>
+        <v>507</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3866,29 +3984,29 @@
     </row>
     <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>370</v>
+        <v>208</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="30" t="s">
-        <v>439</v>
+      <c r="F44" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3908,33 +4026,31 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>397</v>
+    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>253</v>
+        <v>469</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>254</v>
+        <v>523</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>255</v>
+        <v>498</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>256</v>
+        <v>511</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3954,31 +4070,31 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="25" t="s">
+    <row r="46" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>257</v>
+      <c r="F46" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -4000,29 +4116,29 @@
     </row>
     <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D47" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4043,32 +4159,32 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>266</v>
+      <c r="A48" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>268</v>
+      <c r="E48" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>365</v>
+        <v>434</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4089,30 +4205,30 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>272</v>
+      <c r="A49" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>224</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>383</v>
+        <v>225</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>371</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="6" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -4134,29 +4250,29 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>276</v>
+        <v>229</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>230</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D50" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4176,31 +4292,31 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>279</v>
+        <v>235</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>370</v>
+        <v>236</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="6" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4220,33 +4336,31 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>285</v>
+    <row r="52" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D52" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="E52" s="4"/>
       <c r="F52" s="6" t="s">
-        <v>34</v>
+        <v>438</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4266,31 +4380,31 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>292</v>
+    <row r="53" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>380</v>
+        <v>247</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="6" t="s">
-        <v>34</v>
+      <c r="F53" s="26" t="s">
+        <v>439</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4310,31 +4424,33 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>34</v>
+        <v>247</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>368</v>
+        <v>256</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4354,33 +4470,31 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D55" s="19" t="s">
+    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>306</v>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4400,31 +4514,31 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>312</v>
+    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4446,31 +4560,29 @@
     </row>
     <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>313</v>
+        <v>398</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="D57" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4492,29 +4604,31 @@
     </row>
     <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>318</v>
+        <v>266</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D58" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="F58" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4534,31 +4648,31 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>323</v>
+    <row r="59" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>272</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>370</v>
+        <v>273</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
-        <v>324</v>
+      <c r="F59" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4580,29 +4694,29 @@
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>328</v>
+        <v>399</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D60" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>370</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4622,31 +4736,31 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>382</v>
+    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="6" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4666,33 +4780,33 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>339</v>
+    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>380</v>
+        <v>286</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4712,33 +4826,31 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>347</v>
+    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>406</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="6" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>350</v>
+        <v>294</v>
+      </c>
+      <c r="I63" s="34" t="s">
+        <v>295</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4758,33 +4870,31 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>352</v>
+    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D64" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>448</v>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4805,32 +4915,32 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D65" s="19" t="s">
+      <c r="A65" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>360</v>
+      <c r="E65" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>363</v>
+        <v>443</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -4851,27 +4961,31 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" t="s">
-        <v>461</v>
-      </c>
-      <c r="D66" s="19" t="s">
+      <c r="A66" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>312</v>
+      </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -4890,26 +5004,34 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="C67" t="s">
-        <v>463</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+    <row r="67" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -4928,26 +5050,32 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="C68" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" s="19" t="s">
+    <row r="68" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="F68" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -4968,24 +5096,30 @@
     </row>
     <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C69" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -5004,26 +5138,32 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="C70" t="s">
-        <v>468</v>
-      </c>
-      <c r="D70" s="19" t="s">
+    <row r="70" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="F70" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5042,26 +5182,32 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="C71" t="s">
-        <v>208</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>369</v>
+    <row r="71" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="F71" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5082,24 +5228,30 @@
     </row>
     <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>470</v>
+        <v>458</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>383</v>
+        <v>481</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+        <v>492</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>517</v>
+      </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -5118,28 +5270,34 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="C73" t="s">
-        <v>473</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>370</v>
+    <row r="73" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>380</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -5158,28 +5316,34 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C74" t="s">
-        <v>476</v>
-      </c>
-      <c r="D74" s="19" t="s">
+    <row r="74" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E74" t="s">
-        <v>474</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="E74" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5198,26 +5362,34 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C75" t="s">
-        <v>476</v>
-      </c>
-      <c r="D75" s="19" t="s">
+    <row r="75" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -5236,28 +5408,34 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="19" t="s">
+    <row r="76" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>370</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5278,24 +5456,32 @@
     </row>
     <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>480</v>
+        <v>454</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
-      </c>
-      <c r="D77" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="F77" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+        <v>490</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -31160,6 +31346,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I77">
+    <sortCondition ref="C1:C77"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E277C-80B1-4B54-B4E3-EE846166CAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC8A06-966C-4345-8366-574F14010667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="533">
   <si>
     <t>Common Name</t>
   </si>
@@ -1610,6 +1610,15 @@
   </si>
   <si>
     <t>In dry lowlands, a fairly common breeding resident. A few birds breed in wet lowlands others are winter migrants in the lowlands. Freshwater and brackish shallow waters in marshes, lagoons and tanks are the preffered habitats.</t>
+  </si>
+  <si>
+    <t>CATTLE EGRET</t>
+  </si>
+  <si>
+    <t>LITTLE EGRET</t>
+  </si>
+  <si>
+    <t>GREAT EGRET</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1701,6 +1710,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1757,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1811,6 +1826,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,22 +2051,22 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="47.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="1" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2112,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2158,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2184,7 +2204,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -2228,7 +2248,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>384</v>
       </c>
@@ -2274,7 +2294,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>455</v>
       </c>
@@ -2320,7 +2340,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>456</v>
       </c>
@@ -2364,7 +2384,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>385</v>
       </c>
@@ -2408,7 +2428,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>386</v>
       </c>
@@ -2454,7 +2474,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>387</v>
       </c>
@@ -2498,7 +2518,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
@@ -2544,7 +2564,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2590,7 +2610,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2634,7 +2654,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
@@ -2678,7 +2698,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -2724,7 +2744,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>77</v>
       </c>
@@ -2770,7 +2790,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>84</v>
       </c>
@@ -2814,7 +2834,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>89</v>
       </c>
@@ -2860,7 +2880,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>388</v>
       </c>
@@ -2906,7 +2926,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>100</v>
       </c>
@@ -2950,7 +2970,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>457</v>
       </c>
@@ -2996,7 +3016,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>460</v>
       </c>
@@ -3042,7 +3062,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>389</v>
       </c>
@@ -3086,7 +3106,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>466</v>
       </c>
@@ -3130,7 +3150,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>110</v>
       </c>
@@ -3174,7 +3194,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>116</v>
       </c>
@@ -3218,7 +3238,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>121</v>
       </c>
@@ -3262,7 +3282,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>127</v>
       </c>
@@ -3308,7 +3328,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>135</v>
       </c>
@@ -3352,7 +3372,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>141</v>
       </c>
@@ -3398,30 +3418,30 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="34" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="42" t="s">
         <v>508</v>
       </c>
       <c r="J31" s="4"/>
@@ -3442,7 +3462,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>146</v>
       </c>
@@ -3488,7 +3508,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>153</v>
       </c>
@@ -3534,7 +3554,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>159</v>
       </c>
@@ -3580,7 +3600,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>165</v>
       </c>
@@ -3626,7 +3646,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>390</v>
       </c>
@@ -3672,7 +3692,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>391</v>
       </c>
@@ -3716,7 +3736,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>392</v>
       </c>
@@ -3762,7 +3782,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>451</v>
       </c>
@@ -3806,7 +3826,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>190</v>
       </c>
@@ -3850,7 +3870,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>196</v>
       </c>
@@ -3894,7 +3914,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>393</v>
       </c>
@@ -3938,7 +3958,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>449</v>
       </c>
@@ -3982,7 +4002,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>206</v>
       </c>
@@ -4026,7 +4046,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>452</v>
       </c>
@@ -4070,7 +4090,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>394</v>
       </c>
@@ -4114,7 +4134,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>395</v>
       </c>
@@ -4158,7 +4178,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>220</v>
       </c>
@@ -4204,7 +4224,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>396</v>
       </c>
@@ -4248,7 +4268,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>229</v>
       </c>
@@ -4292,7 +4312,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>235</v>
       </c>
@@ -4336,7 +4356,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>240</v>
       </c>
@@ -4380,7 +4400,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>245</v>
       </c>
@@ -4424,7 +4444,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>397</v>
       </c>
@@ -4470,7 +4490,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>378</v>
       </c>
@@ -4514,7 +4534,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>453</v>
       </c>
@@ -4558,7 +4578,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>398</v>
       </c>
@@ -4602,7 +4622,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>266</v>
       </c>
@@ -4648,7 +4668,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>271</v>
       </c>
@@ -4692,7 +4712,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>399</v>
       </c>
@@ -4736,7 +4756,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>400</v>
       </c>
@@ -4780,7 +4800,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>284</v>
       </c>
@@ -4826,7 +4846,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="29" t="s">
         <v>291</v>
       </c>
@@ -4870,7 +4890,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>296</v>
       </c>
@@ -4914,7 +4934,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>300</v>
       </c>
@@ -4960,7 +4980,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>307</v>
       </c>
@@ -5004,7 +5024,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>401</v>
       </c>
@@ -5050,7 +5070,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>402</v>
       </c>
@@ -5094,7 +5114,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>403</v>
       </c>
@@ -5138,7 +5158,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>404</v>
       </c>
@@ -5182,7 +5202,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>334</v>
       </c>
@@ -5226,7 +5246,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>458</v>
       </c>
@@ -5270,7 +5290,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>338</v>
       </c>
@@ -5316,7 +5336,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>346</v>
       </c>
@@ -5362,7 +5382,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>351</v>
       </c>
@@ -5408,7 +5428,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>405</v>
       </c>
@@ -5454,7 +5474,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>454</v>
       </c>
@@ -5500,8 +5520,10 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+    <row r="78" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5528,8 +5550,10 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>531</v>
+      </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5556,8 +5580,10 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+    <row r="80" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5584,7 +5610,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -5612,7 +5638,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -5640,7 +5666,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -5668,7 +5694,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5696,7 +5722,7 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -5724,7 +5750,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5752,7 +5778,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5780,7 +5806,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5808,7 +5834,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5836,7 +5862,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -5864,7 +5890,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -5892,7 +5918,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -5920,7 +5946,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -5948,7 +5974,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -5976,7 +6002,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6004,7 +6030,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6032,7 +6058,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6060,7 +6086,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6088,7 +6114,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6116,7 +6142,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6144,7 +6170,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6172,7 +6198,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6200,7 +6226,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -6228,7 +6254,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -6256,7 +6282,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -6284,7 +6310,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -6312,7 +6338,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -6340,7 +6366,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -6368,7 +6394,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -6396,7 +6422,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -6424,7 +6450,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6452,7 +6478,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6480,7 +6506,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -6508,7 +6534,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -6536,7 +6562,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -6564,7 +6590,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -6592,7 +6618,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -6620,7 +6646,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -6648,7 +6674,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -6676,7 +6702,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -6704,7 +6730,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -6732,7 +6758,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -6760,7 +6786,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -6788,7 +6814,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -6816,7 +6842,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -6844,7 +6870,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -6872,7 +6898,7 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -6900,7 +6926,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6928,7 +6954,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -6956,7 +6982,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6984,7 +7010,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -7012,7 +7038,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -7040,7 +7066,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7068,7 +7094,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -7096,7 +7122,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7124,7 +7150,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7152,7 +7178,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7180,7 +7206,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7208,7 +7234,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7236,7 +7262,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7264,7 +7290,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7292,7 +7318,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7320,7 +7346,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7348,7 +7374,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7376,7 +7402,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7404,7 +7430,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7432,7 +7458,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7460,7 +7486,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7488,7 +7514,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7516,7 +7542,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7544,7 +7570,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7572,7 +7598,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7600,7 +7626,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7628,7 +7654,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -7656,7 +7682,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7684,7 +7710,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7712,7 +7738,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7740,7 +7766,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7768,7 +7794,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7796,7 +7822,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7824,7 +7850,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7852,7 +7878,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7880,7 +7906,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7908,7 +7934,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7936,7 +7962,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7964,7 +7990,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7992,7 +8018,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -8020,7 +8046,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -8048,7 +8074,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -8076,7 +8102,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -8104,7 +8130,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -8132,7 +8158,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -8160,7 +8186,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -8188,7 +8214,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -8216,7 +8242,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -8244,7 +8270,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -8272,7 +8298,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -8300,7 +8326,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -8328,7 +8354,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -8356,7 +8382,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -8384,7 +8410,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -8412,7 +8438,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -8440,7 +8466,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -8468,7 +8494,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -8496,7 +8522,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -8524,7 +8550,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -8552,7 +8578,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -8580,7 +8606,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -8608,7 +8634,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -8636,7 +8662,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -8664,7 +8690,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -8692,7 +8718,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8720,7 +8746,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -8748,7 +8774,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -8776,7 +8802,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -8804,7 +8830,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8832,7 +8858,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -8860,7 +8886,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -8888,7 +8914,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8916,7 +8942,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -8944,7 +8970,7 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -8972,7 +8998,7 @@
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
     </row>
-    <row r="202" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -9000,7 +9026,7 @@
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
     </row>
-    <row r="203" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -9028,7 +9054,7 @@
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
     </row>
-    <row r="204" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -9056,7 +9082,7 @@
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
     </row>
-    <row r="205" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -9084,7 +9110,7 @@
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
     </row>
-    <row r="206" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -9112,7 +9138,7 @@
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
     </row>
-    <row r="207" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -9140,7 +9166,7 @@
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
     </row>
-    <row r="208" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -9168,7 +9194,7 @@
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
     </row>
-    <row r="209" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -9196,7 +9222,7 @@
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
     </row>
-    <row r="210" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -9224,7 +9250,7 @@
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
     </row>
-    <row r="211" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -9252,7 +9278,7 @@
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
     </row>
-    <row r="212" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -9280,7 +9306,7 @@
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
     </row>
-    <row r="213" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -9308,7 +9334,7 @@
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
     </row>
-    <row r="214" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -9336,7 +9362,7 @@
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
     </row>
-    <row r="215" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -9364,7 +9390,7 @@
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
     </row>
-    <row r="216" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -9392,7 +9418,7 @@
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
     </row>
-    <row r="217" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -9420,7 +9446,7 @@
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
     </row>
-    <row r="218" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -9448,7 +9474,7 @@
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
     </row>
-    <row r="219" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -9476,7 +9502,7 @@
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
     </row>
-    <row r="220" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -9504,7 +9530,7 @@
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
     </row>
-    <row r="221" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -9532,7 +9558,7 @@
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
     </row>
-    <row r="222" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -9560,7 +9586,7 @@
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
     </row>
-    <row r="223" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -9588,7 +9614,7 @@
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
     </row>
-    <row r="224" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -9616,7 +9642,7 @@
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
     </row>
-    <row r="225" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -9644,7 +9670,7 @@
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
     </row>
-    <row r="226" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -9672,7 +9698,7 @@
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
     </row>
-    <row r="227" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -9700,7 +9726,7 @@
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
     </row>
-    <row r="228" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -9728,7 +9754,7 @@
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
     </row>
-    <row r="229" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -9756,7 +9782,7 @@
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
     </row>
-    <row r="230" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -9784,7 +9810,7 @@
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
     </row>
-    <row r="231" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -9812,7 +9838,7 @@
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
     </row>
-    <row r="232" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -9840,7 +9866,7 @@
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
     </row>
-    <row r="233" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -9868,7 +9894,7 @@
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
     </row>
-    <row r="234" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -9896,7 +9922,7 @@
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
     </row>
-    <row r="235" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -9924,7 +9950,7 @@
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
     </row>
-    <row r="236" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -9952,7 +9978,7 @@
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
     </row>
-    <row r="237" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -9980,7 +10006,7 @@
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
     </row>
-    <row r="238" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -10008,7 +10034,7 @@
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
     </row>
-    <row r="239" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -10036,7 +10062,7 @@
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
     </row>
-    <row r="240" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -10064,7 +10090,7 @@
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
     </row>
-    <row r="241" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -10092,7 +10118,7 @@
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
     </row>
-    <row r="242" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -10120,7 +10146,7 @@
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
     </row>
-    <row r="243" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -10148,7 +10174,7 @@
       <c r="Y243" s="4"/>
       <c r="Z243" s="4"/>
     </row>
-    <row r="244" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -10176,7 +10202,7 @@
       <c r="Y244" s="4"/>
       <c r="Z244" s="4"/>
     </row>
-    <row r="245" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -10204,7 +10230,7 @@
       <c r="Y245" s="4"/>
       <c r="Z245" s="4"/>
     </row>
-    <row r="246" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -10232,7 +10258,7 @@
       <c r="Y246" s="4"/>
       <c r="Z246" s="4"/>
     </row>
-    <row r="247" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -10260,7 +10286,7 @@
       <c r="Y247" s="4"/>
       <c r="Z247" s="4"/>
     </row>
-    <row r="248" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -10288,7 +10314,7 @@
       <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
     </row>
-    <row r="249" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -10316,7 +10342,7 @@
       <c r="Y249" s="4"/>
       <c r="Z249" s="4"/>
     </row>
-    <row r="250" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -10344,7 +10370,7 @@
       <c r="Y250" s="4"/>
       <c r="Z250" s="4"/>
     </row>
-    <row r="251" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -10372,7 +10398,7 @@
       <c r="Y251" s="4"/>
       <c r="Z251" s="4"/>
     </row>
-    <row r="252" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -10400,7 +10426,7 @@
       <c r="Y252" s="4"/>
       <c r="Z252" s="4"/>
     </row>
-    <row r="253" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -10428,7 +10454,7 @@
       <c r="Y253" s="4"/>
       <c r="Z253" s="4"/>
     </row>
-    <row r="254" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -10456,7 +10482,7 @@
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
     </row>
-    <row r="255" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -10484,7 +10510,7 @@
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
     </row>
-    <row r="256" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -10512,7 +10538,7 @@
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
     </row>
-    <row r="257" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -10540,7 +10566,7 @@
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
     </row>
-    <row r="258" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -10568,7 +10594,7 @@
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
     </row>
-    <row r="259" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -10596,7 +10622,7 @@
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
     </row>
-    <row r="260" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -10624,7 +10650,7 @@
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
     </row>
-    <row r="261" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -10652,7 +10678,7 @@
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
     </row>
-    <row r="262" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -10680,7 +10706,7 @@
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
     </row>
-    <row r="263" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -10708,7 +10734,7 @@
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
     </row>
-    <row r="264" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -10736,7 +10762,7 @@
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
     </row>
-    <row r="265" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -10764,7 +10790,7 @@
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
     </row>
-    <row r="266" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -10792,7 +10818,7 @@
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
     </row>
-    <row r="267" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -10820,7 +10846,7 @@
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
     </row>
-    <row r="268" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -10848,7 +10874,7 @@
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
     </row>
-    <row r="269" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -10876,7 +10902,7 @@
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
     </row>
-    <row r="270" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -10904,7 +10930,7 @@
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
     </row>
-    <row r="271" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -10932,7 +10958,7 @@
       <c r="Y271" s="4"/>
       <c r="Z271" s="4"/>
     </row>
-    <row r="272" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -10960,7 +10986,7 @@
       <c r="Y272" s="4"/>
       <c r="Z272" s="4"/>
     </row>
-    <row r="273" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -10988,7 +11014,7 @@
       <c r="Y273" s="4"/>
       <c r="Z273" s="4"/>
     </row>
-    <row r="274" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -11016,7 +11042,7 @@
       <c r="Y274" s="4"/>
       <c r="Z274" s="4"/>
     </row>
-    <row r="275" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -11044,7 +11070,7 @@
       <c r="Y275" s="4"/>
       <c r="Z275" s="4"/>
     </row>
-    <row r="276" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -11072,7 +11098,7 @@
       <c r="Y276" s="4"/>
       <c r="Z276" s="4"/>
     </row>
-    <row r="277" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -11100,7 +11126,7 @@
       <c r="Y277" s="4"/>
       <c r="Z277" s="4"/>
     </row>
-    <row r="278" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -11128,7 +11154,7 @@
       <c r="Y278" s="4"/>
       <c r="Z278" s="4"/>
     </row>
-    <row r="279" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -11156,7 +11182,7 @@
       <c r="Y279" s="4"/>
       <c r="Z279" s="4"/>
     </row>
-    <row r="280" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -11184,7 +11210,7 @@
       <c r="Y280" s="4"/>
       <c r="Z280" s="4"/>
     </row>
-    <row r="281" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -11212,7 +11238,7 @@
       <c r="Y281" s="4"/>
       <c r="Z281" s="4"/>
     </row>
-    <row r="282" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -11240,7 +11266,7 @@
       <c r="Y282" s="4"/>
       <c r="Z282" s="4"/>
     </row>
-    <row r="283" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -11268,7 +11294,7 @@
       <c r="Y283" s="4"/>
       <c r="Z283" s="4"/>
     </row>
-    <row r="284" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -11296,7 +11322,7 @@
       <c r="Y284" s="4"/>
       <c r="Z284" s="4"/>
     </row>
-    <row r="285" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -11324,7 +11350,7 @@
       <c r="Y285" s="4"/>
       <c r="Z285" s="4"/>
     </row>
-    <row r="286" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -11352,7 +11378,7 @@
       <c r="Y286" s="4"/>
       <c r="Z286" s="4"/>
     </row>
-    <row r="287" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -11380,7 +11406,7 @@
       <c r="Y287" s="4"/>
       <c r="Z287" s="4"/>
     </row>
-    <row r="288" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -11408,7 +11434,7 @@
       <c r="Y288" s="4"/>
       <c r="Z288" s="4"/>
     </row>
-    <row r="289" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -11436,7 +11462,7 @@
       <c r="Y289" s="4"/>
       <c r="Z289" s="4"/>
     </row>
-    <row r="290" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -11464,7 +11490,7 @@
       <c r="Y290" s="4"/>
       <c r="Z290" s="4"/>
     </row>
-    <row r="291" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -11492,7 +11518,7 @@
       <c r="Y291" s="4"/>
       <c r="Z291" s="4"/>
     </row>
-    <row r="292" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -11520,7 +11546,7 @@
       <c r="Y292" s="4"/>
       <c r="Z292" s="4"/>
     </row>
-    <row r="293" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -11548,7 +11574,7 @@
       <c r="Y293" s="4"/>
       <c r="Z293" s="4"/>
     </row>
-    <row r="294" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -11576,7 +11602,7 @@
       <c r="Y294" s="4"/>
       <c r="Z294" s="4"/>
     </row>
-    <row r="295" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -11604,7 +11630,7 @@
       <c r="Y295" s="4"/>
       <c r="Z295" s="4"/>
     </row>
-    <row r="296" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -11632,7 +11658,7 @@
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
     </row>
-    <row r="297" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -11660,7 +11686,7 @@
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
     </row>
-    <row r="298" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -11688,7 +11714,7 @@
       <c r="Y298" s="4"/>
       <c r="Z298" s="4"/>
     </row>
-    <row r="299" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -11716,7 +11742,7 @@
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
     </row>
-    <row r="300" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11744,7 +11770,7 @@
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
     </row>
-    <row r="301" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -11772,7 +11798,7 @@
       <c r="Y301" s="4"/>
       <c r="Z301" s="4"/>
     </row>
-    <row r="302" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -11800,7 +11826,7 @@
       <c r="Y302" s="4"/>
       <c r="Z302" s="4"/>
     </row>
-    <row r="303" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -11828,7 +11854,7 @@
       <c r="Y303" s="4"/>
       <c r="Z303" s="4"/>
     </row>
-    <row r="304" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -11856,7 +11882,7 @@
       <c r="Y304" s="4"/>
       <c r="Z304" s="4"/>
     </row>
-    <row r="305" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -11884,7 +11910,7 @@
       <c r="Y305" s="4"/>
       <c r="Z305" s="4"/>
     </row>
-    <row r="306" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -11912,7 +11938,7 @@
       <c r="Y306" s="4"/>
       <c r="Z306" s="4"/>
     </row>
-    <row r="307" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -11940,7 +11966,7 @@
       <c r="Y307" s="4"/>
       <c r="Z307" s="4"/>
     </row>
-    <row r="308" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -11968,7 +11994,7 @@
       <c r="Y308" s="4"/>
       <c r="Z308" s="4"/>
     </row>
-    <row r="309" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -11996,7 +12022,7 @@
       <c r="Y309" s="4"/>
       <c r="Z309" s="4"/>
     </row>
-    <row r="310" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -12024,7 +12050,7 @@
       <c r="Y310" s="4"/>
       <c r="Z310" s="4"/>
     </row>
-    <row r="311" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -12052,7 +12078,7 @@
       <c r="Y311" s="4"/>
       <c r="Z311" s="4"/>
     </row>
-    <row r="312" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -12080,7 +12106,7 @@
       <c r="Y312" s="4"/>
       <c r="Z312" s="4"/>
     </row>
-    <row r="313" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -12108,7 +12134,7 @@
       <c r="Y313" s="4"/>
       <c r="Z313" s="4"/>
     </row>
-    <row r="314" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -12136,7 +12162,7 @@
       <c r="Y314" s="4"/>
       <c r="Z314" s="4"/>
     </row>
-    <row r="315" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -12164,7 +12190,7 @@
       <c r="Y315" s="4"/>
       <c r="Z315" s="4"/>
     </row>
-    <row r="316" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -12192,7 +12218,7 @@
       <c r="Y316" s="4"/>
       <c r="Z316" s="4"/>
     </row>
-    <row r="317" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -12220,7 +12246,7 @@
       <c r="Y317" s="4"/>
       <c r="Z317" s="4"/>
     </row>
-    <row r="318" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -12248,7 +12274,7 @@
       <c r="Y318" s="4"/>
       <c r="Z318" s="4"/>
     </row>
-    <row r="319" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -12276,7 +12302,7 @@
       <c r="Y319" s="4"/>
       <c r="Z319" s="4"/>
     </row>
-    <row r="320" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -12304,7 +12330,7 @@
       <c r="Y320" s="4"/>
       <c r="Z320" s="4"/>
     </row>
-    <row r="321" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -12332,7 +12358,7 @@
       <c r="Y321" s="4"/>
       <c r="Z321" s="4"/>
     </row>
-    <row r="322" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -12360,7 +12386,7 @@
       <c r="Y322" s="4"/>
       <c r="Z322" s="4"/>
     </row>
-    <row r="323" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -12388,7 +12414,7 @@
       <c r="Y323" s="4"/>
       <c r="Z323" s="4"/>
     </row>
-    <row r="324" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -12416,7 +12442,7 @@
       <c r="Y324" s="4"/>
       <c r="Z324" s="4"/>
     </row>
-    <row r="325" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -12444,7 +12470,7 @@
       <c r="Y325" s="4"/>
       <c r="Z325" s="4"/>
     </row>
-    <row r="326" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -12472,7 +12498,7 @@
       <c r="Y326" s="4"/>
       <c r="Z326" s="4"/>
     </row>
-    <row r="327" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -12500,7 +12526,7 @@
       <c r="Y327" s="4"/>
       <c r="Z327" s="4"/>
     </row>
-    <row r="328" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -12528,7 +12554,7 @@
       <c r="Y328" s="4"/>
       <c r="Z328" s="4"/>
     </row>
-    <row r="329" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -12556,7 +12582,7 @@
       <c r="Y329" s="4"/>
       <c r="Z329" s="4"/>
     </row>
-    <row r="330" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -12584,7 +12610,7 @@
       <c r="Y330" s="4"/>
       <c r="Z330" s="4"/>
     </row>
-    <row r="331" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -12612,7 +12638,7 @@
       <c r="Y331" s="4"/>
       <c r="Z331" s="4"/>
     </row>
-    <row r="332" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -12640,7 +12666,7 @@
       <c r="Y332" s="4"/>
       <c r="Z332" s="4"/>
     </row>
-    <row r="333" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -12668,7 +12694,7 @@
       <c r="Y333" s="4"/>
       <c r="Z333" s="4"/>
     </row>
-    <row r="334" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -12696,7 +12722,7 @@
       <c r="Y334" s="4"/>
       <c r="Z334" s="4"/>
     </row>
-    <row r="335" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -12724,7 +12750,7 @@
       <c r="Y335" s="4"/>
       <c r="Z335" s="4"/>
     </row>
-    <row r="336" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -12752,7 +12778,7 @@
       <c r="Y336" s="4"/>
       <c r="Z336" s="4"/>
     </row>
-    <row r="337" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -12780,7 +12806,7 @@
       <c r="Y337" s="4"/>
       <c r="Z337" s="4"/>
     </row>
-    <row r="338" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -12808,7 +12834,7 @@
       <c r="Y338" s="4"/>
       <c r="Z338" s="4"/>
     </row>
-    <row r="339" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -12836,7 +12862,7 @@
       <c r="Y339" s="4"/>
       <c r="Z339" s="4"/>
     </row>
-    <row r="340" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -12864,7 +12890,7 @@
       <c r="Y340" s="4"/>
       <c r="Z340" s="4"/>
     </row>
-    <row r="341" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -12892,7 +12918,7 @@
       <c r="Y341" s="4"/>
       <c r="Z341" s="4"/>
     </row>
-    <row r="342" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -12920,7 +12946,7 @@
       <c r="Y342" s="4"/>
       <c r="Z342" s="4"/>
     </row>
-    <row r="343" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -12948,7 +12974,7 @@
       <c r="Y343" s="4"/>
       <c r="Z343" s="4"/>
     </row>
-    <row r="344" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -12976,7 +13002,7 @@
       <c r="Y344" s="4"/>
       <c r="Z344" s="4"/>
     </row>
-    <row r="345" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -13004,7 +13030,7 @@
       <c r="Y345" s="4"/>
       <c r="Z345" s="4"/>
     </row>
-    <row r="346" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -13032,7 +13058,7 @@
       <c r="Y346" s="4"/>
       <c r="Z346" s="4"/>
     </row>
-    <row r="347" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -13060,7 +13086,7 @@
       <c r="Y347" s="4"/>
       <c r="Z347" s="4"/>
     </row>
-    <row r="348" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -13088,7 +13114,7 @@
       <c r="Y348" s="4"/>
       <c r="Z348" s="4"/>
     </row>
-    <row r="349" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -13116,7 +13142,7 @@
       <c r="Y349" s="4"/>
       <c r="Z349" s="4"/>
     </row>
-    <row r="350" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -13144,7 +13170,7 @@
       <c r="Y350" s="4"/>
       <c r="Z350" s="4"/>
     </row>
-    <row r="351" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -13172,7 +13198,7 @@
       <c r="Y351" s="4"/>
       <c r="Z351" s="4"/>
     </row>
-    <row r="352" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -13200,7 +13226,7 @@
       <c r="Y352" s="4"/>
       <c r="Z352" s="4"/>
     </row>
-    <row r="353" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -13228,7 +13254,7 @@
       <c r="Y353" s="4"/>
       <c r="Z353" s="4"/>
     </row>
-    <row r="354" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -13256,7 +13282,7 @@
       <c r="Y354" s="4"/>
       <c r="Z354" s="4"/>
     </row>
-    <row r="355" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -13284,7 +13310,7 @@
       <c r="Y355" s="4"/>
       <c r="Z355" s="4"/>
     </row>
-    <row r="356" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -13312,7 +13338,7 @@
       <c r="Y356" s="4"/>
       <c r="Z356" s="4"/>
     </row>
-    <row r="357" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -13340,7 +13366,7 @@
       <c r="Y357" s="4"/>
       <c r="Z357" s="4"/>
     </row>
-    <row r="358" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -13368,7 +13394,7 @@
       <c r="Y358" s="4"/>
       <c r="Z358" s="4"/>
     </row>
-    <row r="359" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -13396,7 +13422,7 @@
       <c r="Y359" s="4"/>
       <c r="Z359" s="4"/>
     </row>
-    <row r="360" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -13424,7 +13450,7 @@
       <c r="Y360" s="4"/>
       <c r="Z360" s="4"/>
     </row>
-    <row r="361" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -13452,7 +13478,7 @@
       <c r="Y361" s="4"/>
       <c r="Z361" s="4"/>
     </row>
-    <row r="362" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -13480,7 +13506,7 @@
       <c r="Y362" s="4"/>
       <c r="Z362" s="4"/>
     </row>
-    <row r="363" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -13508,7 +13534,7 @@
       <c r="Y363" s="4"/>
       <c r="Z363" s="4"/>
     </row>
-    <row r="364" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -13536,7 +13562,7 @@
       <c r="Y364" s="4"/>
       <c r="Z364" s="4"/>
     </row>
-    <row r="365" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -13564,7 +13590,7 @@
       <c r="Y365" s="4"/>
       <c r="Z365" s="4"/>
     </row>
-    <row r="366" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -13592,7 +13618,7 @@
       <c r="Y366" s="4"/>
       <c r="Z366" s="4"/>
     </row>
-    <row r="367" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -13620,7 +13646,7 @@
       <c r="Y367" s="4"/>
       <c r="Z367" s="4"/>
     </row>
-    <row r="368" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -13648,7 +13674,7 @@
       <c r="Y368" s="4"/>
       <c r="Z368" s="4"/>
     </row>
-    <row r="369" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -13676,7 +13702,7 @@
       <c r="Y369" s="4"/>
       <c r="Z369" s="4"/>
     </row>
-    <row r="370" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -13704,7 +13730,7 @@
       <c r="Y370" s="4"/>
       <c r="Z370" s="4"/>
     </row>
-    <row r="371" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -13732,7 +13758,7 @@
       <c r="Y371" s="4"/>
       <c r="Z371" s="4"/>
     </row>
-    <row r="372" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -13760,7 +13786,7 @@
       <c r="Y372" s="4"/>
       <c r="Z372" s="4"/>
     </row>
-    <row r="373" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -13788,7 +13814,7 @@
       <c r="Y373" s="4"/>
       <c r="Z373" s="4"/>
     </row>
-    <row r="374" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -13816,7 +13842,7 @@
       <c r="Y374" s="4"/>
       <c r="Z374" s="4"/>
     </row>
-    <row r="375" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -13844,7 +13870,7 @@
       <c r="Y375" s="4"/>
       <c r="Z375" s="4"/>
     </row>
-    <row r="376" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -13872,7 +13898,7 @@
       <c r="Y376" s="4"/>
       <c r="Z376" s="4"/>
     </row>
-    <row r="377" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -13900,7 +13926,7 @@
       <c r="Y377" s="4"/>
       <c r="Z377" s="4"/>
     </row>
-    <row r="378" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -13928,7 +13954,7 @@
       <c r="Y378" s="4"/>
       <c r="Z378" s="4"/>
     </row>
-    <row r="379" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -13956,7 +13982,7 @@
       <c r="Y379" s="4"/>
       <c r="Z379" s="4"/>
     </row>
-    <row r="380" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -13984,7 +14010,7 @@
       <c r="Y380" s="4"/>
       <c r="Z380" s="4"/>
     </row>
-    <row r="381" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -14012,7 +14038,7 @@
       <c r="Y381" s="4"/>
       <c r="Z381" s="4"/>
     </row>
-    <row r="382" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -14040,7 +14066,7 @@
       <c r="Y382" s="4"/>
       <c r="Z382" s="4"/>
     </row>
-    <row r="383" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -14068,7 +14094,7 @@
       <c r="Y383" s="4"/>
       <c r="Z383" s="4"/>
     </row>
-    <row r="384" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -14096,7 +14122,7 @@
       <c r="Y384" s="4"/>
       <c r="Z384" s="4"/>
     </row>
-    <row r="385" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -14124,7 +14150,7 @@
       <c r="Y385" s="4"/>
       <c r="Z385" s="4"/>
     </row>
-    <row r="386" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -14152,7 +14178,7 @@
       <c r="Y386" s="4"/>
       <c r="Z386" s="4"/>
     </row>
-    <row r="387" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -14180,7 +14206,7 @@
       <c r="Y387" s="4"/>
       <c r="Z387" s="4"/>
     </row>
-    <row r="388" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -14208,7 +14234,7 @@
       <c r="Y388" s="4"/>
       <c r="Z388" s="4"/>
     </row>
-    <row r="389" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -14236,7 +14262,7 @@
       <c r="Y389" s="4"/>
       <c r="Z389" s="4"/>
     </row>
-    <row r="390" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -14264,7 +14290,7 @@
       <c r="Y390" s="4"/>
       <c r="Z390" s="4"/>
     </row>
-    <row r="391" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -14292,7 +14318,7 @@
       <c r="Y391" s="4"/>
       <c r="Z391" s="4"/>
     </row>
-    <row r="392" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -14320,7 +14346,7 @@
       <c r="Y392" s="4"/>
       <c r="Z392" s="4"/>
     </row>
-    <row r="393" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -14348,7 +14374,7 @@
       <c r="Y393" s="4"/>
       <c r="Z393" s="4"/>
     </row>
-    <row r="394" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -14376,7 +14402,7 @@
       <c r="Y394" s="4"/>
       <c r="Z394" s="4"/>
     </row>
-    <row r="395" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -14404,7 +14430,7 @@
       <c r="Y395" s="4"/>
       <c r="Z395" s="4"/>
     </row>
-    <row r="396" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -14432,7 +14458,7 @@
       <c r="Y396" s="4"/>
       <c r="Z396" s="4"/>
     </row>
-    <row r="397" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -14460,7 +14486,7 @@
       <c r="Y397" s="4"/>
       <c r="Z397" s="4"/>
     </row>
-    <row r="398" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -14488,7 +14514,7 @@
       <c r="Y398" s="4"/>
       <c r="Z398" s="4"/>
     </row>
-    <row r="399" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -14516,7 +14542,7 @@
       <c r="Y399" s="4"/>
       <c r="Z399" s="4"/>
     </row>
-    <row r="400" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -14544,7 +14570,7 @@
       <c r="Y400" s="4"/>
       <c r="Z400" s="4"/>
     </row>
-    <row r="401" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -14572,7 +14598,7 @@
       <c r="Y401" s="4"/>
       <c r="Z401" s="4"/>
     </row>
-    <row r="402" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -14600,7 +14626,7 @@
       <c r="Y402" s="4"/>
       <c r="Z402" s="4"/>
     </row>
-    <row r="403" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -14628,7 +14654,7 @@
       <c r="Y403" s="4"/>
       <c r="Z403" s="4"/>
     </row>
-    <row r="404" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -14656,7 +14682,7 @@
       <c r="Y404" s="4"/>
       <c r="Z404" s="4"/>
     </row>
-    <row r="405" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -14684,7 +14710,7 @@
       <c r="Y405" s="4"/>
       <c r="Z405" s="4"/>
     </row>
-    <row r="406" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -14712,7 +14738,7 @@
       <c r="Y406" s="4"/>
       <c r="Z406" s="4"/>
     </row>
-    <row r="407" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -14740,7 +14766,7 @@
       <c r="Y407" s="4"/>
       <c r="Z407" s="4"/>
     </row>
-    <row r="408" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -14768,7 +14794,7 @@
       <c r="Y408" s="4"/>
       <c r="Z408" s="4"/>
     </row>
-    <row r="409" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -14796,7 +14822,7 @@
       <c r="Y409" s="4"/>
       <c r="Z409" s="4"/>
     </row>
-    <row r="410" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -14824,7 +14850,7 @@
       <c r="Y410" s="4"/>
       <c r="Z410" s="4"/>
     </row>
-    <row r="411" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -14852,7 +14878,7 @@
       <c r="Y411" s="4"/>
       <c r="Z411" s="4"/>
     </row>
-    <row r="412" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -14880,7 +14906,7 @@
       <c r="Y412" s="4"/>
       <c r="Z412" s="4"/>
     </row>
-    <row r="413" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -14908,7 +14934,7 @@
       <c r="Y413" s="4"/>
       <c r="Z413" s="4"/>
     </row>
-    <row r="414" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -14936,7 +14962,7 @@
       <c r="Y414" s="4"/>
       <c r="Z414" s="4"/>
     </row>
-    <row r="415" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -14964,7 +14990,7 @@
       <c r="Y415" s="4"/>
       <c r="Z415" s="4"/>
     </row>
-    <row r="416" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -14992,7 +15018,7 @@
       <c r="Y416" s="4"/>
       <c r="Z416" s="4"/>
     </row>
-    <row r="417" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -15020,7 +15046,7 @@
       <c r="Y417" s="4"/>
       <c r="Z417" s="4"/>
     </row>
-    <row r="418" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -15048,7 +15074,7 @@
       <c r="Y418" s="4"/>
       <c r="Z418" s="4"/>
     </row>
-    <row r="419" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -15076,7 +15102,7 @@
       <c r="Y419" s="4"/>
       <c r="Z419" s="4"/>
     </row>
-    <row r="420" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -15104,7 +15130,7 @@
       <c r="Y420" s="4"/>
       <c r="Z420" s="4"/>
     </row>
-    <row r="421" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -15132,7 +15158,7 @@
       <c r="Y421" s="4"/>
       <c r="Z421" s="4"/>
     </row>
-    <row r="422" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -15160,7 +15186,7 @@
       <c r="Y422" s="4"/>
       <c r="Z422" s="4"/>
     </row>
-    <row r="423" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -15188,7 +15214,7 @@
       <c r="Y423" s="4"/>
       <c r="Z423" s="4"/>
     </row>
-    <row r="424" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -15216,7 +15242,7 @@
       <c r="Y424" s="4"/>
       <c r="Z424" s="4"/>
     </row>
-    <row r="425" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -15244,7 +15270,7 @@
       <c r="Y425" s="4"/>
       <c r="Z425" s="4"/>
     </row>
-    <row r="426" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -15272,7 +15298,7 @@
       <c r="Y426" s="4"/>
       <c r="Z426" s="4"/>
     </row>
-    <row r="427" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -15300,7 +15326,7 @@
       <c r="Y427" s="4"/>
       <c r="Z427" s="4"/>
     </row>
-    <row r="428" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -15328,7 +15354,7 @@
       <c r="Y428" s="4"/>
       <c r="Z428" s="4"/>
     </row>
-    <row r="429" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -15356,7 +15382,7 @@
       <c r="Y429" s="4"/>
       <c r="Z429" s="4"/>
     </row>
-    <row r="430" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -15384,7 +15410,7 @@
       <c r="Y430" s="4"/>
       <c r="Z430" s="4"/>
     </row>
-    <row r="431" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -15412,7 +15438,7 @@
       <c r="Y431" s="4"/>
       <c r="Z431" s="4"/>
     </row>
-    <row r="432" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -15440,7 +15466,7 @@
       <c r="Y432" s="4"/>
       <c r="Z432" s="4"/>
     </row>
-    <row r="433" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -15468,7 +15494,7 @@
       <c r="Y433" s="4"/>
       <c r="Z433" s="4"/>
     </row>
-    <row r="434" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -15496,7 +15522,7 @@
       <c r="Y434" s="4"/>
       <c r="Z434" s="4"/>
     </row>
-    <row r="435" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -15524,7 +15550,7 @@
       <c r="Y435" s="4"/>
       <c r="Z435" s="4"/>
     </row>
-    <row r="436" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -15552,7 +15578,7 @@
       <c r="Y436" s="4"/>
       <c r="Z436" s="4"/>
     </row>
-    <row r="437" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -15580,7 +15606,7 @@
       <c r="Y437" s="4"/>
       <c r="Z437" s="4"/>
     </row>
-    <row r="438" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -15608,7 +15634,7 @@
       <c r="Y438" s="4"/>
       <c r="Z438" s="4"/>
     </row>
-    <row r="439" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -15636,7 +15662,7 @@
       <c r="Y439" s="4"/>
       <c r="Z439" s="4"/>
     </row>
-    <row r="440" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -15664,7 +15690,7 @@
       <c r="Y440" s="4"/>
       <c r="Z440" s="4"/>
     </row>
-    <row r="441" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -15692,7 +15718,7 @@
       <c r="Y441" s="4"/>
       <c r="Z441" s="4"/>
     </row>
-    <row r="442" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -15720,7 +15746,7 @@
       <c r="Y442" s="4"/>
       <c r="Z442" s="4"/>
     </row>
-    <row r="443" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -15748,7 +15774,7 @@
       <c r="Y443" s="4"/>
       <c r="Z443" s="4"/>
     </row>
-    <row r="444" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -15776,7 +15802,7 @@
       <c r="Y444" s="4"/>
       <c r="Z444" s="4"/>
     </row>
-    <row r="445" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -15804,7 +15830,7 @@
       <c r="Y445" s="4"/>
       <c r="Z445" s="4"/>
     </row>
-    <row r="446" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -15832,7 +15858,7 @@
       <c r="Y446" s="4"/>
       <c r="Z446" s="4"/>
     </row>
-    <row r="447" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -15860,7 +15886,7 @@
       <c r="Y447" s="4"/>
       <c r="Z447" s="4"/>
     </row>
-    <row r="448" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -15888,7 +15914,7 @@
       <c r="Y448" s="4"/>
       <c r="Z448" s="4"/>
     </row>
-    <row r="449" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -15916,7 +15942,7 @@
       <c r="Y449" s="4"/>
       <c r="Z449" s="4"/>
     </row>
-    <row r="450" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -15944,7 +15970,7 @@
       <c r="Y450" s="4"/>
       <c r="Z450" s="4"/>
     </row>
-    <row r="451" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -15972,7 +15998,7 @@
       <c r="Y451" s="4"/>
       <c r="Z451" s="4"/>
     </row>
-    <row r="452" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -16000,7 +16026,7 @@
       <c r="Y452" s="4"/>
       <c r="Z452" s="4"/>
     </row>
-    <row r="453" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -16028,7 +16054,7 @@
       <c r="Y453" s="4"/>
       <c r="Z453" s="4"/>
     </row>
-    <row r="454" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -16056,7 +16082,7 @@
       <c r="Y454" s="4"/>
       <c r="Z454" s="4"/>
     </row>
-    <row r="455" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -16084,7 +16110,7 @@
       <c r="Y455" s="4"/>
       <c r="Z455" s="4"/>
     </row>
-    <row r="456" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -16112,7 +16138,7 @@
       <c r="Y456" s="4"/>
       <c r="Z456" s="4"/>
     </row>
-    <row r="457" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -16140,7 +16166,7 @@
       <c r="Y457" s="4"/>
       <c r="Z457" s="4"/>
     </row>
-    <row r="458" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -16168,7 +16194,7 @@
       <c r="Y458" s="4"/>
       <c r="Z458" s="4"/>
     </row>
-    <row r="459" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -16196,7 +16222,7 @@
       <c r="Y459" s="4"/>
       <c r="Z459" s="4"/>
     </row>
-    <row r="460" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -16224,7 +16250,7 @@
       <c r="Y460" s="4"/>
       <c r="Z460" s="4"/>
     </row>
-    <row r="461" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -16252,7 +16278,7 @@
       <c r="Y461" s="4"/>
       <c r="Z461" s="4"/>
     </row>
-    <row r="462" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -16280,7 +16306,7 @@
       <c r="Y462" s="4"/>
       <c r="Z462" s="4"/>
     </row>
-    <row r="463" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -16308,7 +16334,7 @@
       <c r="Y463" s="4"/>
       <c r="Z463" s="4"/>
     </row>
-    <row r="464" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -16336,7 +16362,7 @@
       <c r="Y464" s="4"/>
       <c r="Z464" s="4"/>
     </row>
-    <row r="465" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -16364,7 +16390,7 @@
       <c r="Y465" s="4"/>
       <c r="Z465" s="4"/>
     </row>
-    <row r="466" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -16392,7 +16418,7 @@
       <c r="Y466" s="4"/>
       <c r="Z466" s="4"/>
     </row>
-    <row r="467" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -16420,7 +16446,7 @@
       <c r="Y467" s="4"/>
       <c r="Z467" s="4"/>
     </row>
-    <row r="468" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -16448,7 +16474,7 @@
       <c r="Y468" s="4"/>
       <c r="Z468" s="4"/>
     </row>
-    <row r="469" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -16476,7 +16502,7 @@
       <c r="Y469" s="4"/>
       <c r="Z469" s="4"/>
     </row>
-    <row r="470" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -16504,7 +16530,7 @@
       <c r="Y470" s="4"/>
       <c r="Z470" s="4"/>
     </row>
-    <row r="471" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -16532,7 +16558,7 @@
       <c r="Y471" s="4"/>
       <c r="Z471" s="4"/>
     </row>
-    <row r="472" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -16560,7 +16586,7 @@
       <c r="Y472" s="4"/>
       <c r="Z472" s="4"/>
     </row>
-    <row r="473" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -16588,7 +16614,7 @@
       <c r="Y473" s="4"/>
       <c r="Z473" s="4"/>
     </row>
-    <row r="474" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -16616,7 +16642,7 @@
       <c r="Y474" s="4"/>
       <c r="Z474" s="4"/>
     </row>
-    <row r="475" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -16644,7 +16670,7 @@
       <c r="Y475" s="4"/>
       <c r="Z475" s="4"/>
     </row>
-    <row r="476" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -16672,7 +16698,7 @@
       <c r="Y476" s="4"/>
       <c r="Z476" s="4"/>
     </row>
-    <row r="477" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -16700,7 +16726,7 @@
       <c r="Y477" s="4"/>
       <c r="Z477" s="4"/>
     </row>
-    <row r="478" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -16728,7 +16754,7 @@
       <c r="Y478" s="4"/>
       <c r="Z478" s="4"/>
     </row>
-    <row r="479" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -16756,7 +16782,7 @@
       <c r="Y479" s="4"/>
       <c r="Z479" s="4"/>
     </row>
-    <row r="480" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -16784,7 +16810,7 @@
       <c r="Y480" s="4"/>
       <c r="Z480" s="4"/>
     </row>
-    <row r="481" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -16812,7 +16838,7 @@
       <c r="Y481" s="4"/>
       <c r="Z481" s="4"/>
     </row>
-    <row r="482" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -16840,7 +16866,7 @@
       <c r="Y482" s="4"/>
       <c r="Z482" s="4"/>
     </row>
-    <row r="483" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -16868,7 +16894,7 @@
       <c r="Y483" s="4"/>
       <c r="Z483" s="4"/>
     </row>
-    <row r="484" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -16896,7 +16922,7 @@
       <c r="Y484" s="4"/>
       <c r="Z484" s="4"/>
     </row>
-    <row r="485" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -16924,7 +16950,7 @@
       <c r="Y485" s="4"/>
       <c r="Z485" s="4"/>
     </row>
-    <row r="486" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -16952,7 +16978,7 @@
       <c r="Y486" s="4"/>
       <c r="Z486" s="4"/>
     </row>
-    <row r="487" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -16980,7 +17006,7 @@
       <c r="Y487" s="4"/>
       <c r="Z487" s="4"/>
     </row>
-    <row r="488" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -17008,7 +17034,7 @@
       <c r="Y488" s="4"/>
       <c r="Z488" s="4"/>
     </row>
-    <row r="489" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -17036,7 +17062,7 @@
       <c r="Y489" s="4"/>
       <c r="Z489" s="4"/>
     </row>
-    <row r="490" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -17064,7 +17090,7 @@
       <c r="Y490" s="4"/>
       <c r="Z490" s="4"/>
     </row>
-    <row r="491" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -17092,7 +17118,7 @@
       <c r="Y491" s="4"/>
       <c r="Z491" s="4"/>
     </row>
-    <row r="492" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -17120,7 +17146,7 @@
       <c r="Y492" s="4"/>
       <c r="Z492" s="4"/>
     </row>
-    <row r="493" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -17148,7 +17174,7 @@
       <c r="Y493" s="4"/>
       <c r="Z493" s="4"/>
     </row>
-    <row r="494" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -17176,7 +17202,7 @@
       <c r="Y494" s="4"/>
       <c r="Z494" s="4"/>
     </row>
-    <row r="495" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -17204,7 +17230,7 @@
       <c r="Y495" s="4"/>
       <c r="Z495" s="4"/>
     </row>
-    <row r="496" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -17232,7 +17258,7 @@
       <c r="Y496" s="4"/>
       <c r="Z496" s="4"/>
     </row>
-    <row r="497" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -17260,7 +17286,7 @@
       <c r="Y497" s="4"/>
       <c r="Z497" s="4"/>
     </row>
-    <row r="498" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -17288,7 +17314,7 @@
       <c r="Y498" s="4"/>
       <c r="Z498" s="4"/>
     </row>
-    <row r="499" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -17316,7 +17342,7 @@
       <c r="Y499" s="4"/>
       <c r="Z499" s="4"/>
     </row>
-    <row r="500" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -17344,7 +17370,7 @@
       <c r="Y500" s="4"/>
       <c r="Z500" s="4"/>
     </row>
-    <row r="501" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -17372,7 +17398,7 @@
       <c r="Y501" s="4"/>
       <c r="Z501" s="4"/>
     </row>
-    <row r="502" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -17400,7 +17426,7 @@
       <c r="Y502" s="4"/>
       <c r="Z502" s="4"/>
     </row>
-    <row r="503" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -17428,7 +17454,7 @@
       <c r="Y503" s="4"/>
       <c r="Z503" s="4"/>
     </row>
-    <row r="504" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -17456,7 +17482,7 @@
       <c r="Y504" s="4"/>
       <c r="Z504" s="4"/>
     </row>
-    <row r="505" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -17484,7 +17510,7 @@
       <c r="Y505" s="4"/>
       <c r="Z505" s="4"/>
     </row>
-    <row r="506" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -17512,7 +17538,7 @@
       <c r="Y506" s="4"/>
       <c r="Z506" s="4"/>
     </row>
-    <row r="507" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -17540,7 +17566,7 @@
       <c r="Y507" s="4"/>
       <c r="Z507" s="4"/>
     </row>
-    <row r="508" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -17568,7 +17594,7 @@
       <c r="Y508" s="4"/>
       <c r="Z508" s="4"/>
     </row>
-    <row r="509" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -17596,7 +17622,7 @@
       <c r="Y509" s="4"/>
       <c r="Z509" s="4"/>
     </row>
-    <row r="510" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -17624,7 +17650,7 @@
       <c r="Y510" s="4"/>
       <c r="Z510" s="4"/>
     </row>
-    <row r="511" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -17652,7 +17678,7 @@
       <c r="Y511" s="4"/>
       <c r="Z511" s="4"/>
     </row>
-    <row r="512" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -17680,7 +17706,7 @@
       <c r="Y512" s="4"/>
       <c r="Z512" s="4"/>
     </row>
-    <row r="513" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -17708,7 +17734,7 @@
       <c r="Y513" s="4"/>
       <c r="Z513" s="4"/>
     </row>
-    <row r="514" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -17736,7 +17762,7 @@
       <c r="Y514" s="4"/>
       <c r="Z514" s="4"/>
     </row>
-    <row r="515" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -17764,7 +17790,7 @@
       <c r="Y515" s="4"/>
       <c r="Z515" s="4"/>
     </row>
-    <row r="516" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -17792,7 +17818,7 @@
       <c r="Y516" s="4"/>
       <c r="Z516" s="4"/>
     </row>
-    <row r="517" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -17820,7 +17846,7 @@
       <c r="Y517" s="4"/>
       <c r="Z517" s="4"/>
     </row>
-    <row r="518" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -17848,7 +17874,7 @@
       <c r="Y518" s="4"/>
       <c r="Z518" s="4"/>
     </row>
-    <row r="519" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -17876,7 +17902,7 @@
       <c r="Y519" s="4"/>
       <c r="Z519" s="4"/>
     </row>
-    <row r="520" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -17904,7 +17930,7 @@
       <c r="Y520" s="4"/>
       <c r="Z520" s="4"/>
     </row>
-    <row r="521" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -17932,7 +17958,7 @@
       <c r="Y521" s="4"/>
       <c r="Z521" s="4"/>
     </row>
-    <row r="522" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -17960,7 +17986,7 @@
       <c r="Y522" s="4"/>
       <c r="Z522" s="4"/>
     </row>
-    <row r="523" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -17988,7 +18014,7 @@
       <c r="Y523" s="4"/>
       <c r="Z523" s="4"/>
     </row>
-    <row r="524" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -18016,7 +18042,7 @@
       <c r="Y524" s="4"/>
       <c r="Z524" s="4"/>
     </row>
-    <row r="525" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -18044,7 +18070,7 @@
       <c r="Y525" s="4"/>
       <c r="Z525" s="4"/>
     </row>
-    <row r="526" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -18072,7 +18098,7 @@
       <c r="Y526" s="4"/>
       <c r="Z526" s="4"/>
     </row>
-    <row r="527" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -18100,7 +18126,7 @@
       <c r="Y527" s="4"/>
       <c r="Z527" s="4"/>
     </row>
-    <row r="528" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -18128,7 +18154,7 @@
       <c r="Y528" s="4"/>
       <c r="Z528" s="4"/>
     </row>
-    <row r="529" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -18156,7 +18182,7 @@
       <c r="Y529" s="4"/>
       <c r="Z529" s="4"/>
     </row>
-    <row r="530" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -18184,7 +18210,7 @@
       <c r="Y530" s="4"/>
       <c r="Z530" s="4"/>
     </row>
-    <row r="531" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -18212,7 +18238,7 @@
       <c r="Y531" s="4"/>
       <c r="Z531" s="4"/>
     </row>
-    <row r="532" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -18240,7 +18266,7 @@
       <c r="Y532" s="4"/>
       <c r="Z532" s="4"/>
     </row>
-    <row r="533" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -18268,7 +18294,7 @@
       <c r="Y533" s="4"/>
       <c r="Z533" s="4"/>
     </row>
-    <row r="534" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -18296,7 +18322,7 @@
       <c r="Y534" s="4"/>
       <c r="Z534" s="4"/>
     </row>
-    <row r="535" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -18324,7 +18350,7 @@
       <c r="Y535" s="4"/>
       <c r="Z535" s="4"/>
     </row>
-    <row r="536" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -18352,7 +18378,7 @@
       <c r="Y536" s="4"/>
       <c r="Z536" s="4"/>
     </row>
-    <row r="537" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -18380,7 +18406,7 @@
       <c r="Y537" s="4"/>
       <c r="Z537" s="4"/>
     </row>
-    <row r="538" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -18408,7 +18434,7 @@
       <c r="Y538" s="4"/>
       <c r="Z538" s="4"/>
     </row>
-    <row r="539" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -18436,7 +18462,7 @@
       <c r="Y539" s="4"/>
       <c r="Z539" s="4"/>
     </row>
-    <row r="540" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -18464,7 +18490,7 @@
       <c r="Y540" s="4"/>
       <c r="Z540" s="4"/>
     </row>
-    <row r="541" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -18492,7 +18518,7 @@
       <c r="Y541" s="4"/>
       <c r="Z541" s="4"/>
     </row>
-    <row r="542" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -18520,7 +18546,7 @@
       <c r="Y542" s="4"/>
       <c r="Z542" s="4"/>
     </row>
-    <row r="543" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -18548,7 +18574,7 @@
       <c r="Y543" s="4"/>
       <c r="Z543" s="4"/>
     </row>
-    <row r="544" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -18576,7 +18602,7 @@
       <c r="Y544" s="4"/>
       <c r="Z544" s="4"/>
     </row>
-    <row r="545" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -18604,7 +18630,7 @@
       <c r="Y545" s="4"/>
       <c r="Z545" s="4"/>
     </row>
-    <row r="546" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -18632,7 +18658,7 @@
       <c r="Y546" s="4"/>
       <c r="Z546" s="4"/>
     </row>
-    <row r="547" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -18660,7 +18686,7 @@
       <c r="Y547" s="4"/>
       <c r="Z547" s="4"/>
     </row>
-    <row r="548" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -18688,7 +18714,7 @@
       <c r="Y548" s="4"/>
       <c r="Z548" s="4"/>
     </row>
-    <row r="549" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -18716,7 +18742,7 @@
       <c r="Y549" s="4"/>
       <c r="Z549" s="4"/>
     </row>
-    <row r="550" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -18744,7 +18770,7 @@
       <c r="Y550" s="4"/>
       <c r="Z550" s="4"/>
     </row>
-    <row r="551" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -18772,7 +18798,7 @@
       <c r="Y551" s="4"/>
       <c r="Z551" s="4"/>
     </row>
-    <row r="552" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -18800,7 +18826,7 @@
       <c r="Y552" s="4"/>
       <c r="Z552" s="4"/>
     </row>
-    <row r="553" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -18828,7 +18854,7 @@
       <c r="Y553" s="4"/>
       <c r="Z553" s="4"/>
     </row>
-    <row r="554" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -18856,7 +18882,7 @@
       <c r="Y554" s="4"/>
       <c r="Z554" s="4"/>
     </row>
-    <row r="555" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -18884,7 +18910,7 @@
       <c r="Y555" s="4"/>
       <c r="Z555" s="4"/>
     </row>
-    <row r="556" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -18912,7 +18938,7 @@
       <c r="Y556" s="4"/>
       <c r="Z556" s="4"/>
     </row>
-    <row r="557" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -18940,7 +18966,7 @@
       <c r="Y557" s="4"/>
       <c r="Z557" s="4"/>
     </row>
-    <row r="558" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -18968,7 +18994,7 @@
       <c r="Y558" s="4"/>
       <c r="Z558" s="4"/>
     </row>
-    <row r="559" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -18996,7 +19022,7 @@
       <c r="Y559" s="4"/>
       <c r="Z559" s="4"/>
     </row>
-    <row r="560" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -19024,7 +19050,7 @@
       <c r="Y560" s="4"/>
       <c r="Z560" s="4"/>
     </row>
-    <row r="561" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -19052,7 +19078,7 @@
       <c r="Y561" s="4"/>
       <c r="Z561" s="4"/>
     </row>
-    <row r="562" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -19080,7 +19106,7 @@
       <c r="Y562" s="4"/>
       <c r="Z562" s="4"/>
     </row>
-    <row r="563" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -19108,7 +19134,7 @@
       <c r="Y563" s="4"/>
       <c r="Z563" s="4"/>
     </row>
-    <row r="564" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -19136,7 +19162,7 @@
       <c r="Y564" s="4"/>
       <c r="Z564" s="4"/>
     </row>
-    <row r="565" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -19164,7 +19190,7 @@
       <c r="Y565" s="4"/>
       <c r="Z565" s="4"/>
     </row>
-    <row r="566" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -19192,7 +19218,7 @@
       <c r="Y566" s="4"/>
       <c r="Z566" s="4"/>
     </row>
-    <row r="567" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -19220,7 +19246,7 @@
       <c r="Y567" s="4"/>
       <c r="Z567" s="4"/>
     </row>
-    <row r="568" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -19248,7 +19274,7 @@
       <c r="Y568" s="4"/>
       <c r="Z568" s="4"/>
     </row>
-    <row r="569" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -19276,7 +19302,7 @@
       <c r="Y569" s="4"/>
       <c r="Z569" s="4"/>
     </row>
-    <row r="570" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -19304,7 +19330,7 @@
       <c r="Y570" s="4"/>
       <c r="Z570" s="4"/>
     </row>
-    <row r="571" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -19332,7 +19358,7 @@
       <c r="Y571" s="4"/>
       <c r="Z571" s="4"/>
     </row>
-    <row r="572" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -19360,7 +19386,7 @@
       <c r="Y572" s="4"/>
       <c r="Z572" s="4"/>
     </row>
-    <row r="573" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -19388,7 +19414,7 @@
       <c r="Y573" s="4"/>
       <c r="Z573" s="4"/>
     </row>
-    <row r="574" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -19416,7 +19442,7 @@
       <c r="Y574" s="4"/>
       <c r="Z574" s="4"/>
     </row>
-    <row r="575" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -19444,7 +19470,7 @@
       <c r="Y575" s="4"/>
       <c r="Z575" s="4"/>
     </row>
-    <row r="576" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -19472,7 +19498,7 @@
       <c r="Y576" s="4"/>
       <c r="Z576" s="4"/>
     </row>
-    <row r="577" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -19500,7 +19526,7 @@
       <c r="Y577" s="4"/>
       <c r="Z577" s="4"/>
     </row>
-    <row r="578" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -19528,7 +19554,7 @@
       <c r="Y578" s="4"/>
       <c r="Z578" s="4"/>
     </row>
-    <row r="579" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -19556,7 +19582,7 @@
       <c r="Y579" s="4"/>
       <c r="Z579" s="4"/>
     </row>
-    <row r="580" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -19584,7 +19610,7 @@
       <c r="Y580" s="4"/>
       <c r="Z580" s="4"/>
     </row>
-    <row r="581" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -19612,7 +19638,7 @@
       <c r="Y581" s="4"/>
       <c r="Z581" s="4"/>
     </row>
-    <row r="582" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -19640,7 +19666,7 @@
       <c r="Y582" s="4"/>
       <c r="Z582" s="4"/>
     </row>
-    <row r="583" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -19668,7 +19694,7 @@
       <c r="Y583" s="4"/>
       <c r="Z583" s="4"/>
     </row>
-    <row r="584" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -19696,7 +19722,7 @@
       <c r="Y584" s="4"/>
       <c r="Z584" s="4"/>
     </row>
-    <row r="585" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -19724,7 +19750,7 @@
       <c r="Y585" s="4"/>
       <c r="Z585" s="4"/>
     </row>
-    <row r="586" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -19752,7 +19778,7 @@
       <c r="Y586" s="4"/>
       <c r="Z586" s="4"/>
     </row>
-    <row r="587" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -19780,7 +19806,7 @@
       <c r="Y587" s="4"/>
       <c r="Z587" s="4"/>
     </row>
-    <row r="588" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -19808,7 +19834,7 @@
       <c r="Y588" s="4"/>
       <c r="Z588" s="4"/>
     </row>
-    <row r="589" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -19836,7 +19862,7 @@
       <c r="Y589" s="4"/>
       <c r="Z589" s="4"/>
     </row>
-    <row r="590" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -19864,7 +19890,7 @@
       <c r="Y590" s="4"/>
       <c r="Z590" s="4"/>
     </row>
-    <row r="591" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -19892,7 +19918,7 @@
       <c r="Y591" s="4"/>
       <c r="Z591" s="4"/>
     </row>
-    <row r="592" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -19920,7 +19946,7 @@
       <c r="Y592" s="4"/>
       <c r="Z592" s="4"/>
     </row>
-    <row r="593" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -19948,7 +19974,7 @@
       <c r="Y593" s="4"/>
       <c r="Z593" s="4"/>
     </row>
-    <row r="594" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -19976,7 +20002,7 @@
       <c r="Y594" s="4"/>
       <c r="Z594" s="4"/>
     </row>
-    <row r="595" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -20004,7 +20030,7 @@
       <c r="Y595" s="4"/>
       <c r="Z595" s="4"/>
     </row>
-    <row r="596" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -20032,7 +20058,7 @@
       <c r="Y596" s="4"/>
       <c r="Z596" s="4"/>
     </row>
-    <row r="597" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -20060,7 +20086,7 @@
       <c r="Y597" s="4"/>
       <c r="Z597" s="4"/>
     </row>
-    <row r="598" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -20088,7 +20114,7 @@
       <c r="Y598" s="4"/>
       <c r="Z598" s="4"/>
     </row>
-    <row r="599" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -20116,7 +20142,7 @@
       <c r="Y599" s="4"/>
       <c r="Z599" s="4"/>
     </row>
-    <row r="600" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -20144,7 +20170,7 @@
       <c r="Y600" s="4"/>
       <c r="Z600" s="4"/>
     </row>
-    <row r="601" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -20172,7 +20198,7 @@
       <c r="Y601" s="4"/>
       <c r="Z601" s="4"/>
     </row>
-    <row r="602" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -20200,7 +20226,7 @@
       <c r="Y602" s="4"/>
       <c r="Z602" s="4"/>
     </row>
-    <row r="603" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -20228,7 +20254,7 @@
       <c r="Y603" s="4"/>
       <c r="Z603" s="4"/>
     </row>
-    <row r="604" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -20256,7 +20282,7 @@
       <c r="Y604" s="4"/>
       <c r="Z604" s="4"/>
     </row>
-    <row r="605" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -20284,7 +20310,7 @@
       <c r="Y605" s="4"/>
       <c r="Z605" s="4"/>
     </row>
-    <row r="606" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -20312,7 +20338,7 @@
       <c r="Y606" s="4"/>
       <c r="Z606" s="4"/>
     </row>
-    <row r="607" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -20340,7 +20366,7 @@
       <c r="Y607" s="4"/>
       <c r="Z607" s="4"/>
     </row>
-    <row r="608" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -20368,7 +20394,7 @@
       <c r="Y608" s="4"/>
       <c r="Z608" s="4"/>
     </row>
-    <row r="609" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -20396,7 +20422,7 @@
       <c r="Y609" s="4"/>
       <c r="Z609" s="4"/>
     </row>
-    <row r="610" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -20424,7 +20450,7 @@
       <c r="Y610" s="4"/>
       <c r="Z610" s="4"/>
     </row>
-    <row r="611" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -20452,7 +20478,7 @@
       <c r="Y611" s="4"/>
       <c r="Z611" s="4"/>
     </row>
-    <row r="612" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -20480,7 +20506,7 @@
       <c r="Y612" s="4"/>
       <c r="Z612" s="4"/>
     </row>
-    <row r="613" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -20508,7 +20534,7 @@
       <c r="Y613" s="4"/>
       <c r="Z613" s="4"/>
     </row>
-    <row r="614" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -20536,7 +20562,7 @@
       <c r="Y614" s="4"/>
       <c r="Z614" s="4"/>
     </row>
-    <row r="615" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -20564,7 +20590,7 @@
       <c r="Y615" s="4"/>
       <c r="Z615" s="4"/>
     </row>
-    <row r="616" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -20592,7 +20618,7 @@
       <c r="Y616" s="4"/>
       <c r="Z616" s="4"/>
     </row>
-    <row r="617" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -20620,7 +20646,7 @@
       <c r="Y617" s="4"/>
       <c r="Z617" s="4"/>
     </row>
-    <row r="618" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -20648,7 +20674,7 @@
       <c r="Y618" s="4"/>
       <c r="Z618" s="4"/>
     </row>
-    <row r="619" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -20676,7 +20702,7 @@
       <c r="Y619" s="4"/>
       <c r="Z619" s="4"/>
     </row>
-    <row r="620" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -20704,7 +20730,7 @@
       <c r="Y620" s="4"/>
       <c r="Z620" s="4"/>
     </row>
-    <row r="621" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -20732,7 +20758,7 @@
       <c r="Y621" s="4"/>
       <c r="Z621" s="4"/>
     </row>
-    <row r="622" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -20760,7 +20786,7 @@
       <c r="Y622" s="4"/>
       <c r="Z622" s="4"/>
     </row>
-    <row r="623" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -20788,7 +20814,7 @@
       <c r="Y623" s="4"/>
       <c r="Z623" s="4"/>
     </row>
-    <row r="624" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -20816,7 +20842,7 @@
       <c r="Y624" s="4"/>
       <c r="Z624" s="4"/>
     </row>
-    <row r="625" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -20844,7 +20870,7 @@
       <c r="Y625" s="4"/>
       <c r="Z625" s="4"/>
     </row>
-    <row r="626" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -20872,7 +20898,7 @@
       <c r="Y626" s="4"/>
       <c r="Z626" s="4"/>
     </row>
-    <row r="627" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -20900,7 +20926,7 @@
       <c r="Y627" s="4"/>
       <c r="Z627" s="4"/>
     </row>
-    <row r="628" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -20928,7 +20954,7 @@
       <c r="Y628" s="4"/>
       <c r="Z628" s="4"/>
     </row>
-    <row r="629" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -20956,7 +20982,7 @@
       <c r="Y629" s="4"/>
       <c r="Z629" s="4"/>
     </row>
-    <row r="630" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -20984,7 +21010,7 @@
       <c r="Y630" s="4"/>
       <c r="Z630" s="4"/>
     </row>
-    <row r="631" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -21012,7 +21038,7 @@
       <c r="Y631" s="4"/>
       <c r="Z631" s="4"/>
     </row>
-    <row r="632" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -21040,7 +21066,7 @@
       <c r="Y632" s="4"/>
       <c r="Z632" s="4"/>
     </row>
-    <row r="633" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -21068,7 +21094,7 @@
       <c r="Y633" s="4"/>
       <c r="Z633" s="4"/>
     </row>
-    <row r="634" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -21096,7 +21122,7 @@
       <c r="Y634" s="4"/>
       <c r="Z634" s="4"/>
     </row>
-    <row r="635" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -21124,7 +21150,7 @@
       <c r="Y635" s="4"/>
       <c r="Z635" s="4"/>
     </row>
-    <row r="636" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -21152,7 +21178,7 @@
       <c r="Y636" s="4"/>
       <c r="Z636" s="4"/>
     </row>
-    <row r="637" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -21180,7 +21206,7 @@
       <c r="Y637" s="4"/>
       <c r="Z637" s="4"/>
     </row>
-    <row r="638" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -21208,7 +21234,7 @@
       <c r="Y638" s="4"/>
       <c r="Z638" s="4"/>
     </row>
-    <row r="639" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -21236,7 +21262,7 @@
       <c r="Y639" s="4"/>
       <c r="Z639" s="4"/>
     </row>
-    <row r="640" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -21264,7 +21290,7 @@
       <c r="Y640" s="4"/>
       <c r="Z640" s="4"/>
     </row>
-    <row r="641" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -21292,7 +21318,7 @@
       <c r="Y641" s="4"/>
       <c r="Z641" s="4"/>
     </row>
-    <row r="642" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -21320,7 +21346,7 @@
       <c r="Y642" s="4"/>
       <c r="Z642" s="4"/>
     </row>
-    <row r="643" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -21348,7 +21374,7 @@
       <c r="Y643" s="4"/>
       <c r="Z643" s="4"/>
     </row>
-    <row r="644" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -21376,7 +21402,7 @@
       <c r="Y644" s="4"/>
       <c r="Z644" s="4"/>
     </row>
-    <row r="645" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -21404,7 +21430,7 @@
       <c r="Y645" s="4"/>
       <c r="Z645" s="4"/>
     </row>
-    <row r="646" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -21432,7 +21458,7 @@
       <c r="Y646" s="4"/>
       <c r="Z646" s="4"/>
     </row>
-    <row r="647" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -21460,7 +21486,7 @@
       <c r="Y647" s="4"/>
       <c r="Z647" s="4"/>
     </row>
-    <row r="648" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -21488,7 +21514,7 @@
       <c r="Y648" s="4"/>
       <c r="Z648" s="4"/>
     </row>
-    <row r="649" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -21516,7 +21542,7 @@
       <c r="Y649" s="4"/>
       <c r="Z649" s="4"/>
     </row>
-    <row r="650" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -21544,7 +21570,7 @@
       <c r="Y650" s="4"/>
       <c r="Z650" s="4"/>
     </row>
-    <row r="651" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -21572,7 +21598,7 @@
       <c r="Y651" s="4"/>
       <c r="Z651" s="4"/>
     </row>
-    <row r="652" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -21600,7 +21626,7 @@
       <c r="Y652" s="4"/>
       <c r="Z652" s="4"/>
     </row>
-    <row r="653" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -21628,7 +21654,7 @@
       <c r="Y653" s="4"/>
       <c r="Z653" s="4"/>
     </row>
-    <row r="654" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -21656,7 +21682,7 @@
       <c r="Y654" s="4"/>
       <c r="Z654" s="4"/>
     </row>
-    <row r="655" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -21684,7 +21710,7 @@
       <c r="Y655" s="4"/>
       <c r="Z655" s="4"/>
     </row>
-    <row r="656" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -21712,7 +21738,7 @@
       <c r="Y656" s="4"/>
       <c r="Z656" s="4"/>
     </row>
-    <row r="657" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -21740,7 +21766,7 @@
       <c r="Y657" s="4"/>
       <c r="Z657" s="4"/>
     </row>
-    <row r="658" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -21768,7 +21794,7 @@
       <c r="Y658" s="4"/>
       <c r="Z658" s="4"/>
     </row>
-    <row r="659" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -21796,7 +21822,7 @@
       <c r="Y659" s="4"/>
       <c r="Z659" s="4"/>
     </row>
-    <row r="660" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -21824,7 +21850,7 @@
       <c r="Y660" s="4"/>
       <c r="Z660" s="4"/>
     </row>
-    <row r="661" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -21852,7 +21878,7 @@
       <c r="Y661" s="4"/>
       <c r="Z661" s="4"/>
     </row>
-    <row r="662" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -21880,7 +21906,7 @@
       <c r="Y662" s="4"/>
       <c r="Z662" s="4"/>
     </row>
-    <row r="663" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -21908,7 +21934,7 @@
       <c r="Y663" s="4"/>
       <c r="Z663" s="4"/>
     </row>
-    <row r="664" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -21936,7 +21962,7 @@
       <c r="Y664" s="4"/>
       <c r="Z664" s="4"/>
     </row>
-    <row r="665" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -21964,7 +21990,7 @@
       <c r="Y665" s="4"/>
       <c r="Z665" s="4"/>
     </row>
-    <row r="666" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -21992,7 +22018,7 @@
       <c r="Y666" s="4"/>
       <c r="Z666" s="4"/>
     </row>
-    <row r="667" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -22020,7 +22046,7 @@
       <c r="Y667" s="4"/>
       <c r="Z667" s="4"/>
     </row>
-    <row r="668" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -22048,7 +22074,7 @@
       <c r="Y668" s="4"/>
       <c r="Z668" s="4"/>
     </row>
-    <row r="669" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -22076,7 +22102,7 @@
       <c r="Y669" s="4"/>
       <c r="Z669" s="4"/>
     </row>
-    <row r="670" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -22104,7 +22130,7 @@
       <c r="Y670" s="4"/>
       <c r="Z670" s="4"/>
     </row>
-    <row r="671" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -22132,7 +22158,7 @@
       <c r="Y671" s="4"/>
       <c r="Z671" s="4"/>
     </row>
-    <row r="672" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -22160,7 +22186,7 @@
       <c r="Y672" s="4"/>
       <c r="Z672" s="4"/>
     </row>
-    <row r="673" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -22188,7 +22214,7 @@
       <c r="Y673" s="4"/>
       <c r="Z673" s="4"/>
     </row>
-    <row r="674" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -22216,7 +22242,7 @@
       <c r="Y674" s="4"/>
       <c r="Z674" s="4"/>
     </row>
-    <row r="675" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -22244,7 +22270,7 @@
       <c r="Y675" s="4"/>
       <c r="Z675" s="4"/>
     </row>
-    <row r="676" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -22272,7 +22298,7 @@
       <c r="Y676" s="4"/>
       <c r="Z676" s="4"/>
     </row>
-    <row r="677" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -22300,7 +22326,7 @@
       <c r="Y677" s="4"/>
       <c r="Z677" s="4"/>
     </row>
-    <row r="678" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -22328,7 +22354,7 @@
       <c r="Y678" s="4"/>
       <c r="Z678" s="4"/>
     </row>
-    <row r="679" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -22356,7 +22382,7 @@
       <c r="Y679" s="4"/>
       <c r="Z679" s="4"/>
     </row>
-    <row r="680" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -22384,7 +22410,7 @@
       <c r="Y680" s="4"/>
       <c r="Z680" s="4"/>
     </row>
-    <row r="681" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -22412,7 +22438,7 @@
       <c r="Y681" s="4"/>
       <c r="Z681" s="4"/>
     </row>
-    <row r="682" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -22440,7 +22466,7 @@
       <c r="Y682" s="4"/>
       <c r="Z682" s="4"/>
     </row>
-    <row r="683" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -22468,7 +22494,7 @@
       <c r="Y683" s="4"/>
       <c r="Z683" s="4"/>
     </row>
-    <row r="684" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -22496,7 +22522,7 @@
       <c r="Y684" s="4"/>
       <c r="Z684" s="4"/>
     </row>
-    <row r="685" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -22524,7 +22550,7 @@
       <c r="Y685" s="4"/>
       <c r="Z685" s="4"/>
     </row>
-    <row r="686" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -22552,7 +22578,7 @@
       <c r="Y686" s="4"/>
       <c r="Z686" s="4"/>
     </row>
-    <row r="687" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -22580,7 +22606,7 @@
       <c r="Y687" s="4"/>
       <c r="Z687" s="4"/>
     </row>
-    <row r="688" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -22608,7 +22634,7 @@
       <c r="Y688" s="4"/>
       <c r="Z688" s="4"/>
     </row>
-    <row r="689" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -22636,7 +22662,7 @@
       <c r="Y689" s="4"/>
       <c r="Z689" s="4"/>
     </row>
-    <row r="690" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -22664,7 +22690,7 @@
       <c r="Y690" s="4"/>
       <c r="Z690" s="4"/>
     </row>
-    <row r="691" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -22692,7 +22718,7 @@
       <c r="Y691" s="4"/>
       <c r="Z691" s="4"/>
     </row>
-    <row r="692" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -22720,7 +22746,7 @@
       <c r="Y692" s="4"/>
       <c r="Z692" s="4"/>
     </row>
-    <row r="693" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -22748,7 +22774,7 @@
       <c r="Y693" s="4"/>
       <c r="Z693" s="4"/>
     </row>
-    <row r="694" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -22776,7 +22802,7 @@
       <c r="Y694" s="4"/>
       <c r="Z694" s="4"/>
     </row>
-    <row r="695" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -22804,7 +22830,7 @@
       <c r="Y695" s="4"/>
       <c r="Z695" s="4"/>
     </row>
-    <row r="696" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -22832,7 +22858,7 @@
       <c r="Y696" s="4"/>
       <c r="Z696" s="4"/>
     </row>
-    <row r="697" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -22860,7 +22886,7 @@
       <c r="Y697" s="4"/>
       <c r="Z697" s="4"/>
     </row>
-    <row r="698" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -22888,7 +22914,7 @@
       <c r="Y698" s="4"/>
       <c r="Z698" s="4"/>
     </row>
-    <row r="699" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -22916,7 +22942,7 @@
       <c r="Y699" s="4"/>
       <c r="Z699" s="4"/>
     </row>
-    <row r="700" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -22944,7 +22970,7 @@
       <c r="Y700" s="4"/>
       <c r="Z700" s="4"/>
     </row>
-    <row r="701" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -22972,7 +22998,7 @@
       <c r="Y701" s="4"/>
       <c r="Z701" s="4"/>
     </row>
-    <row r="702" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -23000,7 +23026,7 @@
       <c r="Y702" s="4"/>
       <c r="Z702" s="4"/>
     </row>
-    <row r="703" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -23028,7 +23054,7 @@
       <c r="Y703" s="4"/>
       <c r="Z703" s="4"/>
     </row>
-    <row r="704" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -23056,7 +23082,7 @@
       <c r="Y704" s="4"/>
       <c r="Z704" s="4"/>
     </row>
-    <row r="705" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -23084,7 +23110,7 @@
       <c r="Y705" s="4"/>
       <c r="Z705" s="4"/>
     </row>
-    <row r="706" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -23112,7 +23138,7 @@
       <c r="Y706" s="4"/>
       <c r="Z706" s="4"/>
     </row>
-    <row r="707" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -23140,7 +23166,7 @@
       <c r="Y707" s="4"/>
       <c r="Z707" s="4"/>
     </row>
-    <row r="708" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -23168,7 +23194,7 @@
       <c r="Y708" s="4"/>
       <c r="Z708" s="4"/>
     </row>
-    <row r="709" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -23196,7 +23222,7 @@
       <c r="Y709" s="4"/>
       <c r="Z709" s="4"/>
     </row>
-    <row r="710" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -23224,7 +23250,7 @@
       <c r="Y710" s="4"/>
       <c r="Z710" s="4"/>
     </row>
-    <row r="711" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -23252,7 +23278,7 @@
       <c r="Y711" s="4"/>
       <c r="Z711" s="4"/>
     </row>
-    <row r="712" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -23280,7 +23306,7 @@
       <c r="Y712" s="4"/>
       <c r="Z712" s="4"/>
     </row>
-    <row r="713" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -23308,7 +23334,7 @@
       <c r="Y713" s="4"/>
       <c r="Z713" s="4"/>
     </row>
-    <row r="714" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -23336,7 +23362,7 @@
       <c r="Y714" s="4"/>
       <c r="Z714" s="4"/>
     </row>
-    <row r="715" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -23364,7 +23390,7 @@
       <c r="Y715" s="4"/>
       <c r="Z715" s="4"/>
     </row>
-    <row r="716" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -23392,7 +23418,7 @@
       <c r="Y716" s="4"/>
       <c r="Z716" s="4"/>
     </row>
-    <row r="717" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -23420,7 +23446,7 @@
       <c r="Y717" s="4"/>
       <c r="Z717" s="4"/>
     </row>
-    <row r="718" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -23448,7 +23474,7 @@
       <c r="Y718" s="4"/>
       <c r="Z718" s="4"/>
     </row>
-    <row r="719" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -23476,7 +23502,7 @@
       <c r="Y719" s="4"/>
       <c r="Z719" s="4"/>
     </row>
-    <row r="720" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -23504,7 +23530,7 @@
       <c r="Y720" s="4"/>
       <c r="Z720" s="4"/>
     </row>
-    <row r="721" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -23532,7 +23558,7 @@
       <c r="Y721" s="4"/>
       <c r="Z721" s="4"/>
     </row>
-    <row r="722" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -23560,7 +23586,7 @@
       <c r="Y722" s="4"/>
       <c r="Z722" s="4"/>
     </row>
-    <row r="723" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -23588,7 +23614,7 @@
       <c r="Y723" s="4"/>
       <c r="Z723" s="4"/>
     </row>
-    <row r="724" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -23616,7 +23642,7 @@
       <c r="Y724" s="4"/>
       <c r="Z724" s="4"/>
     </row>
-    <row r="725" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -23644,7 +23670,7 @@
       <c r="Y725" s="4"/>
       <c r="Z725" s="4"/>
     </row>
-    <row r="726" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -23672,7 +23698,7 @@
       <c r="Y726" s="4"/>
       <c r="Z726" s="4"/>
     </row>
-    <row r="727" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -23700,7 +23726,7 @@
       <c r="Y727" s="4"/>
       <c r="Z727" s="4"/>
     </row>
-    <row r="728" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -23728,7 +23754,7 @@
       <c r="Y728" s="4"/>
       <c r="Z728" s="4"/>
     </row>
-    <row r="729" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -23756,7 +23782,7 @@
       <c r="Y729" s="4"/>
       <c r="Z729" s="4"/>
     </row>
-    <row r="730" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -23784,7 +23810,7 @@
       <c r="Y730" s="4"/>
       <c r="Z730" s="4"/>
     </row>
-    <row r="731" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -23812,7 +23838,7 @@
       <c r="Y731" s="4"/>
       <c r="Z731" s="4"/>
     </row>
-    <row r="732" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -23840,7 +23866,7 @@
       <c r="Y732" s="4"/>
       <c r="Z732" s="4"/>
     </row>
-    <row r="733" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -23868,7 +23894,7 @@
       <c r="Y733" s="4"/>
       <c r="Z733" s="4"/>
     </row>
-    <row r="734" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -23896,7 +23922,7 @@
       <c r="Y734" s="4"/>
       <c r="Z734" s="4"/>
     </row>
-    <row r="735" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -23924,7 +23950,7 @@
       <c r="Y735" s="4"/>
       <c r="Z735" s="4"/>
     </row>
-    <row r="736" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -23952,7 +23978,7 @@
       <c r="Y736" s="4"/>
       <c r="Z736" s="4"/>
     </row>
-    <row r="737" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -23980,7 +24006,7 @@
       <c r="Y737" s="4"/>
       <c r="Z737" s="4"/>
     </row>
-    <row r="738" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -24008,7 +24034,7 @@
       <c r="Y738" s="4"/>
       <c r="Z738" s="4"/>
     </row>
-    <row r="739" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -24036,7 +24062,7 @@
       <c r="Y739" s="4"/>
       <c r="Z739" s="4"/>
     </row>
-    <row r="740" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -24064,7 +24090,7 @@
       <c r="Y740" s="4"/>
       <c r="Z740" s="4"/>
     </row>
-    <row r="741" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -24092,7 +24118,7 @@
       <c r="Y741" s="4"/>
       <c r="Z741" s="4"/>
     </row>
-    <row r="742" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -24120,7 +24146,7 @@
       <c r="Y742" s="4"/>
       <c r="Z742" s="4"/>
     </row>
-    <row r="743" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -24148,7 +24174,7 @@
       <c r="Y743" s="4"/>
       <c r="Z743" s="4"/>
     </row>
-    <row r="744" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -24176,7 +24202,7 @@
       <c r="Y744" s="4"/>
       <c r="Z744" s="4"/>
     </row>
-    <row r="745" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -24204,7 +24230,7 @@
       <c r="Y745" s="4"/>
       <c r="Z745" s="4"/>
     </row>
-    <row r="746" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -24232,7 +24258,7 @@
       <c r="Y746" s="4"/>
       <c r="Z746" s="4"/>
     </row>
-    <row r="747" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -24260,7 +24286,7 @@
       <c r="Y747" s="4"/>
       <c r="Z747" s="4"/>
     </row>
-    <row r="748" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -24288,7 +24314,7 @@
       <c r="Y748" s="4"/>
       <c r="Z748" s="4"/>
     </row>
-    <row r="749" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -24316,7 +24342,7 @@
       <c r="Y749" s="4"/>
       <c r="Z749" s="4"/>
     </row>
-    <row r="750" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -24344,7 +24370,7 @@
       <c r="Y750" s="4"/>
       <c r="Z750" s="4"/>
     </row>
-    <row r="751" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -24372,7 +24398,7 @@
       <c r="Y751" s="4"/>
       <c r="Z751" s="4"/>
     </row>
-    <row r="752" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -24400,7 +24426,7 @@
       <c r="Y752" s="4"/>
       <c r="Z752" s="4"/>
     </row>
-    <row r="753" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -24428,7 +24454,7 @@
       <c r="Y753" s="4"/>
       <c r="Z753" s="4"/>
     </row>
-    <row r="754" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -24456,7 +24482,7 @@
       <c r="Y754" s="4"/>
       <c r="Z754" s="4"/>
     </row>
-    <row r="755" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -24484,7 +24510,7 @@
       <c r="Y755" s="4"/>
       <c r="Z755" s="4"/>
     </row>
-    <row r="756" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -24512,7 +24538,7 @@
       <c r="Y756" s="4"/>
       <c r="Z756" s="4"/>
     </row>
-    <row r="757" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -24540,7 +24566,7 @@
       <c r="Y757" s="4"/>
       <c r="Z757" s="4"/>
     </row>
-    <row r="758" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -24568,7 +24594,7 @@
       <c r="Y758" s="4"/>
       <c r="Z758" s="4"/>
     </row>
-    <row r="759" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -24596,7 +24622,7 @@
       <c r="Y759" s="4"/>
       <c r="Z759" s="4"/>
     </row>
-    <row r="760" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -24624,7 +24650,7 @@
       <c r="Y760" s="4"/>
       <c r="Z760" s="4"/>
     </row>
-    <row r="761" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -24652,7 +24678,7 @@
       <c r="Y761" s="4"/>
       <c r="Z761" s="4"/>
     </row>
-    <row r="762" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -24680,7 +24706,7 @@
       <c r="Y762" s="4"/>
       <c r="Z762" s="4"/>
     </row>
-    <row r="763" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -24708,7 +24734,7 @@
       <c r="Y763" s="4"/>
       <c r="Z763" s="4"/>
     </row>
-    <row r="764" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -24736,7 +24762,7 @@
       <c r="Y764" s="4"/>
       <c r="Z764" s="4"/>
     </row>
-    <row r="765" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -24764,7 +24790,7 @@
       <c r="Y765" s="4"/>
       <c r="Z765" s="4"/>
     </row>
-    <row r="766" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -24792,7 +24818,7 @@
       <c r="Y766" s="4"/>
       <c r="Z766" s="4"/>
     </row>
-    <row r="767" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -24820,7 +24846,7 @@
       <c r="Y767" s="4"/>
       <c r="Z767" s="4"/>
     </row>
-    <row r="768" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -24848,7 +24874,7 @@
       <c r="Y768" s="4"/>
       <c r="Z768" s="4"/>
     </row>
-    <row r="769" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -24876,7 +24902,7 @@
       <c r="Y769" s="4"/>
       <c r="Z769" s="4"/>
     </row>
-    <row r="770" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -24904,7 +24930,7 @@
       <c r="Y770" s="4"/>
       <c r="Z770" s="4"/>
     </row>
-    <row r="771" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -24932,7 +24958,7 @@
       <c r="Y771" s="4"/>
       <c r="Z771" s="4"/>
     </row>
-    <row r="772" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -24960,7 +24986,7 @@
       <c r="Y772" s="4"/>
       <c r="Z772" s="4"/>
     </row>
-    <row r="773" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -24988,7 +25014,7 @@
       <c r="Y773" s="4"/>
       <c r="Z773" s="4"/>
     </row>
-    <row r="774" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -25016,7 +25042,7 @@
       <c r="Y774" s="4"/>
       <c r="Z774" s="4"/>
     </row>
-    <row r="775" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -25044,7 +25070,7 @@
       <c r="Y775" s="4"/>
       <c r="Z775" s="4"/>
     </row>
-    <row r="776" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -25072,7 +25098,7 @@
       <c r="Y776" s="4"/>
       <c r="Z776" s="4"/>
     </row>
-    <row r="777" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -25100,7 +25126,7 @@
       <c r="Y777" s="4"/>
       <c r="Z777" s="4"/>
     </row>
-    <row r="778" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -25128,7 +25154,7 @@
       <c r="Y778" s="4"/>
       <c r="Z778" s="4"/>
     </row>
-    <row r="779" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -25156,7 +25182,7 @@
       <c r="Y779" s="4"/>
       <c r="Z779" s="4"/>
     </row>
-    <row r="780" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -25184,7 +25210,7 @@
       <c r="Y780" s="4"/>
       <c r="Z780" s="4"/>
     </row>
-    <row r="781" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -25212,7 +25238,7 @@
       <c r="Y781" s="4"/>
       <c r="Z781" s="4"/>
     </row>
-    <row r="782" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -25240,7 +25266,7 @@
       <c r="Y782" s="4"/>
       <c r="Z782" s="4"/>
     </row>
-    <row r="783" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -25268,7 +25294,7 @@
       <c r="Y783" s="4"/>
       <c r="Z783" s="4"/>
     </row>
-    <row r="784" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -25296,7 +25322,7 @@
       <c r="Y784" s="4"/>
       <c r="Z784" s="4"/>
     </row>
-    <row r="785" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -25324,7 +25350,7 @@
       <c r="Y785" s="4"/>
       <c r="Z785" s="4"/>
     </row>
-    <row r="786" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -25352,7 +25378,7 @@
       <c r="Y786" s="4"/>
       <c r="Z786" s="4"/>
     </row>
-    <row r="787" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -25380,7 +25406,7 @@
       <c r="Y787" s="4"/>
       <c r="Z787" s="4"/>
     </row>
-    <row r="788" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -25408,7 +25434,7 @@
       <c r="Y788" s="4"/>
       <c r="Z788" s="4"/>
     </row>
-    <row r="789" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -25436,7 +25462,7 @@
       <c r="Y789" s="4"/>
       <c r="Z789" s="4"/>
     </row>
-    <row r="790" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -25464,7 +25490,7 @@
       <c r="Y790" s="4"/>
       <c r="Z790" s="4"/>
     </row>
-    <row r="791" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -25492,7 +25518,7 @@
       <c r="Y791" s="4"/>
       <c r="Z791" s="4"/>
     </row>
-    <row r="792" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -25520,7 +25546,7 @@
       <c r="Y792" s="4"/>
       <c r="Z792" s="4"/>
     </row>
-    <row r="793" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -25548,7 +25574,7 @@
       <c r="Y793" s="4"/>
       <c r="Z793" s="4"/>
     </row>
-    <row r="794" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -25576,7 +25602,7 @@
       <c r="Y794" s="4"/>
       <c r="Z794" s="4"/>
     </row>
-    <row r="795" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -25604,7 +25630,7 @@
       <c r="Y795" s="4"/>
       <c r="Z795" s="4"/>
     </row>
-    <row r="796" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -25632,7 +25658,7 @@
       <c r="Y796" s="4"/>
       <c r="Z796" s="4"/>
     </row>
-    <row r="797" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -25660,7 +25686,7 @@
       <c r="Y797" s="4"/>
       <c r="Z797" s="4"/>
     </row>
-    <row r="798" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -25688,7 +25714,7 @@
       <c r="Y798" s="4"/>
       <c r="Z798" s="4"/>
     </row>
-    <row r="799" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -25716,7 +25742,7 @@
       <c r="Y799" s="4"/>
       <c r="Z799" s="4"/>
     </row>
-    <row r="800" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -25744,7 +25770,7 @@
       <c r="Y800" s="4"/>
       <c r="Z800" s="4"/>
     </row>
-    <row r="801" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -25772,7 +25798,7 @@
       <c r="Y801" s="4"/>
       <c r="Z801" s="4"/>
     </row>
-    <row r="802" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -25800,7 +25826,7 @@
       <c r="Y802" s="4"/>
       <c r="Z802" s="4"/>
     </row>
-    <row r="803" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -25828,7 +25854,7 @@
       <c r="Y803" s="4"/>
       <c r="Z803" s="4"/>
     </row>
-    <row r="804" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -25856,7 +25882,7 @@
       <c r="Y804" s="4"/>
       <c r="Z804" s="4"/>
     </row>
-    <row r="805" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -25884,7 +25910,7 @@
       <c r="Y805" s="4"/>
       <c r="Z805" s="4"/>
     </row>
-    <row r="806" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -25912,7 +25938,7 @@
       <c r="Y806" s="4"/>
       <c r="Z806" s="4"/>
     </row>
-    <row r="807" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -25940,7 +25966,7 @@
       <c r="Y807" s="4"/>
       <c r="Z807" s="4"/>
     </row>
-    <row r="808" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -25968,7 +25994,7 @@
       <c r="Y808" s="4"/>
       <c r="Z808" s="4"/>
     </row>
-    <row r="809" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -25996,7 +26022,7 @@
       <c r="Y809" s="4"/>
       <c r="Z809" s="4"/>
     </row>
-    <row r="810" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -26024,7 +26050,7 @@
       <c r="Y810" s="4"/>
       <c r="Z810" s="4"/>
     </row>
-    <row r="811" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -26052,7 +26078,7 @@
       <c r="Y811" s="4"/>
       <c r="Z811" s="4"/>
     </row>
-    <row r="812" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -26080,7 +26106,7 @@
       <c r="Y812" s="4"/>
       <c r="Z812" s="4"/>
     </row>
-    <row r="813" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -26108,7 +26134,7 @@
       <c r="Y813" s="4"/>
       <c r="Z813" s="4"/>
     </row>
-    <row r="814" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -26136,7 +26162,7 @@
       <c r="Y814" s="4"/>
       <c r="Z814" s="4"/>
     </row>
-    <row r="815" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -26164,7 +26190,7 @@
       <c r="Y815" s="4"/>
       <c r="Z815" s="4"/>
     </row>
-    <row r="816" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -26192,7 +26218,7 @@
       <c r="Y816" s="4"/>
       <c r="Z816" s="4"/>
     </row>
-    <row r="817" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -26220,7 +26246,7 @@
       <c r="Y817" s="4"/>
       <c r="Z817" s="4"/>
     </row>
-    <row r="818" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -26248,7 +26274,7 @@
       <c r="Y818" s="4"/>
       <c r="Z818" s="4"/>
     </row>
-    <row r="819" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -26276,7 +26302,7 @@
       <c r="Y819" s="4"/>
       <c r="Z819" s="4"/>
     </row>
-    <row r="820" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -26304,7 +26330,7 @@
       <c r="Y820" s="4"/>
       <c r="Z820" s="4"/>
     </row>
-    <row r="821" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -26332,7 +26358,7 @@
       <c r="Y821" s="4"/>
       <c r="Z821" s="4"/>
     </row>
-    <row r="822" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -26360,7 +26386,7 @@
       <c r="Y822" s="4"/>
       <c r="Z822" s="4"/>
     </row>
-    <row r="823" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -26388,7 +26414,7 @@
       <c r="Y823" s="4"/>
       <c r="Z823" s="4"/>
     </row>
-    <row r="824" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -26416,7 +26442,7 @@
       <c r="Y824" s="4"/>
       <c r="Z824" s="4"/>
     </row>
-    <row r="825" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -26444,7 +26470,7 @@
       <c r="Y825" s="4"/>
       <c r="Z825" s="4"/>
     </row>
-    <row r="826" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -26472,7 +26498,7 @@
       <c r="Y826" s="4"/>
       <c r="Z826" s="4"/>
     </row>
-    <row r="827" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -26500,7 +26526,7 @@
       <c r="Y827" s="4"/>
       <c r="Z827" s="4"/>
     </row>
-    <row r="828" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -26528,7 +26554,7 @@
       <c r="Y828" s="4"/>
       <c r="Z828" s="4"/>
     </row>
-    <row r="829" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -26556,7 +26582,7 @@
       <c r="Y829" s="4"/>
       <c r="Z829" s="4"/>
     </row>
-    <row r="830" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -26584,7 +26610,7 @@
       <c r="Y830" s="4"/>
       <c r="Z830" s="4"/>
     </row>
-    <row r="831" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -26612,7 +26638,7 @@
       <c r="Y831" s="4"/>
       <c r="Z831" s="4"/>
     </row>
-    <row r="832" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -26640,7 +26666,7 @@
       <c r="Y832" s="4"/>
       <c r="Z832" s="4"/>
     </row>
-    <row r="833" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -26668,7 +26694,7 @@
       <c r="Y833" s="4"/>
       <c r="Z833" s="4"/>
     </row>
-    <row r="834" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -26696,7 +26722,7 @@
       <c r="Y834" s="4"/>
       <c r="Z834" s="4"/>
     </row>
-    <row r="835" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -26724,7 +26750,7 @@
       <c r="Y835" s="4"/>
       <c r="Z835" s="4"/>
     </row>
-    <row r="836" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -26752,7 +26778,7 @@
       <c r="Y836" s="4"/>
       <c r="Z836" s="4"/>
     </row>
-    <row r="837" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -26780,7 +26806,7 @@
       <c r="Y837" s="4"/>
       <c r="Z837" s="4"/>
     </row>
-    <row r="838" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -26808,7 +26834,7 @@
       <c r="Y838" s="4"/>
       <c r="Z838" s="4"/>
     </row>
-    <row r="839" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -26836,7 +26862,7 @@
       <c r="Y839" s="4"/>
       <c r="Z839" s="4"/>
     </row>
-    <row r="840" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -26864,7 +26890,7 @@
       <c r="Y840" s="4"/>
       <c r="Z840" s="4"/>
     </row>
-    <row r="841" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -26892,7 +26918,7 @@
       <c r="Y841" s="4"/>
       <c r="Z841" s="4"/>
     </row>
-    <row r="842" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -26920,7 +26946,7 @@
       <c r="Y842" s="4"/>
       <c r="Z842" s="4"/>
     </row>
-    <row r="843" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -26948,7 +26974,7 @@
       <c r="Y843" s="4"/>
       <c r="Z843" s="4"/>
     </row>
-    <row r="844" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -26976,7 +27002,7 @@
       <c r="Y844" s="4"/>
       <c r="Z844" s="4"/>
     </row>
-    <row r="845" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -27004,7 +27030,7 @@
       <c r="Y845" s="4"/>
       <c r="Z845" s="4"/>
     </row>
-    <row r="846" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -27032,7 +27058,7 @@
       <c r="Y846" s="4"/>
       <c r="Z846" s="4"/>
     </row>
-    <row r="847" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -27060,7 +27086,7 @@
       <c r="Y847" s="4"/>
       <c r="Z847" s="4"/>
     </row>
-    <row r="848" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -27088,7 +27114,7 @@
       <c r="Y848" s="4"/>
       <c r="Z848" s="4"/>
     </row>
-    <row r="849" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -27116,7 +27142,7 @@
       <c r="Y849" s="4"/>
       <c r="Z849" s="4"/>
     </row>
-    <row r="850" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -27144,7 +27170,7 @@
       <c r="Y850" s="4"/>
       <c r="Z850" s="4"/>
     </row>
-    <row r="851" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -27172,7 +27198,7 @@
       <c r="Y851" s="4"/>
       <c r="Z851" s="4"/>
     </row>
-    <row r="852" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -27200,7 +27226,7 @@
       <c r="Y852" s="4"/>
       <c r="Z852" s="4"/>
     </row>
-    <row r="853" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -27228,7 +27254,7 @@
       <c r="Y853" s="4"/>
       <c r="Z853" s="4"/>
     </row>
-    <row r="854" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -27256,7 +27282,7 @@
       <c r="Y854" s="4"/>
       <c r="Z854" s="4"/>
     </row>
-    <row r="855" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -27284,7 +27310,7 @@
       <c r="Y855" s="4"/>
       <c r="Z855" s="4"/>
     </row>
-    <row r="856" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -27312,7 +27338,7 @@
       <c r="Y856" s="4"/>
       <c r="Z856" s="4"/>
     </row>
-    <row r="857" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -27340,7 +27366,7 @@
       <c r="Y857" s="4"/>
       <c r="Z857" s="4"/>
     </row>
-    <row r="858" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -27368,7 +27394,7 @@
       <c r="Y858" s="4"/>
       <c r="Z858" s="4"/>
     </row>
-    <row r="859" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -27396,7 +27422,7 @@
       <c r="Y859" s="4"/>
       <c r="Z859" s="4"/>
     </row>
-    <row r="860" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -27424,7 +27450,7 @@
       <c r="Y860" s="4"/>
       <c r="Z860" s="4"/>
     </row>
-    <row r="861" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -27452,7 +27478,7 @@
       <c r="Y861" s="4"/>
       <c r="Z861" s="4"/>
     </row>
-    <row r="862" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -27480,7 +27506,7 @@
       <c r="Y862" s="4"/>
       <c r="Z862" s="4"/>
     </row>
-    <row r="863" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -27508,7 +27534,7 @@
       <c r="Y863" s="4"/>
       <c r="Z863" s="4"/>
     </row>
-    <row r="864" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -27536,7 +27562,7 @@
       <c r="Y864" s="4"/>
       <c r="Z864" s="4"/>
     </row>
-    <row r="865" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -27564,7 +27590,7 @@
       <c r="Y865" s="4"/>
       <c r="Z865" s="4"/>
     </row>
-    <row r="866" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -27592,7 +27618,7 @@
       <c r="Y866" s="4"/>
       <c r="Z866" s="4"/>
     </row>
-    <row r="867" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -27620,7 +27646,7 @@
       <c r="Y867" s="4"/>
       <c r="Z867" s="4"/>
     </row>
-    <row r="868" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -27648,7 +27674,7 @@
       <c r="Y868" s="4"/>
       <c r="Z868" s="4"/>
     </row>
-    <row r="869" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -27676,7 +27702,7 @@
       <c r="Y869" s="4"/>
       <c r="Z869" s="4"/>
     </row>
-    <row r="870" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -27704,7 +27730,7 @@
       <c r="Y870" s="4"/>
       <c r="Z870" s="4"/>
     </row>
-    <row r="871" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -27732,7 +27758,7 @@
       <c r="Y871" s="4"/>
       <c r="Z871" s="4"/>
     </row>
-    <row r="872" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -27760,7 +27786,7 @@
       <c r="Y872" s="4"/>
       <c r="Z872" s="4"/>
     </row>
-    <row r="873" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -27788,7 +27814,7 @@
       <c r="Y873" s="4"/>
       <c r="Z873" s="4"/>
     </row>
-    <row r="874" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -27816,7 +27842,7 @@
       <c r="Y874" s="4"/>
       <c r="Z874" s="4"/>
     </row>
-    <row r="875" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -27844,7 +27870,7 @@
       <c r="Y875" s="4"/>
       <c r="Z875" s="4"/>
     </row>
-    <row r="876" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -27872,7 +27898,7 @@
       <c r="Y876" s="4"/>
       <c r="Z876" s="4"/>
     </row>
-    <row r="877" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -27900,7 +27926,7 @@
       <c r="Y877" s="4"/>
       <c r="Z877" s="4"/>
     </row>
-    <row r="878" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -27928,7 +27954,7 @@
       <c r="Y878" s="4"/>
       <c r="Z878" s="4"/>
     </row>
-    <row r="879" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -27956,7 +27982,7 @@
       <c r="Y879" s="4"/>
       <c r="Z879" s="4"/>
     </row>
-    <row r="880" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -27984,7 +28010,7 @@
       <c r="Y880" s="4"/>
       <c r="Z880" s="4"/>
     </row>
-    <row r="881" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -28012,7 +28038,7 @@
       <c r="Y881" s="4"/>
       <c r="Z881" s="4"/>
     </row>
-    <row r="882" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -28040,7 +28066,7 @@
       <c r="Y882" s="4"/>
       <c r="Z882" s="4"/>
     </row>
-    <row r="883" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -28068,7 +28094,7 @@
       <c r="Y883" s="4"/>
       <c r="Z883" s="4"/>
     </row>
-    <row r="884" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -28096,7 +28122,7 @@
       <c r="Y884" s="4"/>
       <c r="Z884" s="4"/>
     </row>
-    <row r="885" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -28124,7 +28150,7 @@
       <c r="Y885" s="4"/>
       <c r="Z885" s="4"/>
     </row>
-    <row r="886" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -28152,7 +28178,7 @@
       <c r="Y886" s="4"/>
       <c r="Z886" s="4"/>
     </row>
-    <row r="887" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -28180,7 +28206,7 @@
       <c r="Y887" s="4"/>
       <c r="Z887" s="4"/>
     </row>
-    <row r="888" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -28208,7 +28234,7 @@
       <c r="Y888" s="4"/>
       <c r="Z888" s="4"/>
     </row>
-    <row r="889" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -28236,7 +28262,7 @@
       <c r="Y889" s="4"/>
       <c r="Z889" s="4"/>
     </row>
-    <row r="890" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -28264,7 +28290,7 @@
       <c r="Y890" s="4"/>
       <c r="Z890" s="4"/>
     </row>
-    <row r="891" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -28292,7 +28318,7 @@
       <c r="Y891" s="4"/>
       <c r="Z891" s="4"/>
     </row>
-    <row r="892" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -28320,7 +28346,7 @@
       <c r="Y892" s="4"/>
       <c r="Z892" s="4"/>
     </row>
-    <row r="893" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -28348,7 +28374,7 @@
       <c r="Y893" s="4"/>
       <c r="Z893" s="4"/>
     </row>
-    <row r="894" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -28376,7 +28402,7 @@
       <c r="Y894" s="4"/>
       <c r="Z894" s="4"/>
     </row>
-    <row r="895" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -28404,7 +28430,7 @@
       <c r="Y895" s="4"/>
       <c r="Z895" s="4"/>
     </row>
-    <row r="896" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -28432,7 +28458,7 @@
       <c r="Y896" s="4"/>
       <c r="Z896" s="4"/>
     </row>
-    <row r="897" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -28460,7 +28486,7 @@
       <c r="Y897" s="4"/>
       <c r="Z897" s="4"/>
     </row>
-    <row r="898" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -28488,7 +28514,7 @@
       <c r="Y898" s="4"/>
       <c r="Z898" s="4"/>
     </row>
-    <row r="899" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -28516,7 +28542,7 @@
       <c r="Y899" s="4"/>
       <c r="Z899" s="4"/>
     </row>
-    <row r="900" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -28544,7 +28570,7 @@
       <c r="Y900" s="4"/>
       <c r="Z900" s="4"/>
     </row>
-    <row r="901" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -28572,7 +28598,7 @@
       <c r="Y901" s="4"/>
       <c r="Z901" s="4"/>
     </row>
-    <row r="902" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -28600,7 +28626,7 @@
       <c r="Y902" s="4"/>
       <c r="Z902" s="4"/>
     </row>
-    <row r="903" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -28628,7 +28654,7 @@
       <c r="Y903" s="4"/>
       <c r="Z903" s="4"/>
     </row>
-    <row r="904" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -28656,7 +28682,7 @@
       <c r="Y904" s="4"/>
       <c r="Z904" s="4"/>
     </row>
-    <row r="905" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -28684,7 +28710,7 @@
       <c r="Y905" s="4"/>
       <c r="Z905" s="4"/>
     </row>
-    <row r="906" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -28712,7 +28738,7 @@
       <c r="Y906" s="4"/>
       <c r="Z906" s="4"/>
     </row>
-    <row r="907" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -28740,7 +28766,7 @@
       <c r="Y907" s="4"/>
       <c r="Z907" s="4"/>
     </row>
-    <row r="908" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -28768,7 +28794,7 @@
       <c r="Y908" s="4"/>
       <c r="Z908" s="4"/>
     </row>
-    <row r="909" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -28796,7 +28822,7 @@
       <c r="Y909" s="4"/>
       <c r="Z909" s="4"/>
     </row>
-    <row r="910" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -28824,7 +28850,7 @@
       <c r="Y910" s="4"/>
       <c r="Z910" s="4"/>
     </row>
-    <row r="911" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -28852,7 +28878,7 @@
       <c r="Y911" s="4"/>
       <c r="Z911" s="4"/>
     </row>
-    <row r="912" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -28880,7 +28906,7 @@
       <c r="Y912" s="4"/>
       <c r="Z912" s="4"/>
     </row>
-    <row r="913" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -28908,7 +28934,7 @@
       <c r="Y913" s="4"/>
       <c r="Z913" s="4"/>
     </row>
-    <row r="914" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -28936,7 +28962,7 @@
       <c r="Y914" s="4"/>
       <c r="Z914" s="4"/>
     </row>
-    <row r="915" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -28964,7 +28990,7 @@
       <c r="Y915" s="4"/>
       <c r="Z915" s="4"/>
     </row>
-    <row r="916" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -28992,7 +29018,7 @@
       <c r="Y916" s="4"/>
       <c r="Z916" s="4"/>
     </row>
-    <row r="917" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -29020,7 +29046,7 @@
       <c r="Y917" s="4"/>
       <c r="Z917" s="4"/>
     </row>
-    <row r="918" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -29048,7 +29074,7 @@
       <c r="Y918" s="4"/>
       <c r="Z918" s="4"/>
     </row>
-    <row r="919" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -29076,7 +29102,7 @@
       <c r="Y919" s="4"/>
       <c r="Z919" s="4"/>
     </row>
-    <row r="920" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -29104,7 +29130,7 @@
       <c r="Y920" s="4"/>
       <c r="Z920" s="4"/>
     </row>
-    <row r="921" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -29132,7 +29158,7 @@
       <c r="Y921" s="4"/>
       <c r="Z921" s="4"/>
     </row>
-    <row r="922" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -29160,7 +29186,7 @@
       <c r="Y922" s="4"/>
       <c r="Z922" s="4"/>
     </row>
-    <row r="923" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -29188,7 +29214,7 @@
       <c r="Y923" s="4"/>
       <c r="Z923" s="4"/>
     </row>
-    <row r="924" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -29216,7 +29242,7 @@
       <c r="Y924" s="4"/>
       <c r="Z924" s="4"/>
     </row>
-    <row r="925" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -29244,7 +29270,7 @@
       <c r="Y925" s="4"/>
       <c r="Z925" s="4"/>
     </row>
-    <row r="926" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -29272,7 +29298,7 @@
       <c r="Y926" s="4"/>
       <c r="Z926" s="4"/>
     </row>
-    <row r="927" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -29300,7 +29326,7 @@
       <c r="Y927" s="4"/>
       <c r="Z927" s="4"/>
     </row>
-    <row r="928" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -29328,7 +29354,7 @@
       <c r="Y928" s="4"/>
       <c r="Z928" s="4"/>
     </row>
-    <row r="929" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -29356,7 +29382,7 @@
       <c r="Y929" s="4"/>
       <c r="Z929" s="4"/>
     </row>
-    <row r="930" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -29384,7 +29410,7 @@
       <c r="Y930" s="4"/>
       <c r="Z930" s="4"/>
     </row>
-    <row r="931" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -29412,7 +29438,7 @@
       <c r="Y931" s="4"/>
       <c r="Z931" s="4"/>
     </row>
-    <row r="932" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -29440,7 +29466,7 @@
       <c r="Y932" s="4"/>
       <c r="Z932" s="4"/>
     </row>
-    <row r="933" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -29468,7 +29494,7 @@
       <c r="Y933" s="4"/>
       <c r="Z933" s="4"/>
     </row>
-    <row r="934" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -29496,7 +29522,7 @@
       <c r="Y934" s="4"/>
       <c r="Z934" s="4"/>
     </row>
-    <row r="935" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -29524,7 +29550,7 @@
       <c r="Y935" s="4"/>
       <c r="Z935" s="4"/>
     </row>
-    <row r="936" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -29552,7 +29578,7 @@
       <c r="Y936" s="4"/>
       <c r="Z936" s="4"/>
     </row>
-    <row r="937" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -29580,7 +29606,7 @@
       <c r="Y937" s="4"/>
       <c r="Z937" s="4"/>
     </row>
-    <row r="938" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -29608,7 +29634,7 @@
       <c r="Y938" s="4"/>
       <c r="Z938" s="4"/>
     </row>
-    <row r="939" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -29636,7 +29662,7 @@
       <c r="Y939" s="4"/>
       <c r="Z939" s="4"/>
     </row>
-    <row r="940" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -29664,7 +29690,7 @@
       <c r="Y940" s="4"/>
       <c r="Z940" s="4"/>
     </row>
-    <row r="941" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -29692,7 +29718,7 @@
       <c r="Y941" s="4"/>
       <c r="Z941" s="4"/>
     </row>
-    <row r="942" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -29720,7 +29746,7 @@
       <c r="Y942" s="4"/>
       <c r="Z942" s="4"/>
     </row>
-    <row r="943" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -29748,7 +29774,7 @@
       <c r="Y943" s="4"/>
       <c r="Z943" s="4"/>
     </row>
-    <row r="944" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -29776,7 +29802,7 @@
       <c r="Y944" s="4"/>
       <c r="Z944" s="4"/>
     </row>
-    <row r="945" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -29804,7 +29830,7 @@
       <c r="Y945" s="4"/>
       <c r="Z945" s="4"/>
     </row>
-    <row r="946" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -29832,7 +29858,7 @@
       <c r="Y946" s="4"/>
       <c r="Z946" s="4"/>
     </row>
-    <row r="947" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -29860,7 +29886,7 @@
       <c r="Y947" s="4"/>
       <c r="Z947" s="4"/>
     </row>
-    <row r="948" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -29888,7 +29914,7 @@
       <c r="Y948" s="4"/>
       <c r="Z948" s="4"/>
     </row>
-    <row r="949" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -29916,7 +29942,7 @@
       <c r="Y949" s="4"/>
       <c r="Z949" s="4"/>
     </row>
-    <row r="950" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -29944,7 +29970,7 @@
       <c r="Y950" s="4"/>
       <c r="Z950" s="4"/>
     </row>
-    <row r="951" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -29972,7 +29998,7 @@
       <c r="Y951" s="4"/>
       <c r="Z951" s="4"/>
     </row>
-    <row r="952" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -30000,7 +30026,7 @@
       <c r="Y952" s="4"/>
       <c r="Z952" s="4"/>
     </row>
-    <row r="953" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -30028,7 +30054,7 @@
       <c r="Y953" s="4"/>
       <c r="Z953" s="4"/>
     </row>
-    <row r="954" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -30056,7 +30082,7 @@
       <c r="Y954" s="4"/>
       <c r="Z954" s="4"/>
     </row>
-    <row r="955" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -30084,7 +30110,7 @@
       <c r="Y955" s="4"/>
       <c r="Z955" s="4"/>
     </row>
-    <row r="956" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -30112,7 +30138,7 @@
       <c r="Y956" s="4"/>
       <c r="Z956" s="4"/>
     </row>
-    <row r="957" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -30140,7 +30166,7 @@
       <c r="Y957" s="4"/>
       <c r="Z957" s="4"/>
     </row>
-    <row r="958" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -30168,7 +30194,7 @@
       <c r="Y958" s="4"/>
       <c r="Z958" s="4"/>
     </row>
-    <row r="959" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -30196,7 +30222,7 @@
       <c r="Y959" s="4"/>
       <c r="Z959" s="4"/>
     </row>
-    <row r="960" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -30224,7 +30250,7 @@
       <c r="Y960" s="4"/>
       <c r="Z960" s="4"/>
     </row>
-    <row r="961" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -30252,7 +30278,7 @@
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
     </row>
-    <row r="962" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -30280,7 +30306,7 @@
       <c r="Y962" s="4"/>
       <c r="Z962" s="4"/>
     </row>
-    <row r="963" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -30308,7 +30334,7 @@
       <c r="Y963" s="4"/>
       <c r="Z963" s="4"/>
     </row>
-    <row r="964" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -30336,7 +30362,7 @@
       <c r="Y964" s="4"/>
       <c r="Z964" s="4"/>
     </row>
-    <row r="965" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -30364,7 +30390,7 @@
       <c r="Y965" s="4"/>
       <c r="Z965" s="4"/>
     </row>
-    <row r="966" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -30392,7 +30418,7 @@
       <c r="Y966" s="4"/>
       <c r="Z966" s="4"/>
     </row>
-    <row r="967" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -30420,7 +30446,7 @@
       <c r="Y967" s="4"/>
       <c r="Z967" s="4"/>
     </row>
-    <row r="968" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -30448,7 +30474,7 @@
       <c r="Y968" s="4"/>
       <c r="Z968" s="4"/>
     </row>
-    <row r="969" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -30476,7 +30502,7 @@
       <c r="Y969" s="4"/>
       <c r="Z969" s="4"/>
     </row>
-    <row r="970" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -30504,7 +30530,7 @@
       <c r="Y970" s="4"/>
       <c r="Z970" s="4"/>
     </row>
-    <row r="971" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -30532,7 +30558,7 @@
       <c r="Y971" s="4"/>
       <c r="Z971" s="4"/>
     </row>
-    <row r="972" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -30560,7 +30586,7 @@
       <c r="Y972" s="4"/>
       <c r="Z972" s="4"/>
     </row>
-    <row r="973" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -30588,7 +30614,7 @@
       <c r="Y973" s="4"/>
       <c r="Z973" s="4"/>
     </row>
-    <row r="974" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -30616,7 +30642,7 @@
       <c r="Y974" s="4"/>
       <c r="Z974" s="4"/>
     </row>
-    <row r="975" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -30644,7 +30670,7 @@
       <c r="Y975" s="4"/>
       <c r="Z975" s="4"/>
     </row>
-    <row r="976" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -30672,7 +30698,7 @@
       <c r="Y976" s="4"/>
       <c r="Z976" s="4"/>
     </row>
-    <row r="977" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -30700,7 +30726,7 @@
       <c r="Y977" s="4"/>
       <c r="Z977" s="4"/>
     </row>
-    <row r="978" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -30728,7 +30754,7 @@
       <c r="Y978" s="4"/>
       <c r="Z978" s="4"/>
     </row>
-    <row r="979" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -30756,7 +30782,7 @@
       <c r="Y979" s="4"/>
       <c r="Z979" s="4"/>
     </row>
-    <row r="980" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -30784,7 +30810,7 @@
       <c r="Y980" s="4"/>
       <c r="Z980" s="4"/>
     </row>
-    <row r="981" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -30812,7 +30838,7 @@
       <c r="Y981" s="4"/>
       <c r="Z981" s="4"/>
     </row>
-    <row r="982" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -30840,7 +30866,7 @@
       <c r="Y982" s="4"/>
       <c r="Z982" s="4"/>
     </row>
-    <row r="983" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -30868,7 +30894,7 @@
       <c r="Y983" s="4"/>
       <c r="Z983" s="4"/>
     </row>
-    <row r="984" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -30896,7 +30922,7 @@
       <c r="Y984" s="4"/>
       <c r="Z984" s="4"/>
     </row>
-    <row r="985" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -30924,7 +30950,7 @@
       <c r="Y985" s="4"/>
       <c r="Z985" s="4"/>
     </row>
-    <row r="986" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -30952,7 +30978,7 @@
       <c r="Y986" s="4"/>
       <c r="Z986" s="4"/>
     </row>
-    <row r="987" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -30980,7 +31006,7 @@
       <c r="Y987" s="4"/>
       <c r="Z987" s="4"/>
     </row>
-    <row r="988" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -31008,7 +31034,7 @@
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
     </row>
-    <row r="989" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -31036,7 +31062,7 @@
       <c r="Y989" s="4"/>
       <c r="Z989" s="4"/>
     </row>
-    <row r="990" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -31064,7 +31090,7 @@
       <c r="Y990" s="4"/>
       <c r="Z990" s="4"/>
     </row>
-    <row r="991" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -31092,7 +31118,7 @@
       <c r="Y991" s="4"/>
       <c r="Z991" s="4"/>
     </row>
-    <row r="992" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -31120,7 +31146,7 @@
       <c r="Y992" s="4"/>
       <c r="Z992" s="4"/>
     </row>
-    <row r="993" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -31148,7 +31174,7 @@
       <c r="Y993" s="4"/>
       <c r="Z993" s="4"/>
     </row>
-    <row r="994" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -31176,7 +31202,7 @@
       <c r="Y994" s="4"/>
       <c r="Z994" s="4"/>
     </row>
-    <row r="995" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -31204,7 +31230,7 @@
       <c r="Y995" s="4"/>
       <c r="Z995" s="4"/>
     </row>
-    <row r="996" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -31232,7 +31258,7 @@
       <c r="Y996" s="4"/>
       <c r="Z996" s="4"/>
     </row>
-    <row r="997" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -31260,7 +31286,7 @@
       <c r="Y997" s="4"/>
       <c r="Z997" s="4"/>
     </row>
-    <row r="998" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -31288,7 +31314,7 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
-    <row r="999" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -31316,7 +31342,7 @@
       <c r="Y999" s="4"/>
       <c r="Z999" s="4"/>
     </row>
-    <row r="1000" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21B8F9E-EC1F-414C-B3ED-F893E11175C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F854C-0F9F-404A-AD50-E1ED9A3C5E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1730,7 +1730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,6 +1796,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2016,9 +2017,9 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R74" sqref="R74"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4353,7 +4354,7 @@
       <c r="D53" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="43"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="6" t="s">
         <v>367</v>
       </c>

--- a/uomBirds.xlsx
+++ b/uomBirds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8F854C-0F9F-404A-AD50-E1ED9A3C5E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7880F5F8-5298-4935-A401-08E962BA6ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="521">
   <si>
     <t>Common Name</t>
   </si>
@@ -967,9 +967,6 @@
     <t>ASIAN PALM-SWIFT</t>
   </si>
   <si>
-    <t>Median Egret</t>
-  </si>
-  <si>
     <t>INDIAN POND-HERON</t>
   </si>
   <si>
@@ -979,9 +976,6 @@
     <t>STRIATED HERON</t>
   </si>
   <si>
-    <t>Western Cattle Egret</t>
-  </si>
-  <si>
     <t>Large-billed Crow</t>
   </si>
   <si>
@@ -1565,6 +1559,30 @@
   </si>
   <si>
     <t>Primarily consume fish, occasionally on crustaceans and amphibians. They engage in diving to capture their prey and resurface to swallow it.</t>
+  </si>
+  <si>
+    <t>Eastern Cattle Egret</t>
+  </si>
+  <si>
+    <t>FOREST WAGTAIL</t>
+  </si>
+  <si>
+    <t>Dendronanthus indicus</t>
+  </si>
+  <si>
+    <t>Observed multiple times but only at hotspot 2, Kaju kele.</t>
+  </si>
+  <si>
+    <t>This unique wagtail is easily recognizable due to its specific wing and breast markings. It features a noticeable light-colored stripe above the eye, accompanied by two curved black bands on the upper part of the chest; the lower band being wider if it's there. Its back and wings are a mix of brown and gray with a hint of green, adorned with two distinct white bars across the wings amidst the black plumage.</t>
+  </si>
+  <si>
+    <t>The diet primarily includes tiny invertebrates like ants, beetles, small grasshoppers, butterflies, cicadas, and various other insects. It also includes spiders, small mollusks, and worms.</t>
+  </si>
+  <si>
+    <t>Medium Egret</t>
+  </si>
+  <si>
+    <t>Fairly common winter migrant throughout. Paths and open spaces in wooded areas are the preferred habitat.</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,7 +1814,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2015,11 +2032,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E53" sqref="E53"/>
+      <selection pane="topRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2111,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
@@ -2103,7 +2120,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2138,13 +2155,13 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="46" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>16</v>
@@ -2182,16 +2199,16 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="46" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2226,10 +2243,10 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="46" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>21</v>
@@ -2272,16 +2289,16 @@
         <v>310</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>296</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2319,10 +2336,10 @@
         <v>247</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>25</v>
@@ -2362,16 +2379,16 @@
         <v>311</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2409,13 +2426,13 @@
         <v>247</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2453,13 +2470,13 @@
         <v>247</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2497,10 +2514,10 @@
         <v>247</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>33</v>
@@ -2544,7 +2561,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>38</v>
@@ -2582,16 +2599,16 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2626,16 +2643,16 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="47" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2669,13 +2686,13 @@
         <v>216</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>315</v>
+        <v>519</v>
       </c>
       <c r="F15" s="46" t="s">
         <v>247</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>47</v>
@@ -2719,7 +2736,7 @@
         <v>247</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>51</v>
@@ -2747,7 +2764,7 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>53</v>
@@ -2763,13 +2780,13 @@
         <v>247</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2791,7 +2808,7 @@
     </row>
     <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>55</v>
@@ -2807,7 +2824,7 @@
         <v>247</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>56</v>
@@ -2851,13 +2868,13 @@
         <v>249</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2879,7 +2896,7 @@
     </row>
     <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>282</v>
@@ -2901,7 +2918,7 @@
         <v>297</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2935,19 +2952,19 @@
         <v>216</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>319</v>
+        <v>513</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>306</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>307</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2988,10 +3005,10 @@
         <v>309</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -3026,16 +3043,16 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>299</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -3073,10 +3090,10 @@
         <v>250</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>63</v>
@@ -3114,16 +3131,16 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>292</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -3161,13 +3178,13 @@
         <v>251</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3205,13 +3222,13 @@
         <v>252</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -3249,13 +3266,13 @@
         <v>253</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3293,7 +3310,7 @@
         <v>75</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>76</v>
@@ -3334,10 +3351,10 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>80</v>
@@ -3378,7 +3395,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>83</v>
@@ -3422,16 +3439,16 @@
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>290</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3469,13 +3486,13 @@
         <v>89</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -3509,19 +3526,19 @@
         <v>216</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -3558,16 +3575,16 @@
         <v>219</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -3589,7 +3606,7 @@
     </row>
     <row r="36" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>98</v>
@@ -3601,19 +3618,19 @@
         <v>216</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -3648,16 +3665,16 @@
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>102</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3692,7 +3709,7 @@
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>105</v>
@@ -3701,7 +3718,7 @@
         <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -3736,16 +3753,16 @@
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>109</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -3780,16 +3797,16 @@
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>291</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3827,13 +3844,13 @@
         <v>254</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3855,7 +3872,7 @@
     </row>
     <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>114</v>
@@ -3871,13 +3888,13 @@
         <v>255</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>115</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3915,13 +3932,13 @@
         <v>248</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>118</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -3959,13 +3976,13 @@
         <v>285</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>289</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -4003,13 +4020,13 @@
         <v>248</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -4044,16 +4061,16 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>293</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -4075,7 +4092,7 @@
     </row>
     <row r="47" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>220</v>
@@ -4088,7 +4105,7 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>124</v>
@@ -4097,7 +4114,7 @@
         <v>125</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4132,7 +4149,7 @@
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>127</v>
@@ -4141,7 +4158,7 @@
         <v>128</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -4163,7 +4180,7 @@
     </row>
     <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B49" s="22" t="s">
         <v>222</v>
@@ -4175,13 +4192,13 @@
         <v>216</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>129</v>
@@ -4209,7 +4226,7 @@
     </row>
     <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>131</v>
@@ -4222,16 +4239,16 @@
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>133</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -4265,19 +4282,19 @@
         <v>216</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>137</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -4302,7 +4319,7 @@
         <v>138</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>139</v>
@@ -4312,7 +4329,7 @@
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>140</v>
@@ -4321,7 +4338,7 @@
         <v>141</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -4343,29 +4360,29 @@
     </row>
     <row r="53" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>143</v>
+        <v>514</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>515</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="49"/>
+      <c r="D53" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="43"/>
       <c r="F53" s="6" t="s">
-        <v>367</v>
+        <v>516</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -4387,29 +4404,29 @@
     </row>
     <row r="54" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>216</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="26" t="s">
-        <v>368</v>
+      <c r="F54" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -4430,30 +4447,30 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>148</v>
+      <c r="A55" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="6" t="s">
-        <v>149</v>
+      <c r="D55" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="26" t="s">
+        <v>366</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>150</v>
+        <v>412</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -4473,31 +4490,31 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>224</v>
+    <row r="56" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>369</v>
+      <c r="D56" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -4519,29 +4536,29 @@
     </row>
     <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E57" s="43"/>
+      <c r="D57" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>294</v>
+        <v>152</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -4561,31 +4578,31 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="6" t="s">
-        <v>370</v>
+    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>416</v>
+        <v>300</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -4607,10 +4624,10 @@
     </row>
     <row r="59" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>154</v>
@@ -4618,20 +4635,18 @@
       <c r="D59" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4652,27 +4667,29 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>159</v>
+      <c r="A60" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="43"/>
+        <v>154</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="F60" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>494</v>
@@ -4696,30 +4713,30 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>163</v>
+      <c r="A61" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" s="4"/>
+      <c r="D61" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="43"/>
       <c r="F61" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>417</v>
+        <v>161</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I61" s="32" t="s">
-        <v>493</v>
+        <v>162</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -4739,31 +4756,31 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>165</v>
+    <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>216</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="6" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>495</v>
+        <v>164</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>491</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4785,29 +4802,29 @@
     </row>
     <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>172</v>
+        <v>493</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4828,30 +4845,30 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="32" t="s">
+      <c r="A64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="6" t="s">
         <v>247</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4872,30 +4889,30 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>177</v>
+      <c r="A65" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="6" t="s">
         <v>247</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>514</v>
+        <v>176</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -4915,31 +4932,31 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>181</v>
+    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>497</v>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -4960,30 +4977,30 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
-        <v>334</v>
+      <c r="A67" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -5004,30 +5021,30 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>242</v>
+      <c r="A68" s="40" t="s">
+        <v>332</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C68" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="38" t="s">
         <v>226</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>499</v>
+        <v>374</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -5049,29 +5066,29 @@
     </row>
     <row r="69" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -5091,12 +5108,12 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>191</v>
+    <row r="70" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>188</v>
@@ -5105,17 +5122,17 @@
         <v>216</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>378</v>
+      <c r="F70" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>436</v>
+        <v>189</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -5135,31 +5152,31 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>193</v>
+    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="6" t="s">
-        <v>256</v>
+      <c r="F71" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>196</v>
+        <v>434</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>198</v>
+        <v>499</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -5180,11 +5197,11 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="44" t="s">
-        <v>336</v>
+      <c r="A72" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>194</v>
@@ -5192,20 +5209,18 @@
       <c r="D72" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>335</v>
-      </c>
+      <c r="E72" s="4"/>
       <c r="F72" s="6" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -5225,31 +5240,33 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" t="s">
-        <v>284</v>
+    <row r="73" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4" t="s">
-        <v>287</v>
+      <c r="E73" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>437</v>
+        <v>199</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -5269,33 +5286,31 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>202</v>
+    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>379</v>
+        <v>216</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -5317,31 +5332,31 @@
     </row>
     <row r="75" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C75" s="32" t="s">
         <v>202</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -5362,27 +5377,29 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>208</v>
+      <c r="A76" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="20" t="s">
+        <v>338</v>
+      </c>
       <c r="F76" s="6" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>209</v>
+        <v>437</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>505</v>
@@ -5407,29 +5424,29 @@
     </row>
     <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="6" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>440</v>
+        <v>209</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>214</v>
+        <v>503</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -5449,33 +5466,31 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>279</v>
+    <row r="78" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>381</v>
+      <c r="E78" s="4"/>
+      <c r="F78" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>506</v>
+        <v>214</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -5496,15 +5511,33 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="A79" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -31255,10 +31288,38 @@
       <c r="Y998" s="4"/>
       <c r="Z998" s="4"/>
     </row>
+    <row r="999" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A999" s="4"/>
+      <c r="B999" s="4"/>
+      <c r="C999" s="4"/>
+      <c r="D999" s="4"/>
+      <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="4"/>
+      <c r="J999" s="4"/>
+      <c r="K999" s="4"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="4"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="4"/>
+      <c r="Z999" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I998">
-    <sortCondition ref="C1:C998"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I999">
+    <sortCondition ref="C1:C999"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
